--- a/CardDatabases/Rising Tensions.xlsx
+++ b/CardDatabases/Rising Tensions.xlsx
@@ -14,10 +14,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1693686687" val="1064" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1693686687" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1693686687" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1693686687"/>
+      <pm:revision xmlns:pm="smNativeData" day="1699824827" val="1064" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1699824827" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1699824827" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1699824827"/>
     </ext>
   </extLst>
 </workbook>
@@ -41,7 +41,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -61,7 +61,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -88,7 +88,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -108,7 +108,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -134,7 +134,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -154,7 +154,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -180,7 +180,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -200,7 +200,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -226,7 +226,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -246,7 +246,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -272,7 +272,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -292,7 +292,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -318,7 +318,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -338,7 +338,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -364,7 +364,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -384,7 +384,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -410,7 +410,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -430,7 +430,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -456,7 +456,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -476,7 +476,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -502,7 +502,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -522,7 +522,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -548,7 +548,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -568,7 +568,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -594,7 +594,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -614,7 +614,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -640,7 +640,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -660,7 +660,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -686,7 +686,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -706,7 +706,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -732,7 +732,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -752,7 +752,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -778,7 +778,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -798,7 +798,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -824,7 +824,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -844,7 +844,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -870,7 +870,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -890,7 +890,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -916,7 +916,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -936,7 +936,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -962,7 +962,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -982,7 +982,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -1008,7 +1008,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -1028,7 +1028,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -1054,7 +1054,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -1074,7 +1074,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -1100,7 +1100,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -1120,7 +1120,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -1146,7 +1146,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -1166,7 +1166,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -1192,7 +1192,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -1212,7 +1212,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -1238,7 +1238,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -1258,7 +1258,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -1284,7 +1284,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -1304,7 +1304,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -1330,7 +1330,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -1350,7 +1350,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -1377,7 +1377,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -1397,7 +1397,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -1423,7 +1423,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -1443,7 +1443,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -1469,7 +1469,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -1489,7 +1489,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -1515,7 +1515,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -1535,7 +1535,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -1561,7 +1561,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -1581,7 +1581,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -1607,7 +1607,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -1627,7 +1627,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -1653,7 +1653,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -1673,7 +1673,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -1699,7 +1699,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -1719,7 +1719,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693686687">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699824827">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -1738,7 +1738,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2833" uniqueCount="1483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2840" uniqueCount="1485">
   <si>
     <t>Slot</t>
   </si>
@@ -1845,7 +1845,7 @@
     <t>&lt;u&gt;Transient&lt;/u&gt; Tragedy</t>
   </si>
   <si>
-    <t>&lt;center&gt;&lt;u&gt;Transient&lt;/u&gt; (If ~ would enter your discard, instead remove it from the game.)&lt;/center&gt;&lt;p&gt;When you draw ~, reveal it and your commander loses 1 loyalty.&lt;/p&gt;&lt;p&gt;Each commander loses 1 loyalty.&lt;/p&gt;</t>
+    <t>&lt;center&gt;&lt;u&gt;Transient&lt;/u&gt; (If ~ would enter your discard, instead remove it from the game.)&lt;/center&gt;&lt;p&gt;When you draw ~: Reveal it and your commander loses 1 loyalty.&lt;/p&gt;&lt;p&gt;Each commander loses 1 loyalty.&lt;/p&gt;</t>
   </si>
   <si>
     <t>"A great leader is able to assuage the doubts of their critics."</t>
@@ -1857,7 +1857,7 @@
     <t>Incarceration</t>
   </si>
   <si>
-    <t>&lt;p&gt;When you draw ~, reveal it, then utilize all of your generators. This effect can't be responded to.&lt;/p&gt;&lt;p&gt;Each player draws a card.&lt;/p&gt;</t>
+    <t>&lt;p&gt;When you draw ~: Reveal it, then utilize all of your generators. This effect can't be responded to.&lt;/p&gt;&lt;p&gt;Each player draws a card.&lt;/p&gt;</t>
   </si>
   <si>
     <t>"A night in prison never hurt anyone." &lt;p&gt;-- Capt. Lux&lt;/p&gt;</t>
@@ -2616,7 +2616,7 @@
     <t>Augmented Male Delta Politician</t>
   </si>
   <si>
-    <t>&lt;center&gt;(Becomes &lt;i&gt;'Samuel, Falsify their Orders'&lt;/i&gt; if you already control ~.)&lt;br/&gt;&lt;u&gt;Pierce&lt;/u&gt; (~@ deals combat damage greater than the combined health of the assets intercepting it to the commander it is attacking and bypasses armor.), &lt;u&gt;Warrant&lt;/u&gt;&lt;/center&gt;&lt;p&gt;&lt;b&gt;&lt;i&gt;As Commander&lt;/i&gt; --&lt;/b&gt; Whenever an asset enters the battlefield, you may pay [1][O]. If you do it permanently gains &lt;u&gt;pierce&lt;/u&gt;, &lt;u&gt;reckless&lt;/u&gt;, and ranged.&lt;/p&gt;</t>
+    <t>&lt;center&gt;(Becomes &lt;i&gt;'Samuel, Falsify their Orders'&lt;/i&gt; if you already control ~.)&lt;br/&gt;&lt;u&gt;Pierce&lt;/u&gt;,&lt;u&gt;Warrant&lt;/u&gt;&lt;/center&gt;&lt;p&gt;&lt;b&gt;&lt;i&gt;As Commander&lt;/i&gt; --&lt;/b&gt; Whenever an asset enters the battlefield, you may pay [1][O]. If you do it permanently gains &lt;u&gt;pierce&lt;/u&gt;, &lt;u&gt;reckless&lt;/u&gt;, and ranged. Then create a &lt;u&gt;transient&lt;/u&gt;, &lt;u&gt;fleeting&lt;/u&gt; &lt;i&gt;'Lead by Example'&lt;/i&gt; in your hand.&lt;/p&gt;</t>
   </si>
   <si>
     <t>"..and like a cancer it must be removed."</t>
@@ -2634,7 +2634,7 @@
     <t>3OO</t>
   </si>
   <si>
-    <t>&lt;center&gt;(This effect can only be deployed if you control a renowned asset. )&lt;/center&gt;&lt;p&gt;The player whose turn it is must attack with all of their combatants, if able, this turn.&lt;/p&gt;&lt;p&gt;&lt;u&gt;Personal&lt;/u&gt; (Shuffle &lt;i&gt;'Samuel Reid, Political Dissident'&lt;/i&gt; into your deck.)&lt;/p&gt;</t>
+    <t>&lt;center&gt;(This effect can only be deployed if you control a renowned asset. )&lt;/center&gt;&lt;p&gt;The player whose turn it is must attack with all of their combatants capable of attacking this turn.&lt;/p&gt;&lt;p&gt;&lt;u&gt;Personal&lt;/u&gt; (Shuffle &lt;i&gt;'Samuel Reid, Political Dissident'&lt;/i&gt; into your deck.)&lt;/p&gt;</t>
   </si>
   <si>
     <t>OR_001</t>
@@ -2898,6 +2898,18 @@
     <t>OC_011</t>
   </si>
   <si>
+    <t>Lead by Example</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;center&gt;~'s cost is equal to your commander's cost&lt;/center&gt;&lt;/p&gt;&lt;p&gt;Your commander becomes an asset, until end of turn (Damage it takes as an asset becomes lost loyalty. If it would leave the battlefield, instead it returns to being your commander.)&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>OC_012</t>
   </si>
   <si>
@@ -3036,9 +3048,6 @@
     <t>Wirecutter</t>
   </si>
   <si>
-    <t>Orange</t>
-  </si>
-  <si>
     <t>&lt;center&gt;Players can't draw cards during combat.&lt;/center&gt;</t>
   </si>
   <si>
@@ -3168,7 +3177,7 @@
     <t>Augmented Female Space-corp Leader</t>
   </si>
   <si>
-    <t>&lt;center&gt;(Becomes &lt;i&gt;'Briggs's Remorse'&lt;/i&gt; if you already control ~@.)&lt;/center&gt;&lt;p&gt;&lt;b&gt;&lt;i&gt;As Commander&lt;/i&gt; --&lt;/b&gt; Assets you control have &lt;u&gt;airdrop&lt;/u&gt; and "When this asset would normally finish deploying, you have a 75% chance to &lt;u&gt;forfeit&lt;/u&gt; it unless you pay a quarter of its cost (separated by type, rounded up.)"&lt;/p&gt;&lt;p&gt;&lt;b&gt;&lt;i&gt;As Asset&lt;/i&gt; --&lt;/b&gt; After interceptors are declared, if ~@ would do combat damage to a commander, you may put a combatant onto the battlefield attacking. If you do, &lt;u&gt;forfeit&lt;/u&gt; it at the end of your turn.&lt;/p&gt;</t>
+    <t>&lt;center&gt;(Becomes &lt;i&gt;'Briggs's Remorse'&lt;/i&gt;...)&lt;/center&gt;&lt;p&gt;&lt;b&gt;&lt;i&gt;As Commander&lt;/i&gt; --&lt;/b&gt; Whenever an asset you control resolves, you may give it &lt;u&gt;airdrop&lt;/u&gt; and "When this asset enters the battlefield, you have a 75% chance to &lt;u&gt;forfeit&lt;/u&gt; it unless you pay a quarter of its cost (separated by type, rounded up.)"&lt;br/&gt;&lt;b&gt;&lt;i&gt;As Asset&lt;/i&gt; --&lt;/b&gt; After interceptors are declared, if ~@ would do combat damage to a commander, you may put a combatant onto the battlefield attacking. If you do, &lt;u&gt;forfeit&lt;/u&gt; it at the end of your turn.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Y_CMDR_1b</t>
@@ -3192,63 +3201,60 @@
     <t>Gunpoint Diplomacy</t>
   </si>
   <si>
+    <t>1YY</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;&lt;u&gt;Retribution&lt;/u&gt; (When you draw ~ as a result of taking damage, you may deploy it without paying its cost.)&lt;/center&gt;&lt;p&gt;Choose an opponent, then draw 2 cards, unless their commander takes 6 damage.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>That's right.. hand over the box of rations nice and slow. Capt. Lux doesn't want any trouble. &lt;p&gt;-- Supply Transport S.O.S.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>YR_002</t>
+  </si>
+  <si>
+    <t>All or Nothing</t>
+  </si>
+  <si>
+    <t>Search your deck for a card, put it into your hand, then shuffle your deck and discard a card at random.</t>
+  </si>
+  <si>
+    <t>YR_003</t>
+  </si>
+  <si>
+    <t>Asteroid Demolition</t>
+  </si>
+  <si>
+    <t>XXYY</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;(This effect can only be deployed if you control a renowned asset. )&lt;/center&gt;&lt;p&gt;Choose [X] permanents at random to be &lt;u&gt;forfeited&lt;/u&gt; (Put the specified assets into their owners' discards.) by their owners.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>"Cracking open an asteroid is always terrifying, nobody knows where the pieces will wind up." &lt;p&gt;-- Space-corp Miner.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>YR_004</t>
+  </si>
+  <si>
+    <t>Double or Nothing</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;([_] must be paid with all of the energy you can currently access.)&lt;/center&gt;&lt;p&gt;Choose an opponent, you and that opponent each reveal the top card of your decks, then if your card has a higher &lt;u&gt;generalized cost&lt;/u&gt; add double the energy spent to deploy ~ to your pool.&lt;/p&gt;&lt;p&gt;You and that opponent each draw a card.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>YU_001</t>
+  </si>
+  <si>
+    <t>Lexi Xenos, Space-corp Recruit</t>
+  </si>
+  <si>
     <t>1Y</t>
   </si>
   <si>
-    <t>&lt;center&gt;&lt;u&gt;Retribution&lt;/u&gt; (When you draw ~ as a result of taking damage, you may deploy it without paying its cost.)&lt;/center&gt;&lt;p&gt;Choose an opponent, then draw 3 cards, unless their commander takes 6 damage.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>That's right.. hand over the box of rations nice and slow. Capt. Lux doesn't want any trouble. &lt;p&gt;-- Supply Transport S.O.S.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>YR_002</t>
-  </si>
-  <si>
-    <t>All or Nothing</t>
-  </si>
-  <si>
-    <t>1YY</t>
-  </si>
-  <si>
-    <t>Search your deck for a card, put it into your hand, then shuffle your deck and discard a card at random.</t>
-  </si>
-  <si>
-    <t>YR_003</t>
-  </si>
-  <si>
-    <t>Asteroid Demolition</t>
-  </si>
-  <si>
-    <t>XXYY</t>
-  </si>
-  <si>
-    <t>&lt;center&gt;(This effect can only be deployed if you control a renowned asset. )&lt;/center&gt;&lt;p&gt;Choose [X] permanents at random to be &lt;u&gt;forfeited&lt;/u&gt; (Put the specified assets into their owners' discards.) by their owners.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>"Cracking open an asteroid is always terrifying, nobody knows where the pieces will wind up." &lt;p&gt;-- Space-corp Miner.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>YR_004</t>
-  </si>
-  <si>
-    <t>Double or Nothing</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>Yellow</t>
-  </si>
-  <si>
-    <t>&lt;center&gt;([_] must be paid with all of the energy you can currently access.)&lt;/center&gt;&lt;p&gt;Choose an opponent, you and that opponent each reveal the top card of your decks, then if your card has a higher &lt;u&gt;generalized cost&lt;/u&gt; add double the energy spent to deploy ~ to your pool.&lt;/p&gt;&lt;p&gt;You and that opponent each draw a card.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>YU_001</t>
-  </si>
-  <si>
-    <t>Lexi Xenos, Space-corp Recruit</t>
-  </si>
-  <si>
     <t>Human Female Space-corp Cadet</t>
   </si>
   <si>
@@ -3642,7 +3648,7 @@
     <t>Human Female Civilian</t>
   </si>
   <si>
-    <t>&lt;center&gt;&lt;u&gt;Retribution&lt;/u&gt; (When you draw ~ as a result of taking damage, you may deploy it without paying its cost.)&lt;/center&gt;&lt;p&gt;When ~ enters the battlefield, it deals 3 damage to an asset or player of your choice.&lt;/p&gt;</t>
+    <t>&lt;center&gt;&lt;u&gt;Retribution&lt;/u&gt; (When you draw ~ as a result of taking damage, you may deploy it without paying its cost.)&lt;/center&gt;&lt;p&gt;&lt;u&gt;Forfeit&lt;/u&gt; (Put the specified card into its owner's discard.) ~: it deals 3 damage to an asset or player of your choice.&lt;/p&gt;</t>
   </si>
   <si>
     <t>YU_012</t>
@@ -3711,7 +3717,7 @@
     <t>Ruined Plan</t>
   </si>
   <si>
-    <t>&lt;center&gt;&lt;u&gt;Advantageous&lt;/u&gt; (When ~ resolves, draw a card.)&lt;/center&gt;&lt;p&gt;Choose a player, ~ deals 2 damage to their commander for each card they control on the stack.&lt;/p&gt;</t>
+    <t>&lt;center&gt;&lt;u&gt;Advantageous&lt;/u&gt; (When ~ resolves, draw a card.)&lt;/center&gt;&lt;p&gt;Choose a player, ~ deals 3 damage to their commander for each card they control on the stack.&lt;/p&gt;</t>
   </si>
   <si>
     <t>YC_015</t>
@@ -5421,7 +5427,7 @@
     <t>Human Hacker</t>
   </si>
   <si>
-    <t>&lt;center&gt;&lt;u&gt;Hacker&lt;/u&gt; (If ~ would deal damage to a commander, its owner instead puts that many cards from their deck into their discard.)&lt;/center&gt;&lt;p&gt;If you control 2 other Hackers with greater attack power, ~ can't be intercepted.&lt;/p&gt;</t>
+    <t>&lt;center&gt;&lt;u&gt;Hacker&lt;/u&gt; (If ~ would deal damage to a commander, its owner instead puts that many cards from their deck into their discard.)&lt;/center&gt;&lt;p&gt;If you control another Hacker with greater attack power, ~ can't be intercepted.&lt;/p&gt;</t>
   </si>
   <si>
     <t>"What's an iptable?"</t>
@@ -5460,7 +5466,7 @@
     <t>Hacking Game</t>
   </si>
   <si>
-    <t>&lt;p&gt;You may discard a card rather than pay ~'s cost.&lt;/p&gt;&lt;p&gt;Choose a card on the stack to return to its owner's hand.&lt;/p&gt;</t>
+    <t>&lt;p&gt;You may discard a card rather than pay ~'s cost.&lt;/p&gt;&lt;p&gt;Choose a card on the stack or the battlefield to return to its owner's hand.&lt;/p&gt;</t>
   </si>
   <si>
     <t>"Locked out again? That's a shame.. this time I'll pick your skirt!" &lt;p&gt;-- Jonathan Arrigotti&lt;/p&gt;</t>
@@ -6212,7 +6218,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1693686687" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1699824827" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -6227,7 +6233,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1693686687" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1699824827" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -6242,7 +6248,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1693686687" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1699824827" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -6257,7 +6263,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1693686687" fgClr="F7981D" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1699824827" fgClr="F7981D" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -6272,7 +6278,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1693686687" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1699824827" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -6287,7 +6293,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1693686687" fgClr="222222" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1699824827" fgClr="222222" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -6303,7 +6309,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1693686687" fgClr="1155CC" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1699824827" fgClr="1155CC" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -6319,7 +6325,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1693686687" fgClr="1155CC" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1699824827" fgClr="1155CC" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -6342,7 +6348,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1693686687" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1699824827" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6353,7 +6359,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1693686687" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1699824827" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -6375,7 +6381,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1693686687"/>
+          <pm:border xmlns:pm="smNativeData" id="1699824827"/>
         </ext>
       </extLst>
     </border>
@@ -6394,7 +6400,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1693686687"/>
+          <pm:border xmlns:pm="smNativeData" id="1699824827"/>
         </ext>
       </extLst>
     </border>
@@ -6413,7 +6419,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1693686687"/>
+          <pm:border xmlns:pm="smNativeData" id="1699824827"/>
         </ext>
       </extLst>
     </border>
@@ -6462,10 +6468,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1693686687" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1699824827" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1693686687" count="3">
+      <pm:colors xmlns:pm="smNativeData" id="1699824827" count="3">
         <pm:color name="Color 24" rgb="F7981D"/>
         <pm:color name="Color 25" rgb="222222"/>
         <pm:color name="Color 26" rgb="1155CC"/>
@@ -6737,8 +6743,8 @@
   <dimension ref="A1:Z407"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B322" sqref="B322"/>
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I118" sqref="I118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="11" defaultColWidth="12.630631" defaultRowHeight="15.75" customHeight="1"/>
@@ -6950,7 +6956,7 @@
         <v>RT_0_002</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="38.25" customHeight="1">
+    <row r="4" spans="1:26" ht="57" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
@@ -10471,7 +10477,7 @@
         <v>RT_RC_024</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="15.75" customHeight="1">
+    <row r="65" spans="1:24" ht="141.75" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>288</v>
       </c>
@@ -10538,7 +10544,7 @@
         <v>RT_O_CMDR_1</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
+    <row r="66" spans="1:24" ht="85.50" customHeight="1" outlineLevel="1">
       <c r="A66" s="3" t="s">
         <v>295</v>
       </c>
@@ -10591,7 +10597,7 @@
         <v>RT_O_CMDR_1b</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
+    <row r="67" spans="1:24" ht="110.25" customHeight="1" outlineLevel="1">
       <c r="A67" s="3" t="s">
         <v>299</v>
       </c>
@@ -10654,7 +10660,7 @@
         <v>RT_OR_001</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
+    <row r="68" spans="1:24" ht="93" customHeight="1" outlineLevel="1">
       <c r="A68" s="3" t="s">
         <v>304</v>
       </c>
@@ -11923,13 +11929,30 @@
         <v>RT_OC_010</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
+    <row r="90" spans="1:24" ht="73.50" customHeight="1" outlineLevel="1">
       <c r="A90" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="B90" s="3" t="str">
-        <f>A90</f>
-        <v>OC_011</v>
+      <c r="B90" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H90" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>389</v>
       </c>
       <c r="O90" s="5"/>
       <c r="Q90" s="3" t="n">
@@ -11941,8 +11964,8 @@
       <c r="S90" s="3" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="T90" s="3" t="e">
-        <v>#NAME?</v>
+      <c r="T90" s="3" t="s">
+        <v>388</v>
       </c>
       <c r="U90" s="3" t="e">
         <v>#NAME?</v>
@@ -11952,7 +11975,7 @@
       </c>
       <c r="W90" s="3" t="str">
         <f>CONCATENATE("[i]",F90,"[/i]")</f>
-        <v>[i][/i]</v>
+        <v>[i]Effect[/i]</v>
       </c>
       <c r="X90" s="13" t="str">
         <f>CONCATENATE("RT_",A90)</f>
@@ -11961,7 +11984,7 @@
     </row>
     <row r="91" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A91" s="3" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B91" s="3" t="str">
         <f>A91</f>
@@ -12004,10 +12027,10 @@
     </row>
     <row r="92" spans="1:24" ht="83.25" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>306</v>
@@ -12028,10 +12051,10 @@
         <v>81</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="K92" s="3" t="n">
         <v>6</v>
@@ -12040,7 +12063,7 @@
         <v>7</v>
       </c>
       <c r="O92" s="5" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q92" s="3" t="n">
         <v>45</v>
@@ -12071,13 +12094,13 @@
     </row>
     <row r="93" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A93" s="3" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D93" s="1" t="e">
         <v>#NAME?</v>
@@ -12092,10 +12115,10 @@
         <v>25</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="O93" s="5"/>
       <c r="Q93" s="3" t="n">
@@ -12127,10 +12150,10 @@
     </row>
     <row r="94" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A94" s="3" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>314</v>
@@ -12148,7 +12171,7 @@
         <v>96</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="J94" s="5"/>
       <c r="O94" s="5"/>
@@ -12181,13 +12204,13 @@
     </row>
     <row r="95" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A95" s="3" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D95" s="1" t="e">
         <v>#NAME?</v>
@@ -12199,13 +12222,13 @@
         <v>26</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="H95" s="4" t="s">
         <v>81</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="J95" s="5"/>
       <c r="K95" s="3" t="n">
@@ -12244,13 +12267,13 @@
     </row>
     <row r="96" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A96" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D96" s="1" t="e">
         <v>#NAME?</v>
@@ -12259,13 +12282,13 @@
         <v>26</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H96" s="4" t="s">
         <v>81</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="J96" s="5"/>
       <c r="O96" s="5"/>
@@ -12298,10 +12321,10 @@
     </row>
     <row r="97" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A97" s="3" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>324</v>
@@ -12313,13 +12336,13 @@
         <v>26</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="H97" s="4" t="s">
         <v>96</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="J97" s="5"/>
       <c r="O97" s="5"/>
@@ -12349,13 +12372,13 @@
     </row>
     <row r="98" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A98" s="3" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D98" s="1" t="e">
         <v>#NAME?</v>
@@ -12367,7 +12390,7 @@
         <v>5</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J98" s="5"/>
       <c r="O98" s="5"/>
@@ -12400,10 +12423,10 @@
     </row>
     <row r="99" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A99" s="3" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>336</v>
@@ -12421,7 +12444,7 @@
         <v>129</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="J99" s="5"/>
       <c r="O99" s="5"/>
@@ -12454,10 +12477,10 @@
     </row>
     <row r="100" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A100" s="3" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>340</v>
@@ -12472,13 +12495,13 @@
         <v>26</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="J100" s="5"/>
       <c r="K100" s="3" t="n">
@@ -12517,10 +12540,10 @@
     </row>
     <row r="101" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A101" s="3" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>336</v>
@@ -12541,7 +12564,7 @@
         <v>129</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="J101" s="5"/>
       <c r="K101" s="3" t="n">
@@ -12580,10 +12603,10 @@
     </row>
     <row r="102" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A102" s="3" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>324</v>
@@ -12601,7 +12624,7 @@
         <v>129</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="J102" s="5"/>
       <c r="O102" s="5"/>
@@ -12634,16 +12657,16 @@
     </row>
     <row r="103" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A103" s="3" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>324</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>432</v>
+        <v>388</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>79</v>
@@ -12658,7 +12681,7 @@
         <v>129</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="J103" s="5"/>
       <c r="K103" s="3" t="n">
@@ -12697,13 +12720,13 @@
     </row>
     <row r="104" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A104" s="3" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D104" s="1" t="e">
         <v>#NAME?</v>
@@ -12712,13 +12735,13 @@
         <v>26</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="H104" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="J104" s="5"/>
       <c r="O104" s="5"/>
@@ -12751,10 +12774,10 @@
     </row>
     <row r="105" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A105" s="3" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>336</v>
@@ -12775,7 +12798,7 @@
         <v>129</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="J105" s="5"/>
       <c r="K105" s="3" t="n">
@@ -12814,10 +12837,10 @@
     </row>
     <row r="106" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A106" s="3" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>340</v>
@@ -12875,10 +12898,10 @@
     </row>
     <row r="107" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A107" s="3" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>306</v>
@@ -12893,7 +12916,7 @@
         <v>134</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="J107" s="5"/>
       <c r="O107" s="5"/>
@@ -12926,10 +12949,10 @@
     </row>
     <row r="108" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A108" s="3" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>324</v>
@@ -12947,7 +12970,7 @@
         <v>44</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="J108" s="5"/>
       <c r="O108" s="5"/>
@@ -12978,12 +13001,12 @@
         <v>RT_OC_015</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
+    <row r="109" spans="1:24" ht="62.25" customHeight="1" outlineLevel="1">
       <c r="A109" s="3" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>336</v>
@@ -12998,13 +13021,13 @@
         <v>26</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="H109" s="4" t="s">
         <v>50</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="J109" s="5"/>
       <c r="K109" s="3" t="n">
@@ -13041,12 +13064,12 @@
         <v>RT_OC_016</v>
       </c>
     </row>
-    <row r="110" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
+    <row r="110" spans="1:24" ht="46.50" customHeight="1" outlineLevel="1">
       <c r="A110" s="3" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>324</v>
@@ -13061,7 +13084,7 @@
         <v>50</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J110" s="5"/>
       <c r="O110" s="5"/>
@@ -13094,10 +13117,10 @@
     </row>
     <row r="111" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A111" s="3" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>384</v>
@@ -13118,7 +13141,7 @@
         <v>50</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="J111" s="5"/>
       <c r="K111" s="3" t="n">
@@ -13157,13 +13180,13 @@
     </row>
     <row r="112" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A112" s="3" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D112" s="1" t="e">
         <v>#NAME?</v>
@@ -13181,7 +13204,7 @@
         <v>44</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="J112" s="5"/>
       <c r="K112" s="3" t="n">
@@ -13220,16 +13243,16 @@
     </row>
     <row r="113" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A113" s="3" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>320</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>432</v>
+        <v>388</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>51</v>
@@ -13244,7 +13267,7 @@
         <v>44</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="J113" s="5"/>
       <c r="K113" s="3" t="n">
@@ -13264,7 +13287,7 @@
         <v>#NAME?</v>
       </c>
       <c r="T113" s="3" t="s">
-        <v>432</v>
+        <v>388</v>
       </c>
       <c r="U113" s="3" t="e">
         <v>#NAME?</v>
@@ -13283,13 +13306,13 @@
     </row>
     <row r="114" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A114" s="3" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D114" s="1" t="e">
         <v>#NAME?</v>
@@ -13301,13 +13324,13 @@
         <v>26</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="H114" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="J114" s="5"/>
       <c r="K114" s="3" t="n">
@@ -13346,7 +13369,7 @@
     </row>
     <row r="115" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A115" s="3" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B115" s="3" t="str">
         <f>A115</f>
@@ -13389,7 +13412,7 @@
     </row>
     <row r="116" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A116" s="3" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B116" s="3" t="str">
         <f>A116</f>
@@ -13432,7 +13455,7 @@
     </row>
     <row r="117" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A117" s="3" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B117" s="3" t="str">
         <f>A117</f>
@@ -13475,13 +13498,13 @@
     </row>
     <row r="118" spans="1:24" ht="172.50" customHeight="1">
       <c r="A118" s="3" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D118" s="1" t="e">
         <v>#NAME?</v>
@@ -13493,13 +13516,13 @@
         <v>73</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="H118" s="4" t="s">
         <v>96</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="J118" s="5"/>
       <c r="K118" s="3" t="n">
@@ -13538,13 +13561,13 @@
     </row>
     <row r="119" spans="1:24" ht="111" customHeight="1" outlineLevel="1">
       <c r="A119" s="3" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D119" s="1" t="e">
         <v>#NAME?</v>
@@ -13559,10 +13582,10 @@
         <v>25</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="O119" s="5"/>
       <c r="S119" s="3" t="e">
@@ -13586,15 +13609,15 @@
         <v>RT_Y_CMDR_1b</v>
       </c>
     </row>
-    <row r="120" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
+    <row r="120" spans="1:24" ht="60" customHeight="1" outlineLevel="1">
       <c r="A120" s="3" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D120" s="1" t="e">
         <v>#NAME?</v>
@@ -13606,10 +13629,10 @@
         <v>81</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="O120" s="5"/>
       <c r="Q120" s="3" t="n">
@@ -13641,13 +13664,13 @@
     </row>
     <row r="121" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A121" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C121" s="4" t="s">
         <v>487</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>489</v>
       </c>
       <c r="D121" s="1" t="e">
         <v>#NAME?</v>
@@ -13659,7 +13682,7 @@
         <v>81</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="J121" s="5"/>
       <c r="O121" s="5"/>
@@ -13692,13 +13715,13 @@
     </row>
     <row r="122" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A122" s="3" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D122" s="1" t="e">
         <v>#NAME?</v>
@@ -13710,10 +13733,10 @@
         <v>96</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="J122" s="5" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="O122" s="5"/>
       <c r="Q122" s="3" t="n">
@@ -13745,16 +13768,16 @@
     </row>
     <row r="123" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A123" s="3" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>498</v>
+        <v>387</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>33</v>
@@ -13763,7 +13786,7 @@
         <v>81</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="J123" s="5"/>
       <c r="O123" s="5"/>
@@ -13777,7 +13800,7 @@
         <v>#NAME?</v>
       </c>
       <c r="T123" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="U123" s="3" t="e">
         <v>#NAME?</v>
@@ -13796,13 +13819,13 @@
     </row>
     <row r="124" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A124" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="D124" s="1" t="e">
         <v>#NAME?</v>
@@ -13814,16 +13837,16 @@
         <v>94</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="H124" s="4" t="s">
         <v>119</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K124" s="3" t="n">
         <v>5</v>
@@ -13861,13 +13884,13 @@
     </row>
     <row r="125" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A125" s="3" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D125" s="1" t="e">
         <v>#NAME?</v>
@@ -13882,10 +13905,10 @@
         <v>25</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="O125" s="5"/>
       <c r="Q125" s="3" t="n">
@@ -13917,13 +13940,13 @@
     </row>
     <row r="126" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A126" s="3" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D126" s="1" t="e">
         <v>#NAME?</v>
@@ -13932,13 +13955,13 @@
         <v>87</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="O126" s="5"/>
       <c r="Q126" s="3" t="n">
@@ -13970,13 +13993,13 @@
     </row>
     <row r="127" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A127" s="3" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D127" s="1" t="e">
         <v>#NAME?</v>
@@ -13991,10 +14014,10 @@
         <v>129</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="J127" s="5" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="O127" s="5"/>
       <c r="Q127" s="3" t="n">
@@ -14026,13 +14049,13 @@
     </row>
     <row r="128" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A128" s="3" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D128" s="1" t="e">
         <v>#NAME?</v>
@@ -14044,16 +14067,16 @@
         <v>26</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="H128" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="K128" s="3" t="n">
         <v>4</v>
@@ -14091,13 +14114,13 @@
     </row>
     <row r="129" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A129" s="3" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D129" s="1" t="e">
         <v>#NAME?</v>
@@ -14112,7 +14135,7 @@
         <v>129</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="J129" s="5"/>
       <c r="O129" s="5"/>
@@ -14145,13 +14168,13 @@
     </row>
     <row r="130" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A130" s="3" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D130" s="1" t="e">
         <v>#NAME?</v>
@@ -14163,10 +14186,10 @@
         <v>129</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="O130" s="5"/>
       <c r="Q130" s="3" t="n">
@@ -14198,13 +14221,13 @@
     </row>
     <row r="131" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A131" s="3" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D131" s="1" t="e">
         <v>#NAME?</v>
@@ -14216,16 +14239,16 @@
         <v>26</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="H131" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="J131" s="5" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="K131" s="3" t="n">
         <v>4</v>
@@ -14263,13 +14286,13 @@
     </row>
     <row r="132" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A132" s="3" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="D132" s="1" t="e">
         <v>#NAME?</v>
@@ -14281,13 +14304,13 @@
         <v>26</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="H132" s="4" t="s">
         <v>134</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="J132" s="5"/>
       <c r="K132" s="3" t="n">
@@ -14326,13 +14349,13 @@
     </row>
     <row r="133" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A133" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="D133" s="1" t="e">
         <v>#NAME?</v>
@@ -14344,14 +14367,14 @@
         <v>26</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="H133" s="4" t="s">
         <v>50</v>
       </c>
       <c r="I133" s="5"/>
       <c r="J133" s="5" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="K133" s="3" t="n">
         <v>4</v>
@@ -14389,13 +14412,13 @@
     </row>
     <row r="134" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A134" s="3" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="D134" s="1" t="e">
         <v>#NAME?</v>
@@ -14410,7 +14433,7 @@
         <v>32</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="J134" s="5"/>
       <c r="O134" s="5"/>
@@ -14443,13 +14466,13 @@
     </row>
     <row r="135" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A135" s="3" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D135" s="1" t="e">
         <v>#NAME?</v>
@@ -14464,10 +14487,10 @@
         <v>44</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="J135" s="5" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="O135" s="5"/>
       <c r="Q135" s="3" t="n">
@@ -14499,13 +14522,13 @@
     </row>
     <row r="136" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A136" s="3" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="D136" s="1" t="e">
         <v>#NAME?</v>
@@ -14520,10 +14543,10 @@
         <v>44</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O136" s="5"/>
       <c r="Q136" s="3" t="n">
@@ -14555,13 +14578,13 @@
     </row>
     <row r="137" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A137" s="3" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="D137" s="1" t="e">
         <v>#NAME?</v>
@@ -14573,10 +14596,10 @@
         <v>44</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="J137" s="5" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="O137" s="5"/>
       <c r="Q137" s="3" t="n">
@@ -14608,13 +14631,13 @@
     </row>
     <row r="138" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A138" s="3" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="D138" s="1" t="e">
         <v>#NAME?</v>
@@ -14626,16 +14649,16 @@
         <v>26</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="H138" s="4" t="s">
         <v>134</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="J138" s="5" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="K138" s="3" t="n">
         <v>6</v>
@@ -14673,13 +14696,13 @@
     </row>
     <row r="139" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A139" s="3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D139" s="1" t="e">
         <v>#NAME?</v>
@@ -14691,13 +14714,13 @@
         <v>26</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H139" s="4" t="s">
         <v>50</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="J139" s="5"/>
       <c r="K139" s="3" t="n">
@@ -14736,13 +14759,13 @@
     </row>
     <row r="140" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A140" s="3" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="D140" s="1" t="e">
         <v>#NAME?</v>
@@ -14754,13 +14777,13 @@
         <v>26</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="H140" s="4" t="s">
         <v>50</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="J140" s="5"/>
       <c r="K140" s="3" t="n">
@@ -14799,13 +14822,13 @@
     </row>
     <row r="141" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A141" s="3" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D141" s="1" t="e">
         <v>#NAME?</v>
@@ -14817,13 +14840,13 @@
         <v>26</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="H141" s="4" t="s">
         <v>32</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="J141" s="5"/>
       <c r="K141" s="3" t="n">
@@ -14862,13 +14885,13 @@
     </row>
     <row r="142" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A142" s="3" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D142" s="1" t="e">
         <v>#NAME?</v>
@@ -14880,13 +14903,13 @@
         <v>26</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H142" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="J142" s="5"/>
       <c r="K142" s="3" t="n">
@@ -14925,13 +14948,13 @@
     </row>
     <row r="143" spans="1:24" ht="100.50" customHeight="1" outlineLevel="1">
       <c r="A143" s="3" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="D143" s="1" t="e">
         <v>#NAME?</v>
@@ -14943,16 +14966,16 @@
         <v>26</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="H143" s="4" t="s">
         <v>32</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="J143" s="5" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="K143" s="3" t="n">
         <v>0</v>
@@ -14990,13 +15013,13 @@
     </row>
     <row r="144" spans="1:24" ht="15.75" customHeight="1">
       <c r="A144" s="3" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D144" s="1" t="e">
         <v>#NAME?</v>
@@ -15008,13 +15031,13 @@
         <v>26</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="H144" s="4" t="s">
         <v>134</v>
       </c>
       <c r="I144" s="5" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="J144" s="5"/>
       <c r="K144" s="3" t="n">
@@ -15053,13 +15076,13 @@
     </row>
     <row r="145" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A145" s="3" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D145" s="1" t="e">
         <v>#NAME?</v>
@@ -15071,16 +15094,16 @@
         <v>73</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="H145" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I145" s="5" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="J145" s="5" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="K145" s="3" t="n">
         <v>4</v>
@@ -15089,7 +15112,7 @@
         <v>6</v>
       </c>
       <c r="O145" s="5" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="Q145" s="3" t="n">
         <v>45</v>
@@ -15120,13 +15143,13 @@
     </row>
     <row r="146" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A146" s="3" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D146" s="1" t="e">
         <v>#NAME?</v>
@@ -15141,7 +15164,7 @@
         <v>25</v>
       </c>
       <c r="I146" s="5" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="J146" s="5"/>
       <c r="O146" s="5"/>
@@ -15174,13 +15197,13 @@
     </row>
     <row r="147" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A147" s="3" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D147" s="1" t="e">
         <v>#NAME?</v>
@@ -15192,16 +15215,16 @@
         <v>94</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="H147" s="4" t="s">
         <v>81</v>
       </c>
       <c r="I147" s="5" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="J147" s="5" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="K147" s="3" t="n">
         <v>4</v>
@@ -15239,13 +15262,13 @@
     </row>
     <row r="148" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A148" s="3" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D148" s="1" t="e">
         <v>#NAME?</v>
@@ -15260,7 +15283,7 @@
         <v>25</v>
       </c>
       <c r="I148" s="5" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="K148" s="6"/>
       <c r="L148" s="6"/>
@@ -15294,13 +15317,13 @@
     </row>
     <row r="149" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A149" s="3" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D149" s="1" t="e">
         <v>#NAME?</v>
@@ -15312,13 +15335,13 @@
         <v>94</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="H149" s="4" t="s">
         <v>81</v>
       </c>
       <c r="I149" s="5" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="K149" s="6" t="n">
         <v>8</v>
@@ -15356,13 +15379,13 @@
     </row>
     <row r="150" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A150" s="3" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D150" s="1" t="e">
         <v>#NAME?</v>
@@ -15374,13 +15397,13 @@
         <v>26</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="H150" s="4" t="s">
         <v>81</v>
       </c>
       <c r="I150" s="5" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="K150" s="6" t="n">
         <v>4</v>
@@ -15418,13 +15441,13 @@
     </row>
     <row r="151" spans="1:24" ht="72.75" customHeight="1" outlineLevel="1">
       <c r="A151" s="3" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D151" s="1" t="e">
         <v>#NAME?</v>
@@ -15433,13 +15456,13 @@
         <v>87</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="H151" s="4" t="s">
         <v>81</v>
       </c>
       <c r="I151" s="5" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="J151" s="5"/>
       <c r="O151" s="5"/>
@@ -15472,13 +15495,13 @@
     </row>
     <row r="152" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A152" s="3" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D152" s="1" t="e">
         <v>#NAME?</v>
@@ -15490,13 +15513,13 @@
         <v>26</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="H152" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I152" s="5" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="J152" s="5"/>
       <c r="K152" s="3" t="n">
@@ -15535,13 +15558,13 @@
     </row>
     <row r="153" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A153" s="3" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D153" s="1" t="e">
         <v>#NAME?</v>
@@ -15553,17 +15576,17 @@
         <v>26</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="H153" s="4" t="s">
         <v>119</v>
       </c>
       <c r="I153" s="5" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="J153" s="5"/>
       <c r="K153" s="3" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="L153" s="3" t="n">
         <v>3</v>
@@ -15596,15 +15619,15 @@
         <v>RT_YU_010</v>
       </c>
     </row>
-    <row r="154" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
+    <row r="154" spans="1:24" ht="93.75" customHeight="1" outlineLevel="1">
       <c r="A154" s="3" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D154" s="1" t="e">
         <v>#NAME?</v>
@@ -15616,13 +15639,13 @@
         <v>26</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="H154" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I154" s="5" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="J154" s="5"/>
       <c r="K154" s="3" t="n">
@@ -15659,15 +15682,15 @@
         <v>RT_YU_011</v>
       </c>
     </row>
-    <row r="155" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
+    <row r="155" spans="1:24" ht="62.25" customHeight="1" outlineLevel="1">
       <c r="A155" s="3" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D155" s="1" t="e">
         <v>#NAME?</v>
@@ -15679,7 +15702,7 @@
         <v>119</v>
       </c>
       <c r="I155" s="5" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="J155" s="5"/>
       <c r="O155" s="5"/>
@@ -15712,13 +15735,13 @@
     </row>
     <row r="156" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A156" s="3" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D156" s="1" t="e">
         <v>#NAME?</v>
@@ -15733,10 +15756,10 @@
         <v>119</v>
       </c>
       <c r="I156" s="5" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="J156" s="5" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="O156" s="5"/>
       <c r="Q156" s="3" t="n">
@@ -15768,13 +15791,13 @@
     </row>
     <row r="157" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A157" s="3" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D157" s="1" t="e">
         <v>#NAME?</v>
@@ -15789,7 +15812,7 @@
         <v>119</v>
       </c>
       <c r="I157" s="5" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="J157" s="5"/>
       <c r="O157" s="5"/>
@@ -15822,13 +15845,13 @@
     </row>
     <row r="158" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A158" s="3" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D158" s="1" t="e">
         <v>#NAME?</v>
@@ -15837,13 +15860,13 @@
         <v>26</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="H158" s="4" t="s">
         <v>119</v>
       </c>
       <c r="I158" s="5" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="J158" s="5"/>
       <c r="O158" s="5"/>
@@ -15876,13 +15899,13 @@
     </row>
     <row r="159" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A159" s="3" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D159" s="1" t="e">
         <v>#NAME?</v>
@@ -15891,13 +15914,13 @@
         <v>33</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="H159" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I159" s="5" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="J159" s="5"/>
       <c r="O159" s="5"/>
@@ -15930,13 +15953,13 @@
     </row>
     <row r="160" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A160" s="3" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="D160" s="1" t="e">
         <v>#NAME?</v>
@@ -15948,13 +15971,13 @@
         <v>26</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="H160" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I160" s="5" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J160" s="5"/>
       <c r="K160" s="3" t="n">
@@ -15991,15 +16014,15 @@
         <v>RT_YC_013</v>
       </c>
     </row>
-    <row r="161" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
+    <row r="161" spans="1:24" ht="71.25" customHeight="1" outlineLevel="1">
       <c r="A161" s="3" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="D161" s="1" t="e">
         <v>#NAME?</v>
@@ -16014,7 +16037,7 @@
         <v>44</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="O161" s="5"/>
       <c r="Q161" s="3" t="n">
@@ -16046,28 +16069,28 @@
     </row>
     <row r="162" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A162" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="F162" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="H162" s="4" t="s">
         <v>32</v>
       </c>
       <c r="I162" s="5" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="J162" s="5"/>
       <c r="O162" s="5"/>
@@ -16081,7 +16104,7 @@
         <v>#NAME?</v>
       </c>
       <c r="T162" s="3" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="U162" s="3" t="e">
         <v>#NAME?</v>
@@ -16100,13 +16123,13 @@
     </row>
     <row r="163" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A163" s="3" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D163" s="1" t="e">
         <v>#NAME?</v>
@@ -16115,13 +16138,13 @@
         <v>33</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="H163" s="4" t="s">
         <v>32</v>
       </c>
       <c r="I163" s="5" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="J163" s="5"/>
       <c r="O163" s="5"/>
@@ -16154,13 +16177,13 @@
     </row>
     <row r="164" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A164" s="3" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D164" s="1" t="e">
         <v>#NAME?</v>
@@ -16172,7 +16195,7 @@
         <v>26</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="H164" s="4" t="s">
         <v>50</v>
@@ -16215,13 +16238,13 @@
     </row>
     <row r="165" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A165" s="3" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D165" s="1" t="e">
         <v>#NAME?</v>
@@ -16233,13 +16256,13 @@
         <v>26</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="H165" s="4" t="s">
         <v>50</v>
       </c>
       <c r="I165" s="5" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J165" s="5"/>
       <c r="K165" s="3" t="n">
@@ -16278,13 +16301,13 @@
     </row>
     <row r="166" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A166" s="3" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D166" s="1" t="e">
         <v>#NAME?</v>
@@ -16296,13 +16319,13 @@
         <v>26</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="H166" s="4" t="s">
         <v>32</v>
       </c>
       <c r="I166" s="5" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="J166" s="5"/>
       <c r="K166" s="3" t="n">
@@ -16341,7 +16364,7 @@
     </row>
     <row r="167" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A167" s="3" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B167" s="3" t="str">
         <f>A167</f>
@@ -16384,7 +16407,7 @@
     </row>
     <row r="168" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A168" s="3" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B168" s="3" t="str">
         <f>A168</f>
@@ -16427,7 +16450,7 @@
     </row>
     <row r="169" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A169" s="3" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B169" s="3" t="str">
         <f>A169</f>
@@ -16470,7 +16493,7 @@
     </row>
     <row r="170" spans="1:24" ht="15.75" customHeight="1">
       <c r="A170" s="3" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B170" s="3" t="str">
         <f>A170</f>
@@ -16513,7 +16536,7 @@
     </row>
     <row r="171" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A171" s="3" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B171" s="3" t="str">
         <f>A171</f>
@@ -16556,13 +16579,13 @@
     </row>
     <row r="172" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A172" s="2" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D172" s="1" t="e">
         <v>#NAME?</v>
@@ -16571,16 +16594,16 @@
         <v>73</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="H172" s="4" t="s">
         <v>96</v>
       </c>
       <c r="I172" s="5" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="J172" s="5" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="O172" s="5"/>
       <c r="Q172" s="3" t="n">
@@ -16612,13 +16635,13 @@
     </row>
     <row r="173" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A173" s="3" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D173" s="1" t="e">
         <v>#NAME?</v>
@@ -16633,10 +16656,10 @@
         <v>25</v>
       </c>
       <c r="I173" s="5" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J173" s="5" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="O173" s="5"/>
       <c r="Q173" s="3" t="n">
@@ -16668,13 +16691,13 @@
     </row>
     <row r="174" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A174" s="3" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D174" s="1" t="e">
         <v>#NAME?</v>
@@ -16686,7 +16709,7 @@
         <v>96</v>
       </c>
       <c r="I174" s="5" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="J174" s="5"/>
       <c r="O174" s="5"/>
@@ -16719,13 +16742,13 @@
     </row>
     <row r="175" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A175" s="3" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="D175" s="1" t="e">
         <v>#NAME?</v>
@@ -16737,7 +16760,7 @@
         <v>10</v>
       </c>
       <c r="I175" s="5" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="J175" s="5"/>
       <c r="O175" s="5"/>
@@ -16768,15 +16791,15 @@
         <v>RT_GR_002</v>
       </c>
     </row>
-    <row r="176" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
+    <row r="176" spans="1:24" ht="100.50" customHeight="1" outlineLevel="1">
       <c r="A176" s="3" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D176" s="1" t="e">
         <v>#NAME?</v>
@@ -16785,13 +16808,13 @@
         <v>26</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="H176" s="7" t="n">
         <v>10</v>
       </c>
       <c r="I176" s="5" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="J176" s="5"/>
       <c r="O176" s="5"/>
@@ -16824,13 +16847,13 @@
     </row>
     <row r="177" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A177" s="3" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D177" s="1" t="e">
         <v>#NAME?</v>
@@ -16839,13 +16862,13 @@
         <v>26</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="H177" s="7" t="n">
         <v>10</v>
       </c>
       <c r="I177" s="5" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="O177" s="5"/>
       <c r="Q177" s="3" t="n">
@@ -16877,13 +16900,13 @@
     </row>
     <row r="178" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A178" s="3" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D178" s="1" t="e">
         <v>#NAME?</v>
@@ -16898,10 +16921,10 @@
         <v>129</v>
       </c>
       <c r="I178" s="5" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="J178" s="5" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="K178" s="3" t="s">
         <v>29</v>
@@ -16938,13 +16961,13 @@
     </row>
     <row r="179" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A179" s="3" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D179" s="1" t="e">
         <v>#NAME?</v>
@@ -16956,13 +16979,13 @@
         <v>26</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H179" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I179" s="5" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="J179" s="5"/>
       <c r="K179" s="3" t="n">
@@ -17001,13 +17024,13 @@
     </row>
     <row r="180" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A180" s="3" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D180" s="1" t="e">
         <v>#NAME?</v>
@@ -17025,7 +17048,7 @@
         <v>129</v>
       </c>
       <c r="I180" s="5" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="K180" s="6" t="n">
         <v>2</v>
@@ -17063,13 +17086,13 @@
     </row>
     <row r="181" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A181" s="3" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="D181" s="1" t="e">
         <v>#NAME?</v>
@@ -17084,7 +17107,7 @@
         <v>129</v>
       </c>
       <c r="I181" s="5" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="J181" s="5"/>
       <c r="O181" s="5"/>
@@ -17117,26 +17140,26 @@
     </row>
     <row r="182" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A182" s="3" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="1" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="H182" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I182" s="5" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="J182" s="5"/>
       <c r="K182" s="6"/>
@@ -17152,7 +17175,7 @@
         <v>#NAME?</v>
       </c>
       <c r="T182" s="3" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="U182" s="3" t="e">
         <v>#NAME?</v>
@@ -17169,15 +17192,15 @@
         <v>RT_GU_004b</v>
       </c>
     </row>
-    <row r="183" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
+    <row r="183" spans="1:24" ht="90.75" customHeight="1" outlineLevel="1">
       <c r="A183" s="3" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D183" s="1" t="e">
         <v>#NAME?</v>
@@ -17189,16 +17212,16 @@
         <v>26</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="H183" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I183" s="5" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="J183" s="5" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="K183" s="6" t="n">
         <v>1</v>
@@ -17236,13 +17259,13 @@
     </row>
     <row r="184" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A184" s="3" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D184" s="1" t="e">
         <v>#NAME?</v>
@@ -17254,13 +17277,13 @@
         <v>26</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="H184" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I184" s="5" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="K184" s="6" t="n">
         <v>4</v>
@@ -17298,13 +17321,13 @@
     </row>
     <row r="185" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A185" s="3" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D185" s="1" t="e">
         <v>#NAME?</v>
@@ -17313,19 +17336,19 @@
         <v>51</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="H185" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I185" s="5" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="J185" s="5" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="K185" s="6" t="n">
         <v>0</v>
@@ -17363,13 +17386,13 @@
     </row>
     <row r="186" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A186" s="3" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D186" s="1" t="e">
         <v>#NAME?</v>
@@ -17378,13 +17401,13 @@
         <v>26</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="H186" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I186" s="5" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="J186" s="5"/>
       <c r="O186" s="5"/>
@@ -17417,13 +17440,13 @@
     </row>
     <row r="187" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A187" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="C187" s="4" t="s">
         <v>747</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>745</v>
       </c>
       <c r="D187" s="1" t="e">
         <v>#NAME?</v>
@@ -17435,7 +17458,7 @@
         <v>26</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="H187" s="4" t="s">
         <v>50</v>
@@ -17478,13 +17501,13 @@
     </row>
     <row r="188" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A188" s="3" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D188" s="1" t="e">
         <v>#NAME?</v>
@@ -17496,13 +17519,13 @@
         <v>26</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="H188" s="4" t="s">
         <v>32</v>
       </c>
       <c r="I188" s="5" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="K188" s="6" t="n">
         <v>2</v>
@@ -17540,13 +17563,13 @@
     </row>
     <row r="189" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A189" s="3" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D189" s="1" t="e">
         <v>#NAME?</v>
@@ -17558,7 +17581,7 @@
         <v>44</v>
       </c>
       <c r="I189" s="5" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="J189" s="5"/>
       <c r="O189" s="5"/>
@@ -17591,13 +17614,13 @@
     </row>
     <row r="190" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A190" s="3" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="D190" s="1" t="e">
         <v>#NAME?</v>
@@ -17609,16 +17632,16 @@
         <v>26</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="H190" s="4" t="s">
         <v>50</v>
       </c>
       <c r="I190" s="5" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="J190" s="5" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="K190" s="3" t="n">
         <v>1</v>
@@ -17656,13 +17679,13 @@
     </row>
     <row r="191" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A191" s="3" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="D191" s="1" t="e">
         <v>#NAME?</v>
@@ -17674,7 +17697,7 @@
         <v>26</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H191" s="4" t="s">
         <v>50</v>
@@ -17717,13 +17740,13 @@
     </row>
     <row r="192" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A192" s="3" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D192" s="1" t="e">
         <v>#NAME?</v>
@@ -17735,7 +17758,7 @@
         <v>26</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="H192" s="4" t="s">
         <v>50</v>
@@ -17778,13 +17801,13 @@
     </row>
     <row r="193" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A193" s="3" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="D193" s="1" t="e">
         <v>#NAME?</v>
@@ -17796,13 +17819,13 @@
         <v>26</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="H193" s="4" t="s">
         <v>32</v>
       </c>
       <c r="I193" s="5" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="J193" s="5"/>
       <c r="K193" s="3" t="n">
@@ -17841,13 +17864,13 @@
     </row>
     <row r="194" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A194" s="3" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="D194" s="1" t="e">
         <v>#NAME?</v>
@@ -17859,16 +17882,16 @@
         <v>26</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="H194" s="4" t="s">
         <v>50</v>
       </c>
       <c r="I194" s="5" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="J194" s="5" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="K194" s="3" t="n">
         <v>1</v>
@@ -17906,13 +17929,13 @@
     </row>
     <row r="195" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A195" s="3" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D195" s="1" t="e">
         <v>#NAME?</v>
@@ -17924,13 +17947,13 @@
         <v>26</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="H195" s="4" t="s">
         <v>50</v>
       </c>
       <c r="I195" s="5" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="J195" s="5"/>
       <c r="K195" s="3" t="n">
@@ -17969,13 +17992,13 @@
     </row>
     <row r="196" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A196" s="3" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="D196" s="1" t="e">
         <v>#NAME?</v>
@@ -17993,7 +18016,7 @@
         <v>50</v>
       </c>
       <c r="I196" s="5" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="J196" s="5"/>
       <c r="K196" s="3" t="n">
@@ -18032,13 +18055,13 @@
     </row>
     <row r="197" spans="1:24" ht="15.75" customHeight="1">
       <c r="A197" s="3" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D197" s="1" t="e">
         <v>#NAME?</v>
@@ -18047,13 +18070,13 @@
         <v>33</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="H197" s="4" t="s">
         <v>134</v>
       </c>
       <c r="I197" s="5" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="J197" s="5"/>
       <c r="O197" s="5"/>
@@ -18086,7 +18109,7 @@
     </row>
     <row r="198" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A198" s="3" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B198" s="3" t="str">
         <f>A198</f>
@@ -18129,13 +18152,13 @@
     </row>
     <row r="199" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A199" s="3" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="D199" s="1" t="e">
         <v>#NAME?</v>
@@ -18147,13 +18170,13 @@
         <v>73</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="I199" s="5" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="J199" s="5"/>
       <c r="K199" s="3" t="n">
@@ -18192,13 +18215,13 @@
     </row>
     <row r="200" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A200" s="3" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D200" s="1" t="e">
         <v>#NAME?</v>
@@ -18213,7 +18236,7 @@
         <v>25</v>
       </c>
       <c r="I200" s="5" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="K200" s="6"/>
       <c r="L200" s="6"/>
@@ -18247,13 +18270,13 @@
     </row>
     <row r="201" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A201" s="3" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D201" s="1" t="e">
         <v>#NAME?</v>
@@ -18265,13 +18288,13 @@
         <v>26</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="H201" s="4" t="s">
         <v>81</v>
       </c>
       <c r="I201" s="5" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="K201" s="6" t="n">
         <v>4</v>
@@ -18309,31 +18332,31 @@
     </row>
     <row r="202" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A202" s="3" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D202" s="1" t="e">
         <v>#NAME?</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="F202" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="H202" s="4" t="s">
         <v>81</v>
       </c>
       <c r="I202" s="5" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="K202" s="6" t="n">
         <v>1</v>
@@ -18371,13 +18394,13 @@
     </row>
     <row r="203" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A203" s="3" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="D203" s="1" t="e">
         <v>#NAME?</v>
@@ -18389,13 +18412,13 @@
         <v>26</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H203" s="4" t="s">
         <v>96</v>
       </c>
       <c r="I203" s="5" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="J203" s="5"/>
       <c r="K203" s="3" t="n">
@@ -18434,7 +18457,7 @@
     </row>
     <row r="204" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A204" s="3" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B204" s="3" t="str">
         <f>A204</f>
@@ -18477,13 +18500,13 @@
     </row>
     <row r="205" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A205" s="3" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D205" s="1" t="e">
         <v>#NAME?</v>
@@ -18492,13 +18515,13 @@
         <v>33</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="H205" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I205" s="5" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="J205" s="5"/>
       <c r="O205" s="5"/>
@@ -18531,13 +18554,13 @@
     </row>
     <row r="206" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A206" s="3" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D206" s="1" t="e">
         <v>#NAME?</v>
@@ -18549,7 +18572,7 @@
         <v>119</v>
       </c>
       <c r="I206" s="5" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="J206" s="5"/>
       <c r="O206" s="5"/>
@@ -18582,13 +18605,13 @@
     </row>
     <row r="207" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A207" s="3" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D207" s="1" t="e">
         <v>#NAME?</v>
@@ -18597,13 +18620,13 @@
         <v>33</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="H207" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I207" s="5" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="J207" s="5"/>
       <c r="O207" s="5"/>
@@ -18636,13 +18659,13 @@
     </row>
     <row r="208" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A208" s="3" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="D208" s="1" t="e">
         <v>#NAME?</v>
@@ -18657,7 +18680,7 @@
         <v>129</v>
       </c>
       <c r="I208" s="5" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="J208" s="5"/>
       <c r="O208" s="5"/>
@@ -18690,37 +18713,37 @@
     </row>
     <row r="209" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A209" s="3" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D209" s="1" t="e">
         <v>#NAME?</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="F209" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="H209" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I209" s="5" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="J209" s="5" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="K209" s="6" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="L209" s="6" t="n">
         <v>8</v>
@@ -18755,35 +18778,35 @@
     </row>
     <row r="210" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A210" s="3" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D210" s="1" t="e">
         <v>#NAME?</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="F210" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="H210" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I210" s="5" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="J210" s="5"/>
       <c r="K210" s="3" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="L210" s="3" t="n">
         <v>6</v>
@@ -18818,13 +18841,13 @@
     </row>
     <row r="211" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A211" s="3" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D211" s="1" t="e">
         <v>#NAME?</v>
@@ -18836,7 +18859,7 @@
         <v>129</v>
       </c>
       <c r="I211" s="5" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="J211" s="5"/>
       <c r="O211" s="5"/>
@@ -18869,13 +18892,13 @@
     </row>
     <row r="212" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A212" s="3" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D212" s="1" t="e">
         <v>#NAME?</v>
@@ -18887,13 +18910,13 @@
         <v>26</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="H212" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I212" s="5" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="J212" s="5"/>
       <c r="K212" s="3" t="n">
@@ -18932,13 +18955,13 @@
     </row>
     <row r="213" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A213" s="3" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D213" s="1" t="e">
         <v>#NAME?</v>
@@ -18950,13 +18973,13 @@
         <v>26</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="H213" s="4" t="s">
         <v>50</v>
       </c>
       <c r="I213" s="5" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="J213" s="5"/>
       <c r="K213" s="3" t="n">
@@ -18995,13 +19018,13 @@
     </row>
     <row r="214" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A214" s="3" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="D214" s="1" t="e">
         <v>#NAME?</v>
@@ -19016,7 +19039,7 @@
         <v>50</v>
       </c>
       <c r="I214" s="5" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="J214" s="5"/>
       <c r="O214" s="5"/>
@@ -19049,13 +19072,13 @@
     </row>
     <row r="215" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A215" s="3" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D215" s="1" t="e">
         <v>#NAME?</v>
@@ -19067,13 +19090,13 @@
         <v>26</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="H215" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I215" s="5" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="J215" s="5"/>
       <c r="K215" s="3" t="n">
@@ -19112,13 +19135,13 @@
     </row>
     <row r="216" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A216" s="3" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D216" s="1" t="e">
         <v>#NAME?</v>
@@ -19130,13 +19153,13 @@
         <v>26</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="H216" s="4" t="s">
         <v>134</v>
       </c>
       <c r="I216" s="5" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="K216" s="6" t="n">
         <v>3</v>
@@ -19174,13 +19197,13 @@
     </row>
     <row r="217" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A217" s="3" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D217" s="1" t="e">
         <v>#NAME?</v>
@@ -19192,13 +19215,13 @@
         <v>26</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H217" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I217" s="5" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="K217" s="6" t="n">
         <v>7</v>
@@ -19236,16 +19259,16 @@
     </row>
     <row r="218" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A218" s="3" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="F218" s="3" t="s">
         <v>33</v>
@@ -19257,7 +19280,7 @@
         <v>129</v>
       </c>
       <c r="I218" s="5" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="J218" s="5"/>
       <c r="O218" s="5"/>
@@ -19290,13 +19313,13 @@
     </row>
     <row r="219" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A219" s="3" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D219" s="1" t="e">
         <v>#NAME?</v>
@@ -19308,13 +19331,13 @@
         <v>26</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="H219" s="4" t="s">
         <v>32</v>
       </c>
       <c r="I219" s="5" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="K219" s="6" t="n">
         <v>3</v>
@@ -19352,13 +19375,13 @@
     </row>
     <row r="220" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A220" s="3" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="D220" s="1" t="e">
         <v>#NAME?</v>
@@ -19373,7 +19396,7 @@
         <v>50</v>
       </c>
       <c r="I220" s="5" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="J220" s="5"/>
       <c r="O220" s="5"/>
@@ -19406,31 +19429,31 @@
     </row>
     <row r="221" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A221" s="3" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="D221" s="1" t="e">
         <v>#NAME?</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="F221" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="H221" s="4" t="s">
         <v>32</v>
       </c>
       <c r="I221" s="5" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="J221" s="5"/>
       <c r="K221" s="3" t="n">
@@ -19469,13 +19492,13 @@
     </row>
     <row r="222" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A222" s="3" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="D222" s="1" t="e">
         <v>#NAME?</v>
@@ -19487,13 +19510,13 @@
         <v>26</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="H222" s="4" t="s">
         <v>50</v>
       </c>
       <c r="I222" s="5" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="J222" s="5"/>
       <c r="K222" s="3" t="n">
@@ -19532,13 +19555,13 @@
     </row>
     <row r="223" spans="1:24" ht="15.75" customHeight="1">
       <c r="A223" s="3" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D223" s="1" t="e">
         <v>#NAME?</v>
@@ -19550,13 +19573,13 @@
         <v>26</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="H223" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I223" s="5" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="J223" s="5"/>
       <c r="K223" s="3" t="n">
@@ -19595,16 +19618,16 @@
     </row>
     <row r="224" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A224" s="3" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="F224" s="3" t="s">
         <v>33</v>
@@ -19614,7 +19637,7 @@
       </c>
       <c r="H224" s="4"/>
       <c r="I224" s="5" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="J224" s="5"/>
       <c r="O224" s="5"/>
@@ -19647,13 +19670,13 @@
     </row>
     <row r="225" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A225" s="2" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="D225" s="1" t="e">
         <v>#NAME?</v>
@@ -19662,16 +19685,16 @@
         <v>73</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="H225" s="4" t="s">
         <v>81</v>
       </c>
       <c r="I225" s="5" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="J225" s="5" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="O225" s="5"/>
       <c r="Q225" s="3" t="n">
@@ -19703,34 +19726,34 @@
     </row>
     <row r="226" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A226" s="3" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="D226" s="1" t="e">
         <v>#NAME?</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="F226" s="3" t="s">
         <v>94</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="H226" s="4" t="s">
         <v>81</v>
       </c>
       <c r="I226" s="5" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="K226" s="5" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="L226" s="3" t="n">
         <v>10</v>
@@ -19765,13 +19788,13 @@
     </row>
     <row r="227" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A227" s="3" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="D227" s="1" t="e">
         <v>#NAME?</v>
@@ -19780,13 +19803,13 @@
         <v>87</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="H227" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I227" s="5" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="J227" s="5"/>
       <c r="O227" s="5"/>
@@ -19819,31 +19842,31 @@
     </row>
     <row r="228" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A228" s="3" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="D228" s="1" t="e">
         <v>#NAME?</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="F228" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="H228" s="4" t="s">
         <v>81</v>
       </c>
       <c r="I228" s="5" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="J228" s="5"/>
       <c r="K228" s="3" t="n">
@@ -19882,13 +19905,13 @@
     </row>
     <row r="229" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A229" s="3" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="D229" s="1" t="e">
         <v>#NAME?</v>
@@ -19900,7 +19923,7 @@
         <v>81</v>
       </c>
       <c r="I229" s="5" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="J229" s="5"/>
       <c r="O229" s="5"/>
@@ -19933,13 +19956,13 @@
     </row>
     <row r="230" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A230" s="3" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="D230" s="1" t="e">
         <v>#NAME?</v>
@@ -19954,7 +19977,7 @@
         <v>81</v>
       </c>
       <c r="I230" s="5" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="J230" s="5"/>
       <c r="O230" s="5"/>
@@ -19987,13 +20010,13 @@
     </row>
     <row r="231" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A231" s="3" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="D231" s="1" t="e">
         <v>#NAME?</v>
@@ -20005,13 +20028,13 @@
         <v>26</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="H231" s="4" t="s">
         <v>119</v>
       </c>
       <c r="I231" s="5" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="J231" s="5"/>
       <c r="K231" s="3" t="n">
@@ -20050,13 +20073,13 @@
     </row>
     <row r="232" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A232" s="3" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="D232" s="1" t="e">
         <v>#NAME?</v>
@@ -20068,13 +20091,13 @@
         <v>26</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="H232" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I232" s="5" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="K232" s="6" t="n">
         <v>8</v>
@@ -20112,13 +20135,13 @@
     </row>
     <row r="233" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A233" s="3" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="D233" s="1" t="e">
         <v>#NAME?</v>
@@ -20133,7 +20156,7 @@
         <v>119</v>
       </c>
       <c r="I233" s="5" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="J233" s="5"/>
       <c r="O233" s="5"/>
@@ -20166,13 +20189,13 @@
     </row>
     <row r="234" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A234" s="3" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="D234" s="1" t="e">
         <v>#NAME?</v>
@@ -20184,13 +20207,13 @@
         <v>26</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="H234" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I234" s="5" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="K234" s="6" t="n">
         <v>4</v>
@@ -20228,13 +20251,13 @@
     </row>
     <row r="235" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A235" s="3" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="D235" s="1" t="e">
         <v>#NAME?</v>
@@ -20246,13 +20269,13 @@
         <v>26</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="H235" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I235" s="5" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="K235" s="6" t="n">
         <v>4</v>
@@ -20290,13 +20313,13 @@
     </row>
     <row r="236" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A236" s="3" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="D236" s="1" t="e">
         <v>#NAME?</v>
@@ -20311,7 +20334,7 @@
         <v>129</v>
       </c>
       <c r="I236" s="5" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="J236" s="5"/>
       <c r="O236" s="5"/>
@@ -20344,13 +20367,13 @@
     </row>
     <row r="237" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A237" s="3" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="D237" s="1" t="e">
         <v>#NAME?</v>
@@ -20359,13 +20382,13 @@
         <v>26</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="H237" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I237" s="5" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="J237" s="5"/>
       <c r="O237" s="5"/>
@@ -20398,13 +20421,13 @@
     </row>
     <row r="238" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A238" s="3" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="D238" s="1" t="e">
         <v>#NAME?</v>
@@ -20419,7 +20442,7 @@
         <v>129</v>
       </c>
       <c r="I238" s="5" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="J238" s="5"/>
       <c r="O238" s="5"/>
@@ -20452,13 +20475,13 @@
     </row>
     <row r="239" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A239" s="3" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="D239" s="1" t="e">
         <v>#NAME?</v>
@@ -20470,7 +20493,7 @@
         <v>26</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="H239" s="4" t="s">
         <v>50</v>
@@ -20513,13 +20536,13 @@
     </row>
     <row r="240" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A240" s="3" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="D240" s="1" t="e">
         <v>#NAME?</v>
@@ -20531,16 +20554,16 @@
         <v>26</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="H240" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I240" s="5" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="J240" s="5" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="K240" s="6" t="n">
         <v>4</v>
@@ -20578,13 +20601,13 @@
     </row>
     <row r="241" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A241" s="3" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="D241" s="1" t="e">
         <v>#NAME?</v>
@@ -20596,16 +20619,16 @@
         <v>26</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="H241" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I241" s="5" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="J241" s="5" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="K241" s="6" t="n">
         <v>3</v>
@@ -20643,13 +20666,13 @@
     </row>
     <row r="242" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A242" s="3" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="D242" s="1" t="e">
         <v>#NAME?</v>
@@ -20664,7 +20687,7 @@
         <v>44</v>
       </c>
       <c r="I242" s="5" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="J242" s="5"/>
       <c r="O242" s="5"/>
@@ -20697,13 +20720,13 @@
     </row>
     <row r="243" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A243" s="3" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="D243" s="1" t="e">
         <v>#NAME?</v>
@@ -20712,13 +20735,13 @@
         <v>26</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="H243" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I243" s="5" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="J243" s="5"/>
       <c r="O243" s="5"/>
@@ -20751,10 +20774,10 @@
     </row>
     <row r="244" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A244" s="3" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>61</v>
@@ -20769,7 +20792,7 @@
         <v>26</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="H244" s="4" t="s">
         <v>50</v>
@@ -20812,10 +20835,10 @@
     </row>
     <row r="245" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A245" s="3" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>56</v>
@@ -20827,16 +20850,16 @@
         <v>51</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="G245" s="3" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="H245" s="4" t="s">
         <v>134</v>
       </c>
       <c r="I245" s="5" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="J245" s="5"/>
       <c r="K245" s="3" t="n">
@@ -20875,10 +20898,10 @@
     </row>
     <row r="246" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A246" s="3" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>56</v>
@@ -20893,13 +20916,13 @@
         <v>26</v>
       </c>
       <c r="G246" s="3" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="H246" s="4" t="s">
         <v>50</v>
       </c>
       <c r="I246" s="5" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="J246" s="5"/>
       <c r="K246" s="3" t="n">
@@ -20938,13 +20961,13 @@
     </row>
     <row r="247" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A247" s="3" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="D247" s="1" t="e">
         <v>#NAME?</v>
@@ -20956,13 +20979,13 @@
         <v>26</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="H247" s="4" t="s">
         <v>50</v>
       </c>
       <c r="I247" s="5" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="J247" s="5"/>
       <c r="K247" s="3" t="n">
@@ -21001,13 +21024,13 @@
     </row>
     <row r="248" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A248" s="3" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="D248" s="1" t="e">
         <v>#NAME?</v>
@@ -21019,13 +21042,13 @@
         <v>94</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="H248" s="4" t="s">
         <v>32</v>
       </c>
       <c r="I248" s="5" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="J248" s="5"/>
       <c r="K248" s="3" t="n">
@@ -21064,7 +21087,7 @@
     </row>
     <row r="249" spans="1:24" ht="15.75" customHeight="1">
       <c r="A249" s="3" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="B249" s="3" t="str">
         <f>A249</f>
@@ -21107,7 +21130,7 @@
     </row>
     <row r="250" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A250" s="3" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B250" s="3" t="str">
         <f>A250</f>
@@ -21150,10 +21173,10 @@
     </row>
     <row r="251" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A251" s="3" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>61</v>
@@ -21168,16 +21191,16 @@
         <v>73</v>
       </c>
       <c r="G251" s="3" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="H251" s="4" t="s">
         <v>96</v>
       </c>
       <c r="I251" s="5" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="J251" s="5" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="K251" s="3" t="n">
         <v>1</v>
@@ -21215,13 +21238,13 @@
     </row>
     <row r="252" spans="1:24" ht="130.50" customHeight="1" outlineLevel="1">
       <c r="A252" s="3" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="D252" s="1" t="e">
         <v>#NAME?</v>
@@ -21230,13 +21253,13 @@
         <v>87</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="H252" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I252" s="5" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="J252" s="5"/>
       <c r="O252" s="5"/>
@@ -21269,13 +21292,13 @@
     </row>
     <row r="253" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A253" s="3" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="D253" s="1" t="e">
         <v>#NAME?</v>
@@ -21287,7 +21310,7 @@
         <v>9</v>
       </c>
       <c r="I253" s="5" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="J253" s="5"/>
       <c r="O253" s="5"/>
@@ -21320,13 +21343,13 @@
     </row>
     <row r="254" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A254" s="3" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="B254" s="14" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="D254" s="1" t="e">
         <v>#NAME?</v>
@@ -21338,7 +21361,7 @@
         <v>81</v>
       </c>
       <c r="I254" s="5" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="J254" s="5"/>
       <c r="O254" s="5"/>
@@ -21371,13 +21394,13 @@
     </row>
     <row r="255" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A255" s="3" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="D255" s="1" t="e">
         <v>#NAME?</v>
@@ -21389,13 +21412,13 @@
         <v>26</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="H255" s="4" t="s">
         <v>81</v>
       </c>
       <c r="I255" s="5" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="J255" s="5"/>
       <c r="K255" s="3" t="n">
@@ -21434,10 +21457,10 @@
     </row>
     <row r="256" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A256" s="3" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>56</v>
@@ -21458,7 +21481,7 @@
         <v>129</v>
       </c>
       <c r="I256" s="5" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="J256" s="5"/>
       <c r="K256" s="3" t="n">
@@ -21497,13 +21520,13 @@
     </row>
     <row r="257" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A257" s="3" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="D257" s="1" t="e">
         <v>#NAME?</v>
@@ -21515,10 +21538,10 @@
         <v>129</v>
       </c>
       <c r="I257" s="5" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="J257" s="5" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="O257" s="5"/>
       <c r="Q257" s="3" t="n">
@@ -21550,13 +21573,13 @@
     </row>
     <row r="258" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A258" s="3" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="D258" s="1" t="e">
         <v>#NAME?</v>
@@ -21565,13 +21588,13 @@
         <v>26</v>
       </c>
       <c r="G258" s="3" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="H258" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I258" s="5" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="J258" s="5"/>
       <c r="O258" s="5"/>
@@ -21604,10 +21627,10 @@
     </row>
     <row r="259" spans="1:24" ht="81.75" customHeight="1" outlineLevel="1">
       <c r="A259" s="3" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>61</v>
@@ -21622,16 +21645,16 @@
         <v>26</v>
       </c>
       <c r="G259" s="3" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="H259" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I259" s="5" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="J259" s="5" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="K259" s="3" t="n">
         <v>2</v>
@@ -21669,13 +21692,13 @@
     </row>
     <row r="260" spans="1:24" ht="74.25" customHeight="1" outlineLevel="1">
       <c r="A260" s="3" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="D260" s="1" t="e">
         <v>#NAME?</v>
@@ -21687,16 +21710,16 @@
         <v>26</v>
       </c>
       <c r="G260" s="3" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="H260" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I260" s="5" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="J260" s="5" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="K260" s="3" t="n">
         <v>3</v>
@@ -21734,10 +21757,10 @@
     </row>
     <row r="261" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A261" s="3" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>56</v>
@@ -21752,7 +21775,7 @@
         <v>129</v>
       </c>
       <c r="I261" s="5" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="J261" s="5"/>
       <c r="O261" s="5"/>
@@ -21785,10 +21808,10 @@
     </row>
     <row r="262" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A262" s="3" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>61</v>
@@ -21803,13 +21826,13 @@
         <v>26</v>
       </c>
       <c r="G262" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="H262" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I262" s="5" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="J262" s="5"/>
       <c r="K262" s="3" t="n">
@@ -21848,13 +21871,13 @@
     </row>
     <row r="263" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A263" s="3" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="D263" s="1" t="e">
         <v>#NAME?</v>
@@ -21866,13 +21889,13 @@
         <v>26</v>
       </c>
       <c r="G263" s="3" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="H263" s="4" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="I263" s="5" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="J263" s="5"/>
       <c r="K263" s="3" t="n">
@@ -21911,13 +21934,13 @@
     </row>
     <row r="264" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A264" s="3" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="D264" s="1" t="e">
         <v>#NAME?</v>
@@ -21929,13 +21952,13 @@
         <v>26</v>
       </c>
       <c r="G264" s="3" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="H264" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I264" s="5" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="J264" s="5"/>
       <c r="K264" s="3" t="n">
@@ -21974,13 +21997,13 @@
     </row>
     <row r="265" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A265" s="3" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="D265" s="1" t="e">
         <v>#NAME?</v>
@@ -21992,16 +22015,16 @@
         <v>26</v>
       </c>
       <c r="G265" s="3" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="H265" s="4" t="s">
         <v>50</v>
       </c>
       <c r="I265" s="5" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="J265" s="5" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="K265" s="3" t="n">
         <v>3</v>
@@ -22039,13 +22062,13 @@
     </row>
     <row r="266" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A266" s="3" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="D266" s="1" t="e">
         <v>#NAME?</v>
@@ -22060,7 +22083,7 @@
         <v>32</v>
       </c>
       <c r="I266" s="5" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="J266" s="5"/>
       <c r="O266" s="5"/>
@@ -22093,16 +22116,16 @@
     </row>
     <row r="267" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A267" s="3" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="E267" s="3" t="s">
         <v>51</v>
@@ -22111,13 +22134,13 @@
         <v>26</v>
       </c>
       <c r="G267" s="3" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="H267" s="4" t="s">
         <v>50</v>
       </c>
       <c r="I267" s="5" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="J267" s="5"/>
       <c r="K267" s="3" t="n">
@@ -22156,13 +22179,13 @@
     </row>
     <row r="268" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A268" s="3" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="D268" s="1" t="e">
         <v>#NAME?</v>
@@ -22177,10 +22200,10 @@
         <v>32</v>
       </c>
       <c r="I268" s="5" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="J268" s="5" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="O268" s="5"/>
       <c r="Q268" s="3" t="n">
@@ -22212,10 +22235,10 @@
     </row>
     <row r="269" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A269" s="3" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>61</v>
@@ -22236,7 +22259,7 @@
         <v>32</v>
       </c>
       <c r="I269" s="5" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="J269" s="5"/>
       <c r="K269" s="3" t="n">
@@ -22275,13 +22298,13 @@
     </row>
     <row r="270" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A270" s="3" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="D270" s="1" t="e">
         <v>#NAME?</v>
@@ -22293,7 +22316,7 @@
         <v>26</v>
       </c>
       <c r="G270" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="H270" s="4" t="s">
         <v>50</v>
@@ -22335,13 +22358,13 @@
     </row>
     <row r="271" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A271" s="3" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="D271" s="1" t="e">
         <v>#NAME?</v>
@@ -22353,13 +22376,13 @@
         <v>26</v>
       </c>
       <c r="G271" s="3" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="H271" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I271" s="5" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="J271" s="5"/>
       <c r="K271" s="3" t="n">
@@ -22398,10 +22421,10 @@
     </row>
     <row r="272" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A272" s="3" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>61</v>
@@ -22422,7 +22445,7 @@
         <v>50</v>
       </c>
       <c r="I272" s="5" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="J272" s="5"/>
       <c r="K272" s="3" t="n">
@@ -22461,10 +22484,10 @@
     </row>
     <row r="273" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A273" s="3" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>61</v>
@@ -22476,19 +22499,19 @@
         <v>33</v>
       </c>
       <c r="G273" s="3" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="H273" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I273" s="5" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="J273" s="5" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="M273" s="5" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="O273" s="5"/>
       <c r="Q273" s="3" t="n">
@@ -22520,7 +22543,7 @@
     </row>
     <row r="274" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A274" s="3" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="B274" s="3" t="str">
         <f>A274</f>
@@ -22563,7 +22586,7 @@
     </row>
     <row r="275" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A275" s="3" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="B275" s="3" t="str">
         <f>A275</f>
@@ -22606,7 +22629,7 @@
     </row>
     <row r="276" spans="1:24" ht="15.75" customHeight="1">
       <c r="A276" s="3" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="B276" s="3" t="str">
         <f>A276</f>
@@ -22649,13 +22672,13 @@
     </row>
     <row r="277" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A277" s="2" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="D277" s="1" t="e">
         <v>#NAME?</v>
@@ -22664,16 +22687,16 @@
         <v>73</v>
       </c>
       <c r="G277" s="3" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="H277" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I277" s="5" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="J277" s="10" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="K277" s="6"/>
       <c r="L277" s="6"/>
@@ -22707,13 +22730,13 @@
     </row>
     <row r="278" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A278" s="3" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="D278" s="1" t="e">
         <v>#NAME?</v>
@@ -22728,7 +22751,7 @@
         <v>25</v>
       </c>
       <c r="I278" s="10" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="J278" s="5"/>
       <c r="O278" s="5"/>
@@ -22761,13 +22784,13 @@
     </row>
     <row r="279" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A279" s="3" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="D279" s="1" t="e">
         <v>#NAME?</v>
@@ -22776,13 +22799,13 @@
         <v>26</v>
       </c>
       <c r="G279" s="3" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="H279" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I279" s="5" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="J279" s="5"/>
       <c r="O279" s="5"/>
@@ -22815,13 +22838,13 @@
     </row>
     <row r="280" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A280" s="3" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="D280" s="1" t="e">
         <v>#NAME?</v>
@@ -22830,16 +22853,16 @@
         <v>26</v>
       </c>
       <c r="G280" s="3" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="H280" s="4" t="s">
         <v>81</v>
       </c>
       <c r="I280" s="5" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="J280" s="5" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="O280" s="5"/>
       <c r="Q280" s="3" t="n">
@@ -22871,13 +22894,13 @@
     </row>
     <row r="281" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A281" s="3" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="D281" s="1" t="e">
         <v>#NAME?</v>
@@ -22889,10 +22912,10 @@
         <v>81</v>
       </c>
       <c r="I281" s="5" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="J281" s="5" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="O281" s="5"/>
       <c r="Q281" s="3" t="n">
@@ -22924,13 +22947,13 @@
     </row>
     <row r="282" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A282" s="3" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="D282" s="1" t="e">
         <v>#NAME?</v>
@@ -22942,7 +22965,7 @@
         <v>96</v>
       </c>
       <c r="I282" s="5" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="J282" s="5"/>
       <c r="O282" s="5"/>
@@ -22975,13 +22998,13 @@
     </row>
     <row r="283" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A283" s="3" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="D283" s="1" t="e">
         <v>#NAME?</v>
@@ -22990,13 +23013,13 @@
         <v>26</v>
       </c>
       <c r="G283" s="3" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="H283" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I283" s="5" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="J283" s="5"/>
       <c r="K283" s="3" t="s">
@@ -23034,13 +23057,13 @@
     </row>
     <row r="284" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A284" s="3" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="D284" s="1" t="e">
         <v>#NAME?</v>
@@ -23055,7 +23078,7 @@
         <v>129</v>
       </c>
       <c r="I284" s="5" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="J284" s="5"/>
       <c r="O284" s="5"/>
@@ -23088,13 +23111,13 @@
     </row>
     <row r="285" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A285" s="3" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="D285" s="1" t="e">
         <v>#NAME?</v>
@@ -23109,7 +23132,7 @@
         <v>119</v>
       </c>
       <c r="I285" s="5" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="J285" s="5"/>
       <c r="O285" s="5"/>
@@ -23142,13 +23165,13 @@
     </row>
     <row r="286" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A286" s="3" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="D286" s="1" t="e">
         <v>#NAME?</v>
@@ -23166,7 +23189,7 @@
         <v>129</v>
       </c>
       <c r="I286" s="5" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="K286" s="6" t="n">
         <v>3</v>
@@ -23204,13 +23227,13 @@
     </row>
     <row r="287" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A287" s="3" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="D287" s="1" t="e">
         <v>#NAME?</v>
@@ -23219,10 +23242,10 @@
         <v>33</v>
       </c>
       <c r="H287" s="4" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="I287" s="5" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="J287" s="5"/>
       <c r="O287" s="5"/>
@@ -23255,13 +23278,13 @@
     </row>
     <row r="288" spans="1:24" ht="53.25" customHeight="1" outlineLevel="1">
       <c r="A288" s="3" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="D288" s="1" t="e">
         <v>#NAME?</v>
@@ -23276,10 +23299,10 @@
         <v>129</v>
       </c>
       <c r="I288" s="5" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="J288" s="5" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="O288" s="5"/>
       <c r="Q288" s="3" t="n">
@@ -23311,13 +23334,13 @@
     </row>
     <row r="289" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A289" s="3" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="D289" s="1" t="e">
         <v>#NAME?</v>
@@ -23332,7 +23355,7 @@
         <v>129</v>
       </c>
       <c r="I289" s="5" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="J289" s="5"/>
       <c r="O289" s="5"/>
@@ -23365,13 +23388,13 @@
     </row>
     <row r="290" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A290" s="3" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="D290" s="1" t="e">
         <v>#NAME?</v>
@@ -23383,16 +23406,16 @@
         <v>26</v>
       </c>
       <c r="G290" s="3" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="H290" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I290" s="5" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="J290" s="5" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="K290" s="3" t="n">
         <v>5</v>
@@ -23430,13 +23453,13 @@
     </row>
     <row r="291" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A291" s="3" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="D291" s="1" t="e">
         <v>#NAME?</v>
@@ -23451,7 +23474,7 @@
         <v>129</v>
       </c>
       <c r="I291" s="5" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="K291" s="3" t="s">
         <v>29</v>
@@ -23488,13 +23511,13 @@
     </row>
     <row r="292" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A292" s="3" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="D292" s="1" t="e">
         <v>#NAME?</v>
@@ -23506,7 +23529,7 @@
         <v>26</v>
       </c>
       <c r="G292" s="3" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="H292" s="4" t="s">
         <v>50</v>
@@ -23549,13 +23572,13 @@
     </row>
     <row r="293" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A293" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C293" s="4" t="s">
         <v>1139</v>
-      </c>
-      <c r="B293" s="3" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C293" s="4" t="s">
-        <v>1137</v>
       </c>
       <c r="D293" s="1" t="e">
         <v>#NAME?</v>
@@ -23564,16 +23587,16 @@
         <v>33</v>
       </c>
       <c r="G293" s="3" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="H293" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I293" s="5" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="J293" s="5" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="O293" s="5"/>
       <c r="Q293" s="3" t="n">
@@ -23605,13 +23628,13 @@
     </row>
     <row r="294" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A294" s="3" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="D294" s="1" t="e">
         <v>#NAME?</v>
@@ -23620,13 +23643,13 @@
         <v>26</v>
       </c>
       <c r="G294" s="3" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="H294" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I294" s="5" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="J294" s="5"/>
       <c r="O294" s="5"/>
@@ -23659,13 +23682,13 @@
     </row>
     <row r="295" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A295" s="3" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="D295" s="1" t="e">
         <v>#NAME?</v>
@@ -23677,10 +23700,10 @@
         <v>50</v>
       </c>
       <c r="I295" s="5" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="J295" s="5" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="O295" s="5"/>
       <c r="Q295" s="3" t="n">
@@ -23712,13 +23735,13 @@
     </row>
     <row r="296" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A296" s="3" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="D296" s="1" t="e">
         <v>#NAME?</v>
@@ -23727,16 +23750,16 @@
         <v>33</v>
       </c>
       <c r="G296" s="3" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="H296" s="4" t="s">
         <v>50</v>
       </c>
       <c r="I296" s="5" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="J296" s="5" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="O296" s="5"/>
       <c r="Q296" s="3" t="n">
@@ -23768,13 +23791,13 @@
     </row>
     <row r="297" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A297" s="3" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="D297" s="1" t="e">
         <v>#NAME?</v>
@@ -23789,10 +23812,10 @@
         <v>44</v>
       </c>
       <c r="I297" s="5" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="J297" s="5" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="O297" s="5"/>
       <c r="Q297" s="3" t="n">
@@ -23824,13 +23847,13 @@
     </row>
     <row r="298" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A298" s="3" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="D298" s="1" t="e">
         <v>#NAME?</v>
@@ -23842,13 +23865,13 @@
         <v>26</v>
       </c>
       <c r="G298" s="3" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="H298" s="4" t="s">
         <v>50</v>
       </c>
       <c r="I298" s="5" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="J298" s="5"/>
       <c r="K298" s="3" t="n">
@@ -23887,13 +23910,13 @@
     </row>
     <row r="299" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A299" s="3" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="D299" s="1" t="e">
         <v>#NAME?</v>
@@ -23905,13 +23928,13 @@
         <v>26</v>
       </c>
       <c r="G299" s="3" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="H299" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I299" s="5" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="J299" s="5"/>
       <c r="K299" s="3" t="n">
@@ -23950,13 +23973,13 @@
     </row>
     <row r="300" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A300" s="3" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="D300" s="1" t="e">
         <v>#NAME?</v>
@@ -23971,7 +23994,7 @@
         <v>50</v>
       </c>
       <c r="I300" s="5" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="J300" s="5"/>
       <c r="O300" s="5"/>
@@ -24004,13 +24027,13 @@
     </row>
     <row r="301" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A301" s="3" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="D301" s="1" t="e">
         <v>#NAME?</v>
@@ -24022,13 +24045,13 @@
         <v>26</v>
       </c>
       <c r="G301" s="3" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="H301" s="4" t="s">
         <v>32</v>
       </c>
       <c r="I301" s="5" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="J301" s="5"/>
       <c r="K301" s="3" t="n">
@@ -24067,13 +24090,13 @@
     </row>
     <row r="302" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A302" s="3" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="D302" s="1" t="e">
         <v>#NAME?</v>
@@ -24088,7 +24111,7 @@
         <v>134</v>
       </c>
       <c r="I302" s="5" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="O302" s="5"/>
       <c r="Q302" s="3" t="n">
@@ -24120,13 +24143,13 @@
     </row>
     <row r="303" spans="1:24" ht="156" customHeight="1">
       <c r="A303" s="3" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="D303" s="1" t="e">
         <v>#NAME?</v>
@@ -24138,16 +24161,16 @@
         <v>73</v>
       </c>
       <c r="G303" s="3" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="H303" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I303" s="5" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="J303" s="5" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="K303" s="3" t="n">
         <v>5</v>
@@ -24185,13 +24208,13 @@
     </row>
     <row r="304" spans="1:24" ht="103.50" customHeight="1" outlineLevel="1">
       <c r="A304" s="3" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="D304" s="1" t="e">
         <v>#NAME?</v>
@@ -24206,7 +24229,7 @@
         <v>25</v>
       </c>
       <c r="I304" s="5" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="J304" s="5"/>
       <c r="O304" s="5"/>
@@ -24239,13 +24262,13 @@
     </row>
     <row r="305" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A305" s="3" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="D305" s="1" t="e">
         <v>#NAME?</v>
@@ -24254,16 +24277,16 @@
         <v>26</v>
       </c>
       <c r="G305" s="3" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="H305" s="4" t="s">
         <v>81</v>
       </c>
       <c r="I305" s="5" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="J305" s="5" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="O305" s="5"/>
       <c r="Q305" s="3" t="n">
@@ -24295,13 +24318,13 @@
     </row>
     <row r="306" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A306" s="3" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="D306" s="1" t="e">
         <v>#NAME?</v>
@@ -24310,13 +24333,13 @@
         <v>26</v>
       </c>
       <c r="G306" s="3" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="H306" s="4" t="s">
         <v>81</v>
       </c>
       <c r="I306" s="5" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="J306" s="5"/>
       <c r="O306" s="5"/>
@@ -24349,13 +24372,13 @@
     </row>
     <row r="307" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A307" s="3" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="D307" s="1" t="e">
         <v>#NAME?</v>
@@ -24364,13 +24387,13 @@
         <v>33</v>
       </c>
       <c r="G307" s="3" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="H307" s="4" t="s">
         <v>81</v>
       </c>
       <c r="I307" s="5" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="J307" s="5"/>
       <c r="O307" s="5"/>
@@ -24403,13 +24426,13 @@
     </row>
     <row r="308" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A308" s="3" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="D308" s="1" t="e">
         <v>#NAME?</v>
@@ -24418,13 +24441,13 @@
         <v>26</v>
       </c>
       <c r="G308" s="3" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="H308" s="4" t="s">
         <v>96</v>
       </c>
       <c r="I308" s="5" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="J308" s="5"/>
       <c r="O308" s="5"/>
@@ -24457,13 +24480,13 @@
     </row>
     <row r="309" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A309" s="3" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="D309" s="1" t="e">
         <v>#NAME?</v>
@@ -24472,16 +24495,16 @@
         <v>33</v>
       </c>
       <c r="G309" s="3" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="H309" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I309" s="5" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="J309" s="5" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="K309" s="3" t="s">
         <v>29</v>
@@ -24518,13 +24541,13 @@
     </row>
     <row r="310" spans="1:24" ht="48.75" customHeight="1" outlineLevel="1">
       <c r="A310" s="3" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="D310" s="1" t="e">
         <v>#NAME?</v>
@@ -24533,16 +24556,16 @@
         <v>33</v>
       </c>
       <c r="G310" s="3" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="H310" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I310" s="5" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="J310" s="5" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="O310" s="5"/>
       <c r="Q310" s="3" t="n">
@@ -24574,34 +24597,34 @@
     </row>
     <row r="311" spans="1:24" ht="122.25" customHeight="1" outlineLevel="1">
       <c r="A311" s="3" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="D311" s="1" t="e">
         <v>#NAME?</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="F311" s="3" t="s">
         <v>94</v>
       </c>
       <c r="G311" s="3" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="H311" s="4" t="s">
         <v>119</v>
       </c>
       <c r="I311" s="5" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="J311" s="5" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="K311" s="3" t="n">
         <v>5</v>
@@ -24639,13 +24662,13 @@
     </row>
     <row r="312" spans="1:24" ht="154.50" customHeight="1" outlineLevel="1">
       <c r="A312" s="3" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="D312" s="1" t="e">
         <v>#NAME?</v>
@@ -24660,10 +24683,10 @@
         <v>25</v>
       </c>
       <c r="I312" s="5" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="J312" s="5" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="O312" s="5"/>
       <c r="S312" s="3" t="e">
@@ -24689,13 +24712,13 @@
     </row>
     <row r="313" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A313" s="3" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="D313" s="1" t="e">
         <v>#NAME?</v>
@@ -24707,7 +24730,7 @@
         <v>129</v>
       </c>
       <c r="I313" s="5" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="J313" s="5"/>
       <c r="O313" s="5"/>
@@ -24738,15 +24761,15 @@
         <v>RT_PU_012</v>
       </c>
     </row>
-    <row r="314" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
+    <row r="314" spans="1:24" ht="63.75" customHeight="1" outlineLevel="1">
       <c r="A314" s="3" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="D314" s="1" t="e">
         <v>#NAME?</v>
@@ -24758,16 +24781,16 @@
         <v>26</v>
       </c>
       <c r="G314" s="3" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="H314" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I314" s="5" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="J314" s="5" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="K314" s="3" t="n">
         <v>4</v>
@@ -24805,13 +24828,13 @@
     </row>
     <row r="315" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A315" s="3" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="D315" s="1" t="e">
         <v>#NAME?</v>
@@ -24826,7 +24849,7 @@
         <v>129</v>
       </c>
       <c r="I315" s="5" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="J315" s="5"/>
       <c r="O315" s="5"/>
@@ -24859,13 +24882,13 @@
     </row>
     <row r="316" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A316" s="3" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="D316" s="1" t="e">
         <v>#NAME?</v>
@@ -24874,13 +24897,13 @@
         <v>94</v>
       </c>
       <c r="G316" s="3" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="H316" s="4" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="I316" s="5" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="J316" s="5"/>
       <c r="O316" s="5"/>
@@ -24913,7 +24936,7 @@
     </row>
     <row r="317" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A317" s="3" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="B317" s="3" t="str">
         <f>A317</f>
@@ -24956,7 +24979,7 @@
     </row>
     <row r="318" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A318" s="3" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="B318" s="3" t="str">
         <f>A318</f>
@@ -24997,15 +25020,15 @@
         <v>RT_PC_013</v>
       </c>
     </row>
-    <row r="319" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
+    <row r="319" spans="1:24" ht="66" customHeight="1" outlineLevel="1">
       <c r="A319" s="3" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="D319" s="1" t="e">
         <v>#NAME?</v>
@@ -25020,10 +25043,10 @@
         <v>134</v>
       </c>
       <c r="I319" s="5" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="J319" s="5" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="O319" s="5"/>
       <c r="Q319" s="3" t="n">
@@ -25055,13 +25078,13 @@
     </row>
     <row r="320" spans="1:24" ht="117.75" customHeight="1" outlineLevel="1">
       <c r="A320" s="3" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="D320" s="1" t="e">
         <v>#NAME?</v>
@@ -25073,10 +25096,10 @@
         <v>44</v>
       </c>
       <c r="I320" s="5" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="J320" s="5" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="O320" s="5"/>
       <c r="Q320" s="3" t="n">
@@ -25108,13 +25131,13 @@
     </row>
     <row r="321" spans="1:24" ht="55.50" customHeight="1" outlineLevel="1">
       <c r="A321" s="3" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="D321" s="1" t="e">
         <v>#NAME?</v>
@@ -25126,10 +25149,10 @@
         <v>44</v>
       </c>
       <c r="I321" s="5" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="J321" s="5" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="K321" s="3" t="s">
         <v>29</v>
@@ -25167,13 +25190,13 @@
     </row>
     <row r="322" spans="1:24" ht="106.50" customHeight="1" outlineLevel="1">
       <c r="A322" s="3" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="D322" s="1" t="e">
         <v>#NAME?</v>
@@ -25185,13 +25208,13 @@
         <v>26</v>
       </c>
       <c r="G322" s="3" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="H322" s="4" t="s">
         <v>50</v>
       </c>
       <c r="I322" s="5" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="K322" s="6" t="n">
         <v>1</v>
@@ -25229,13 +25252,13 @@
     </row>
     <row r="323" spans="1:24" ht="90" customHeight="1" outlineLevel="1">
       <c r="A323" s="3" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="D323" s="1" t="e">
         <v>#NAME?</v>
@@ -25250,10 +25273,10 @@
         <v>44</v>
       </c>
       <c r="I323" s="5" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="J323" s="5" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="O323" s="5"/>
       <c r="Q323" s="3" t="n">
@@ -25285,13 +25308,13 @@
     </row>
     <row r="324" spans="1:24" ht="69.75" customHeight="1" outlineLevel="1">
       <c r="A324" s="3" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="D324" s="1" t="e">
         <v>#NAME?</v>
@@ -25303,13 +25326,13 @@
         <v>26</v>
       </c>
       <c r="G324" s="3" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="H324" s="4" t="s">
         <v>32</v>
       </c>
       <c r="I324" s="5" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="K324" s="6" t="n">
         <v>2</v>
@@ -25347,13 +25370,13 @@
     </row>
     <row r="325" spans="1:24" ht="63" customHeight="1" outlineLevel="1">
       <c r="A325" s="3" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="D325" s="1" t="e">
         <v>#NAME?</v>
@@ -25362,13 +25385,13 @@
         <v>33</v>
       </c>
       <c r="G325" s="3" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="H325" s="4" t="s">
         <v>50</v>
       </c>
       <c r="I325" s="5" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="J325" s="5"/>
       <c r="O325" s="5"/>
@@ -25401,13 +25424,13 @@
     </row>
     <row r="326" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A326" s="3" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="D326" s="1" t="e">
         <v>#NAME?</v>
@@ -25419,13 +25442,13 @@
         <v>26</v>
       </c>
       <c r="G326" s="3" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="H326" s="4" t="s">
         <v>32</v>
       </c>
       <c r="I326" s="5" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="J326" s="5"/>
       <c r="K326" s="3" t="n">
@@ -25464,13 +25487,13 @@
     </row>
     <row r="327" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A327" s="3" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="D327" s="1" t="e">
         <v>#NAME?</v>
@@ -25482,13 +25505,13 @@
         <v>26</v>
       </c>
       <c r="G327" s="3" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="H327" s="4" t="s">
         <v>32</v>
       </c>
       <c r="I327" s="5" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="J327" s="5"/>
       <c r="K327" s="3" t="n">
@@ -25527,7 +25550,7 @@
     </row>
     <row r="328" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A328" s="3" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="B328" s="3" t="str">
         <f>A328</f>
@@ -25570,7 +25593,7 @@
     </row>
     <row r="329" spans="1:24" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A329" s="3" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="B329" s="3" t="str">
         <f>A329</f>
@@ -25613,28 +25636,28 @@
     </row>
     <row r="330" spans="1:24" ht="15.75" customHeight="1">
       <c r="A330" s="3" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>320</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="F330" s="3" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="G330" s="3" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="H330" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I330" s="5" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="K330" s="3" t="s">
         <v>29</v>
@@ -25652,7 +25675,7 @@
         <v>#NAME?</v>
       </c>
       <c r="T330" s="3" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="U330" s="3" t="e">
         <v>#NAME?</v>
@@ -25671,28 +25694,28 @@
     </row>
     <row r="331" spans="1:24" ht="15.75" customHeight="1">
       <c r="A331" s="3" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>320</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>432</v>
+        <v>388</v>
       </c>
       <c r="F331" s="3" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="G331" s="3" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="H331" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I331" s="5" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="K331" s="3" t="s">
         <v>29</v>
@@ -25710,7 +25733,7 @@
         <v>#NAME?</v>
       </c>
       <c r="T331" s="3" t="s">
-        <v>432</v>
+        <v>388</v>
       </c>
       <c r="U331" s="3" t="e">
         <v>#NAME?</v>
@@ -25729,19 +25752,19 @@
     </row>
     <row r="332" spans="1:24" ht="15.75" customHeight="1">
       <c r="A332" s="3" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>320</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F332" s="3" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="G332" s="3" t="s">
         <v>281</v>
@@ -25750,7 +25773,7 @@
         <v>25</v>
       </c>
       <c r="I332" s="5" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="K332" s="3" t="s">
         <v>29</v>
@@ -25768,7 +25791,7 @@
         <v>#NAME?</v>
       </c>
       <c r="T332" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="U332" s="3" t="e">
         <v>#NAME?</v>
@@ -25787,28 +25810,28 @@
     </row>
     <row r="333" spans="1:24" ht="15.75" customHeight="1">
       <c r="A333" s="3" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>320</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="F333" s="3" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="G333" s="3" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="H333" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I333" s="5" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="K333" s="3" t="s">
         <v>29</v>
@@ -25826,7 +25849,7 @@
         <v>#NAME?</v>
       </c>
       <c r="T333" s="3" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="U333" s="3" t="e">
         <v>#NAME?</v>
@@ -25845,28 +25868,28 @@
     </row>
     <row r="334" spans="1:24" ht="15.75" customHeight="1">
       <c r="A334" s="3" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>320</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="F334" s="3" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="G334" s="3" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="H334" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I334" s="5" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="K334" s="3" t="s">
         <v>29</v>
@@ -25884,7 +25907,7 @@
         <v>#NAME?</v>
       </c>
       <c r="T334" s="3" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="U334" s="3" t="e">
         <v>#NAME?</v>
@@ -25903,28 +25926,28 @@
     </row>
     <row r="335" spans="1:24" ht="15.75" customHeight="1">
       <c r="A335" s="3" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>320</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="F335" s="3" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="G335" s="3" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="H335" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I335" s="5" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="K335" s="3" t="s">
         <v>29</v>
@@ -25942,7 +25965,7 @@
         <v>#NAME?</v>
       </c>
       <c r="T335" s="3" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="U335" s="3" t="e">
         <v>#NAME?</v>
@@ -25961,26 +25984,26 @@
     </row>
     <row r="336" spans="1:24" ht="15.75" customHeight="1">
       <c r="A336" s="3" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>320</v>
       </c>
       <c r="D336" s="1"/>
       <c r="F336" s="3" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="G336" s="3" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="H336" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I336" s="5" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="K336" s="3" t="s">
         <v>29</v>
@@ -26014,10 +26037,10 @@
     </row>
     <row r="337" spans="1:24" ht="15.75" customHeight="1">
       <c r="A337" s="3" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>50</v>
@@ -26032,16 +26055,16 @@
         <v>73</v>
       </c>
       <c r="G337" s="3" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="H337" s="4" t="s">
         <v>96</v>
       </c>
       <c r="I337" s="5" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="J337" s="5" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="K337" s="3" t="n">
         <v>2</v>
@@ -26079,13 +26102,13 @@
     </row>
     <row r="338" spans="1:24" ht="15.75" customHeight="1">
       <c r="A338" s="3" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="D338" s="1" t="e">
         <v>#NAME?</v>
@@ -26100,7 +26123,7 @@
         <v>25</v>
       </c>
       <c r="I338" s="5" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="J338" s="5"/>
       <c r="O338" s="5"/>
@@ -26133,10 +26156,10 @@
     </row>
     <row r="339" spans="1:24" ht="15.75" customHeight="1">
       <c r="A339" s="3" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>320</v>
@@ -26145,7 +26168,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F339" s="3" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="G339" s="3" t="s">
         <v>320</v>
@@ -26154,10 +26177,10 @@
         <v>81</v>
       </c>
       <c r="I339" s="5" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="J339" s="5" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="Q339" s="6" t="n">
         <v>60</v>
@@ -26188,10 +26211,10 @@
     </row>
     <row r="340" spans="1:24" ht="15.75" customHeight="1">
       <c r="A340" s="3" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>44</v>
@@ -26200,16 +26223,16 @@
         <v>67</v>
       </c>
       <c r="F340" s="3" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="G340" s="3" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="H340" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I340" s="5" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="J340" s="5"/>
       <c r="O340" s="5"/>
@@ -26242,13 +26265,13 @@
     </row>
     <row r="341" spans="1:24" ht="85.50" customHeight="1">
       <c r="A341" s="3" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="D341" s="1" t="e">
         <v>#NAME?</v>
@@ -26257,13 +26280,13 @@
         <v>26</v>
       </c>
       <c r="G341" s="3" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="H341" s="7" t="n">
         <v>9</v>
       </c>
       <c r="I341" s="5" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="Q341" s="3" t="n">
         <v>60</v>
@@ -26275,7 +26298,7 @@
         <v>#NAME?</v>
       </c>
       <c r="T341" s="3" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="U341" s="3" t="e">
         <v>#NAME?</v>
@@ -26294,10 +26317,10 @@
     </row>
     <row r="342" spans="1:24" ht="15.75" customHeight="1">
       <c r="A342" s="3" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>32</v>
@@ -26309,13 +26332,13 @@
         <v>26</v>
       </c>
       <c r="G342" s="3" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="H342" s="4" t="s">
         <v>81</v>
       </c>
       <c r="I342" s="5" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="J342" s="5"/>
       <c r="K342" s="6"/>
@@ -26350,13 +26373,13 @@
     </row>
     <row r="343" spans="1:24" ht="15.75" customHeight="1">
       <c r="A343" s="3" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="D343" s="1" t="e">
         <v>#NAME?</v>
@@ -26371,7 +26394,7 @@
         <v>81</v>
       </c>
       <c r="I343" s="5" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="J343" s="5"/>
       <c r="K343" s="6"/>
@@ -26406,10 +26429,10 @@
     </row>
     <row r="344" spans="1:24" ht="15.75" customHeight="1">
       <c r="A344" s="3" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>32</v>
@@ -26424,13 +26447,13 @@
         <v>26</v>
       </c>
       <c r="G344" s="3" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="H344" s="4" t="s">
         <v>81</v>
       </c>
       <c r="I344" s="5" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="J344" s="5"/>
       <c r="K344" s="6" t="n">
@@ -26469,10 +26492,10 @@
     </row>
     <row r="345" spans="1:24" ht="15.75" customHeight="1">
       <c r="A345" s="3" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>32</v>
@@ -26487,7 +26510,7 @@
         <v>81</v>
       </c>
       <c r="I345" s="5" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="J345" s="5"/>
       <c r="K345" s="6"/>
@@ -26522,10 +26545,10 @@
     </row>
     <row r="346" spans="1:24" ht="15.75" customHeight="1">
       <c r="A346" s="3" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>50</v>
@@ -26540,13 +26563,13 @@
         <v>26</v>
       </c>
       <c r="G346" s="3" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H346" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I346" s="5" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="J346" s="5"/>
       <c r="K346" s="6" t="n">
@@ -26585,10 +26608,10 @@
     </row>
     <row r="347" spans="1:24" ht="15.75" customHeight="1">
       <c r="A347" s="3" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>134</v>
@@ -26600,16 +26623,16 @@
         <v>26</v>
       </c>
       <c r="G347" s="3" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="H347" s="4" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="I347" s="5" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="J347" s="5" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="K347" s="3" t="s">
         <v>29</v>
@@ -26646,10 +26669,10 @@
     </row>
     <row r="348" spans="1:24" ht="15.75" customHeight="1">
       <c r="A348" s="3" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>129</v>
@@ -26670,7 +26693,7 @@
         <v>129</v>
       </c>
       <c r="I348" s="5" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="J348" s="5"/>
       <c r="K348" s="6" t="n">
@@ -26708,10 +26731,10 @@
     </row>
     <row r="349" spans="1:24" ht="15.75" customHeight="1">
       <c r="A349" s="3" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>44</v>
@@ -26729,7 +26752,7 @@
         <v>129</v>
       </c>
       <c r="I349" s="5" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="J349" s="5"/>
       <c r="K349" s="3" t="s">
@@ -26767,10 +26790,10 @@
     </row>
     <row r="350" spans="1:24" ht="15.75" customHeight="1">
       <c r="A350" s="3" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>44</v>
@@ -26782,13 +26805,13 @@
         <v>26</v>
       </c>
       <c r="G350" s="3" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="H350" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I350" s="5" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="J350" s="5"/>
       <c r="K350" s="3" t="s">
@@ -26826,10 +26849,10 @@
     </row>
     <row r="351" spans="1:24" ht="15.75" customHeight="1">
       <c r="A351" s="3" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>32</v>
@@ -26841,13 +26864,13 @@
         <v>26</v>
       </c>
       <c r="G351" s="3" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="H351" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I351" s="5" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="J351" s="5"/>
       <c r="O351" s="11"/>
@@ -26880,10 +26903,10 @@
     </row>
     <row r="352" spans="1:24" ht="15.75" customHeight="1">
       <c r="A352" s="3" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>32</v>
@@ -26892,19 +26915,19 @@
         <v>#NAME?</v>
       </c>
       <c r="E352" s="3" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="F352" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G352" s="3" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="H352" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I352" s="5" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="J352" s="5"/>
       <c r="K352" s="3" t="n">
@@ -26943,10 +26966,10 @@
     </row>
     <row r="353" spans="1:24" ht="15.75" customHeight="1">
       <c r="A353" s="3" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>32</v>
@@ -26961,13 +26984,13 @@
         <v>26</v>
       </c>
       <c r="G353" s="3" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="H353" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I353" s="5" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="J353" s="5"/>
       <c r="K353" s="3" t="n">
@@ -27006,10 +27029,10 @@
     </row>
     <row r="354" spans="1:24" ht="15.75" customHeight="1">
       <c r="A354" s="3" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="C354" s="4" t="s">
         <v>50</v>
@@ -27021,13 +27044,13 @@
         <v>26</v>
       </c>
       <c r="G354" s="3" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="H354" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I354" s="5" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="J354" s="5"/>
       <c r="O354" s="11"/>
@@ -27060,10 +27083,10 @@
     </row>
     <row r="355" spans="1:24" ht="15.75" customHeight="1">
       <c r="A355" s="3" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="C355" s="4" t="s">
         <v>44</v>
@@ -27075,13 +27098,13 @@
         <v>26</v>
       </c>
       <c r="G355" s="3" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="H355" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I355" s="5" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="J355" s="5"/>
       <c r="O355" s="5"/>
@@ -27114,10 +27137,10 @@
     </row>
     <row r="356" spans="1:24" ht="15.75" customHeight="1">
       <c r="A356" s="3" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>320</v>
@@ -27126,16 +27149,16 @@
         <v>#NAME?</v>
       </c>
       <c r="F356" s="3" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="G356" s="3" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="H356" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I356" s="5" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="J356" s="5"/>
       <c r="O356" s="11"/>
@@ -27168,10 +27191,10 @@
     </row>
     <row r="357" spans="1:24" ht="15.75" customHeight="1">
       <c r="A357" s="3" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="C357" s="4" t="s">
         <v>44</v>
@@ -27186,7 +27209,7 @@
         <v>129</v>
       </c>
       <c r="I357" s="5" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="J357" s="5"/>
       <c r="O357" s="11"/>
@@ -27219,10 +27242,10 @@
     </row>
     <row r="358" spans="1:24" ht="15.75" customHeight="1">
       <c r="A358" s="3" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>32</v>
@@ -27234,13 +27257,13 @@
         <v>26</v>
       </c>
       <c r="G358" s="3" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="H358" s="4" t="s">
         <v>119</v>
       </c>
       <c r="I358" s="5" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="J358" s="5"/>
       <c r="O358" s="11"/>
@@ -27273,10 +27296,10 @@
     </row>
     <row r="359" spans="1:24" ht="15.75" customHeight="1">
       <c r="A359" s="3" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>32</v>
@@ -27291,7 +27314,7 @@
         <v>119</v>
       </c>
       <c r="I359" s="5" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="J359" s="5"/>
       <c r="O359" s="11"/>
@@ -27324,10 +27347,10 @@
     </row>
     <row r="360" spans="1:24" ht="15.75" customHeight="1">
       <c r="A360" s="3" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>50</v>
@@ -27345,7 +27368,7 @@
         <v>119</v>
       </c>
       <c r="I360" s="5" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="J360" s="5"/>
       <c r="O360" s="11"/>
@@ -27378,13 +27401,13 @@
     </row>
     <row r="361" spans="1:24" ht="15.75" customHeight="1">
       <c r="A361" s="3" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="D361" s="1" t="e">
         <v>#NAME?</v>
@@ -27399,7 +27422,7 @@
         <v>44</v>
       </c>
       <c r="I361" s="5" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="J361" s="5"/>
       <c r="K361" s="3" t="s">
@@ -27409,7 +27432,7 @@
         <v>29</v>
       </c>
       <c r="O361" s="12" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="Q361" s="6" t="n">
         <v>50</v>
@@ -27440,10 +27463,10 @@
     </row>
     <row r="362" spans="1:24" ht="15.75" customHeight="1">
       <c r="A362" s="3" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>25</v>
@@ -27455,13 +27478,13 @@
         <v>33</v>
       </c>
       <c r="G362" s="3" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="H362" s="4" t="s">
         <v>32</v>
       </c>
       <c r="I362" s="5" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="J362" s="5"/>
       <c r="O362" s="11"/>
@@ -27494,10 +27517,10 @@
     </row>
     <row r="363" spans="1:24" ht="15.75" customHeight="1">
       <c r="A363" s="3" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>44</v>
@@ -27512,16 +27535,16 @@
         <v>26</v>
       </c>
       <c r="G363" s="3" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="H363" s="4" t="s">
         <v>50</v>
       </c>
       <c r="I363" s="5" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="J363" s="5" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="K363" s="6" t="n">
         <v>2</v>
@@ -27559,10 +27582,10 @@
     </row>
     <row r="364" spans="1:24" ht="15.75" customHeight="1">
       <c r="A364" s="3" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>50</v>
@@ -27577,7 +27600,7 @@
         <v>50</v>
       </c>
       <c r="I364" s="5" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="J364" s="5"/>
       <c r="K364" s="3" t="s">
@@ -27616,10 +27639,10 @@
     </row>
     <row r="365" spans="1:24" ht="15.75" customHeight="1">
       <c r="A365" s="3" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="C365" s="4" t="s">
         <v>50</v>
@@ -27634,13 +27657,13 @@
         <v>26</v>
       </c>
       <c r="G365" s="3" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="H365" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I365" s="5" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="K365" s="6" t="n">
         <v>1</v>
@@ -27678,10 +27701,10 @@
     </row>
     <row r="366" spans="1:24" ht="15.75" customHeight="1">
       <c r="A366" s="3" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>44</v>
@@ -27693,13 +27716,13 @@
         <v>26</v>
       </c>
       <c r="G366" s="3" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="H366" s="4" t="s">
         <v>50</v>
       </c>
       <c r="I366" s="5" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="J366" s="5"/>
       <c r="O366" s="5"/>
@@ -27732,10 +27755,10 @@
     </row>
     <row r="367" spans="1:24" ht="15.75" customHeight="1">
       <c r="A367" s="3" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>32</v>
@@ -27750,16 +27773,16 @@
         <v>26</v>
       </c>
       <c r="G367" s="3" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="H367" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I367" s="5" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="J367" s="5" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="K367" s="6" t="n">
         <v>4</v>
@@ -27797,10 +27820,10 @@
     </row>
     <row r="368" spans="1:24" ht="15.75" customHeight="1">
       <c r="A368" s="3" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>320</v>
@@ -27809,16 +27832,16 @@
         <v>#NAME?</v>
       </c>
       <c r="F368" s="3" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="G368" s="3" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="H368" s="4" t="s">
         <v>32</v>
       </c>
       <c r="I368" s="5" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="J368" s="5"/>
       <c r="O368" s="5"/>
@@ -27851,10 +27874,10 @@
     </row>
     <row r="369" spans="1:24" ht="15.75" customHeight="1">
       <c r="A369" s="3" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>134</v>
@@ -27869,7 +27892,7 @@
         <v>32</v>
       </c>
       <c r="I369" s="5" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="J369" s="5"/>
       <c r="O369" s="5"/>
@@ -27902,10 +27925,10 @@
     </row>
     <row r="370" spans="1:24" ht="15.75" customHeight="1">
       <c r="A370" s="3" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>50</v>
@@ -27920,7 +27943,7 @@
         <v>32</v>
       </c>
       <c r="I370" s="5" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="J370" s="5"/>
       <c r="O370" s="5"/>
@@ -27953,10 +27976,10 @@
     </row>
     <row r="371" spans="1:24" ht="15.75" customHeight="1">
       <c r="A371" s="3" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>50</v>
@@ -28014,10 +28037,10 @@
     </row>
     <row r="372" spans="1:24" ht="15.75" customHeight="1">
       <c r="A372" s="3" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>25</v>
@@ -28029,13 +28052,13 @@
         <v>26</v>
       </c>
       <c r="G372" s="3" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="H372" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I372" s="5" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="J372" s="5"/>
       <c r="O372" s="5"/>
@@ -28068,10 +28091,10 @@
     </row>
     <row r="373" spans="1:24" ht="15.75" customHeight="1">
       <c r="A373" s="3" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>44</v>
@@ -28089,7 +28112,7 @@
         <v>32</v>
       </c>
       <c r="I373" s="5" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="J373" s="5"/>
       <c r="O373" s="5"/>
@@ -28122,10 +28145,10 @@
     </row>
     <row r="374" spans="1:24" ht="15.75" customHeight="1">
       <c r="A374" s="3" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>44</v>
@@ -28140,7 +28163,7 @@
         <v>134</v>
       </c>
       <c r="I374" s="5" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="J374" s="5"/>
       <c r="O374" s="5"/>
@@ -28173,10 +28196,10 @@
     </row>
     <row r="375" spans="1:24" ht="15.75" customHeight="1">
       <c r="A375" s="3" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>44</v>
@@ -28191,7 +28214,7 @@
         <v>26</v>
       </c>
       <c r="G375" s="3" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="H375" s="4" t="s">
         <v>25</v>
@@ -28238,10 +28261,10 @@
     </row>
     <row r="376" spans="1:24" ht="15.75" customHeight="1">
       <c r="A376" s="3" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>44</v>
@@ -28259,7 +28282,7 @@
         <v>25</v>
       </c>
       <c r="I376" s="5" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="J376" s="5"/>
       <c r="O376" s="5"/>
@@ -28292,10 +28315,10 @@
     </row>
     <row r="377" spans="1:24" ht="15.75" customHeight="1">
       <c r="A377" s="3" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>236</v>
@@ -28310,7 +28333,7 @@
         <v>81</v>
       </c>
       <c r="I377" s="5" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="J377" s="5"/>
       <c r="K377" s="14" t="s">
@@ -28346,10 +28369,10 @@
     </row>
     <row r="378" spans="1:24" ht="15.75" customHeight="1">
       <c r="A378" s="3" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>182</v>
@@ -28361,13 +28384,13 @@
         <v>26</v>
       </c>
       <c r="G378" s="3" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="H378" s="4" t="s">
         <v>96</v>
       </c>
       <c r="I378" s="5" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="J378" s="5"/>
       <c r="O378" s="5"/>
@@ -28400,10 +28423,10 @@
     </row>
     <row r="379" spans="1:24" ht="15.75" customHeight="1">
       <c r="A379" s="3" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>86</v>
@@ -28418,7 +28441,7 @@
         <v>129</v>
       </c>
       <c r="I379" s="5" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="J379" s="5"/>
       <c r="O379" s="5"/>
@@ -28451,28 +28474,28 @@
     </row>
     <row r="380" spans="1:24" ht="15.75" customHeight="1">
       <c r="A380" s="3" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>123</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="F380" s="3" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="G380" s="3" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="H380" s="4" t="s">
         <v>50</v>
       </c>
       <c r="I380" s="5" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="J380" s="5"/>
       <c r="O380" s="5"/>
@@ -28505,13 +28528,13 @@
     </row>
     <row r="381" spans="1:24" ht="15.75" customHeight="1">
       <c r="A381" s="3" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D381" s="1" t="e">
         <v>#NAME?</v>
@@ -28523,16 +28546,16 @@
         <v>26</v>
       </c>
       <c r="G381" s="3" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="H381" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I381" s="5" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="J381" s="5" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="K381" s="3" t="n">
         <v>3</v>
@@ -28570,13 +28593,13 @@
     </row>
     <row r="382" spans="1:24" ht="15.75" customHeight="1">
       <c r="A382" s="3" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="D382" s="1" t="e">
         <v>#NAME?</v>
@@ -28585,16 +28608,16 @@
         <v>33</v>
       </c>
       <c r="G382" s="3" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="H382" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I382" s="5" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="J382" s="5" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="O382" s="5"/>
       <c r="Q382" s="3" t="n">
@@ -28626,13 +28649,13 @@
     </row>
     <row r="383" spans="1:24" ht="15.75" customHeight="1">
       <c r="A383" s="3" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D383" s="1" t="e">
         <v>#NAME?</v>
@@ -28647,7 +28670,7 @@
         <v>129</v>
       </c>
       <c r="I383" s="5" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="J383" s="5"/>
       <c r="O383" s="5"/>
@@ -28680,13 +28703,13 @@
     </row>
     <row r="384" spans="1:24" ht="15.75" customHeight="1">
       <c r="A384" s="3" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D384" s="1" t="e">
         <v>#NAME?</v>
@@ -28695,13 +28718,13 @@
         <v>26</v>
       </c>
       <c r="G384" s="3" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="H384" s="4" t="s">
         <v>96</v>
       </c>
       <c r="I384" s="5" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="J384" s="5"/>
       <c r="O384" s="5"/>
@@ -28734,10 +28757,10 @@
     </row>
     <row r="385" spans="1:24" ht="15.75" customHeight="1">
       <c r="A385" s="3" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>56</v>
@@ -28749,13 +28772,13 @@
         <v>33</v>
       </c>
       <c r="G385" s="3" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="H385" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I385" s="5" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="J385" s="5"/>
       <c r="O385" s="5"/>
@@ -28788,13 +28811,13 @@
     </row>
     <row r="386" spans="1:24" ht="15.75" customHeight="1">
       <c r="A386" s="3" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="D386" s="1" t="e">
         <v>#NAME?</v>
@@ -28809,7 +28832,7 @@
         <v>96</v>
       </c>
       <c r="I386" s="5" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="J386" s="5"/>
       <c r="O386" s="5"/>
@@ -28842,10 +28865,10 @@
     </row>
     <row r="387" spans="1:24" ht="15.75" customHeight="1">
       <c r="A387" s="3" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>61</v>
@@ -28857,13 +28880,13 @@
         <v>26</v>
       </c>
       <c r="G387" s="3" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="H387" s="4" t="s">
         <v>96</v>
       </c>
       <c r="I387" s="5" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="J387" s="5"/>
       <c r="O387" s="5"/>
@@ -28990,7 +29013,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1693686687" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1699824827" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -28999,15 +29022,15 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1693686687" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1693686687" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1699824827" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1699824827" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1693686687" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1699824827" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -29032,7 +29055,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1693686687" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1699824827" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -29041,14 +29064,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1693686687" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1693686687" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1699824827" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1699824827" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1693686687" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1699824827" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/CardDatabases/Rising Tensions.xlsx
+++ b/CardDatabases/Rising Tensions.xlsx
@@ -14,10 +14,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1715491251" val="1068" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1715491251" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1715491251" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1715491251"/>
+      <pm:revision xmlns:pm="smNativeData" day="1715568702" val="1068" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1715568702" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1715568702" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1715568702"/>
     </ext>
   </extLst>
 </workbook>
@@ -710,7 +710,7 @@
     <t>&lt;center&gt;(Becomes &lt;i&gt;'Lina's Tinkering'&lt;/i&gt; if you already control ~.)&lt;br/&gt;&lt;u&gt;Warrant&lt;/u&gt; (When ~@ enters the battlefield, shuffle an 'Incarceration' into your deck.)&lt;/center&gt;&lt;p&gt;Whenever you gain control of an asset an opponent controls, shuffle a &lt;i&gt;Prototype Tractor Beam'&lt;/i&gt; into your deck.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>"Every member of Lux's crew was beaten down by society in some way.. Like Tesla I am a man too brilliant for my time."</t>
+    <t>"Every member of Lux's crew was beaten down by society in some way.. Like Tesla I am a woman too brilliant for my time."</t>
   </si>
   <si>
     <t>RR_001b</t>
@@ -3947,6 +3947,9 @@
     <t>Plan</t>
   </si>
   <si>
+    <t>P</t>
+  </si>
+  <si>
     <t>Look at the top 3 cards of your deck, draw 1 of them, then put the rest back on top in any order.&lt;p&gt;You may pay an additional [2][P] as you deploy ~, if you do choose an asset; return it to its owner's hand, then it loses all &lt;u&gt;stat modifications&lt;/u&gt; (Added/changed words, attack power, health, or ranged status.)&lt;/p&gt;</t>
   </si>
   <si>
@@ -3996,9 +3999,6 @@
   </si>
   <si>
     <t>Interrogate</t>
-  </si>
-  <si>
-    <t>P</t>
   </si>
   <si>
     <t>~ costs [P] less to deploy if you didn't go first.&lt;p&gt;Choose a player; they reveal a non-revealed card in their hand. If they can't, you draw a card.&lt;/p&gt;</t>
@@ -5041,7 +5041,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715491251" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1715568702" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -5056,7 +5056,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715491251" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1715568702" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -5071,7 +5071,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715491251" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1715568702" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -5086,7 +5086,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715491251" fgClr="F7981D" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1715568702" fgClr="F7981D" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -5101,7 +5101,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715491251" fgClr="222222" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1715568702" fgClr="222222" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -5117,7 +5117,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715491251" fgClr="1155CC" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1715568702" fgClr="1155CC" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -5133,7 +5133,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715491251" fgClr="1155CC" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1715568702" fgClr="1155CC" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -5156,7 +5156,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715491251" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715568702" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -5167,7 +5167,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715491251" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715568702" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -5189,7 +5189,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715491251"/>
+          <pm:border xmlns:pm="smNativeData" id="1715568702"/>
         </ext>
       </extLst>
     </border>
@@ -5208,7 +5208,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715491251"/>
+          <pm:border xmlns:pm="smNativeData" id="1715568702"/>
         </ext>
       </extLst>
     </border>
@@ -5227,7 +5227,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715491251"/>
+          <pm:border xmlns:pm="smNativeData" id="1715568702"/>
         </ext>
       </extLst>
     </border>
@@ -5272,10 +5272,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1715491251" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1715568702" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1715491251" count="3">
+      <pm:colors xmlns:pm="smNativeData" id="1715568702" count="3">
         <pm:color name="Color 24" rgb="F7981D"/>
         <pm:color name="Color 25" rgb="222222"/>
         <pm:color name="Color 26" rgb="1155CC"/>
@@ -5547,8 +5547,8 @@
   <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I193" sqref="I193"/>
+      <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C292" sqref="C292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="11" defaultColWidth="12.630631" defaultRowHeight="13.45"/>
@@ -23369,7 +23369,7 @@
       <c r="Y275" s="1"/>
       <c r="Z275" s="1"/>
     </row>
-    <row r="276" spans="1:26" collapsed="1">
+    <row r="276" spans="1:26">
       <c r="A276" s="1" t="s">
         <v>1109</v>
       </c>
@@ -23422,7 +23422,7 @@
       <c r="Y276" s="1"/>
       <c r="Z276" s="1"/>
     </row>
-    <row r="277" spans="1:26" hidden="1" outlineLevel="1">
+    <row r="277" spans="1:26" outlineLevel="1">
       <c r="A277" s="7" t="s">
         <v>1110</v>
       </c>
@@ -23485,13 +23485,8 @@
       </c>
       <c r="Y277" s="1"/>
       <c r="Z277" s="1"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1715491251" r="277" hidden="0" collapsedDB="0" collapsedOL="1"/>
-        </ext>
-      </extLst>
-    </row>
-    <row r="278" spans="1:26" hidden="1" outlineLevel="1">
+    </row>
+    <row r="278" spans="1:26" outlineLevel="1">
       <c r="A278" s="1" t="s">
         <v>1116</v>
       </c>
@@ -23552,13 +23547,8 @@
       </c>
       <c r="Y278" s="1"/>
       <c r="Z278" s="1"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1715491251" r="278" hidden="0" collapsedDB="0" collapsedOL="1"/>
-        </ext>
-      </extLst>
-    </row>
-    <row r="279" spans="1:26" hidden="1" outlineLevel="1">
+    </row>
+    <row r="279" spans="1:26" outlineLevel="1">
       <c r="A279" s="1" t="s">
         <v>1120</v>
       </c>
@@ -23619,13 +23609,8 @@
       </c>
       <c r="Y279" s="1"/>
       <c r="Z279" s="1"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1715491251" r="279" hidden="0" collapsedDB="0" collapsedOL="1"/>
-        </ext>
-      </extLst>
-    </row>
-    <row r="280" spans="1:26" hidden="1" outlineLevel="1">
+    </row>
+    <row r="280" spans="1:26" outlineLevel="1">
       <c r="A280" s="1" t="s">
         <v>1124</v>
       </c>
@@ -23688,13 +23673,8 @@
       </c>
       <c r="Y280" s="1"/>
       <c r="Z280" s="1"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1715491251" r="280" hidden="0" collapsedDB="0" collapsedOL="1"/>
-        </ext>
-      </extLst>
-    </row>
-    <row r="281" spans="1:26" hidden="1" outlineLevel="1">
+    </row>
+    <row r="281" spans="1:26" outlineLevel="1">
       <c r="A281" s="1" t="s">
         <v>1130</v>
       </c>
@@ -23755,13 +23735,8 @@
       </c>
       <c r="Y281" s="1"/>
       <c r="Z281" s="1"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1715491251" r="281" hidden="0" collapsedDB="0" collapsedOL="1"/>
-        </ext>
-      </extLst>
-    </row>
-    <row r="282" spans="1:26" hidden="1" outlineLevel="1">
+    </row>
+    <row r="282" spans="1:26" outlineLevel="1">
       <c r="A282" s="1" t="s">
         <v>1135</v>
       </c>
@@ -23820,13 +23795,8 @@
       </c>
       <c r="Y282" s="1"/>
       <c r="Z282" s="1"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1715491251" r="282" hidden="0" collapsedDB="0" collapsedOL="1"/>
-        </ext>
-      </extLst>
-    </row>
-    <row r="283" spans="1:26" hidden="1" outlineLevel="1">
+    </row>
+    <row r="283" spans="1:26" outlineLevel="1">
       <c r="A283" s="1" t="s">
         <v>1139</v>
       </c>
@@ -23891,13 +23861,8 @@
       </c>
       <c r="Y283" s="1"/>
       <c r="Z283" s="1"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1715491251" r="283" hidden="0" collapsedDB="0" collapsedOL="1"/>
-        </ext>
-      </extLst>
-    </row>
-    <row r="284" spans="1:26" hidden="1" outlineLevel="1">
+    </row>
+    <row r="284" spans="1:26" outlineLevel="1">
       <c r="A284" s="1" t="s">
         <v>1143</v>
       </c>
@@ -23958,13 +23923,8 @@
       </c>
       <c r="Y284" s="1"/>
       <c r="Z284" s="1"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1715491251" r="284" hidden="0" collapsedDB="0" collapsedOL="1"/>
-        </ext>
-      </extLst>
-    </row>
-    <row r="285" spans="1:26" hidden="1" outlineLevel="1">
+    </row>
+    <row r="285" spans="1:26" outlineLevel="1">
       <c r="A285" s="1" t="s">
         <v>1147</v>
       </c>
@@ -24025,13 +23985,8 @@
       </c>
       <c r="Y285" s="1"/>
       <c r="Z285" s="1"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1715491251" r="285" hidden="0" collapsedDB="0" collapsedOL="1"/>
-        </ext>
-      </extLst>
-    </row>
-    <row r="286" spans="1:26" hidden="1" outlineLevel="1">
+    </row>
+    <row r="286" spans="1:26" outlineLevel="1">
       <c r="A286" s="1" t="s">
         <v>1151</v>
       </c>
@@ -24098,13 +24053,8 @@
       </c>
       <c r="Y286" s="1"/>
       <c r="Z286" s="1"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1715491251" r="286" hidden="0" collapsedDB="0" collapsedOL="1"/>
-        </ext>
-      </extLst>
-    </row>
-    <row r="287" spans="1:26" hidden="1" outlineLevel="1">
+    </row>
+    <row r="287" spans="1:26" outlineLevel="1">
       <c r="A287" s="1" t="s">
         <v>1155</v>
       </c>
@@ -24163,13 +24113,8 @@
       </c>
       <c r="Y287" s="1"/>
       <c r="Z287" s="1"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1715491251" r="287" hidden="0" collapsedDB="0" collapsedOL="1"/>
-        </ext>
-      </extLst>
-    </row>
-    <row r="288" spans="1:26" hidden="1" outlineLevel="1">
+    </row>
+    <row r="288" spans="1:26" outlineLevel="1">
       <c r="A288" s="1" t="s">
         <v>1159</v>
       </c>
@@ -24232,13 +24177,8 @@
       </c>
       <c r="Y288" s="1"/>
       <c r="Z288" s="1"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1715491251" r="288" hidden="0" collapsedDB="0" collapsedOL="1"/>
-        </ext>
-      </extLst>
-    </row>
-    <row r="289" spans="1:26" hidden="1" outlineLevel="1">
+    </row>
+    <row r="289" spans="1:26" outlineLevel="1">
       <c r="A289" s="1" t="s">
         <v>1163</v>
       </c>
@@ -24299,13 +24239,8 @@
       </c>
       <c r="Y289" s="1"/>
       <c r="Z289" s="1"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1715491251" r="289" hidden="0" collapsedDB="0" collapsedOL="1"/>
-        </ext>
-      </extLst>
-    </row>
-    <row r="290" spans="1:26" hidden="1" outlineLevel="1">
+    </row>
+    <row r="290" spans="1:26" outlineLevel="1">
       <c r="A290" s="1" t="s">
         <v>1166</v>
       </c>
@@ -24374,13 +24309,8 @@
       </c>
       <c r="Y290" s="1"/>
       <c r="Z290" s="1"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1715491251" r="290" hidden="0" collapsedDB="0" collapsedOL="1"/>
-        </ext>
-      </extLst>
-    </row>
-    <row r="291" spans="1:26" hidden="1" outlineLevel="1">
+    </row>
+    <row r="291" spans="1:26" outlineLevel="1">
       <c r="A291" s="1" t="s">
         <v>1171</v>
       </c>
@@ -24388,7 +24318,7 @@
         <v>1172</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>1145</v>
+        <v>1173</v>
       </c>
       <c r="D291" s="5" t="e">
         <v>#NAME?</v>
@@ -24404,7 +24334,7 @@
         <v>127</v>
       </c>
       <c r="I291" s="3" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="J291" s="1"/>
       <c r="K291" s="1" t="s">
@@ -24445,21 +24375,16 @@
       </c>
       <c r="Y291" s="1"/>
       <c r="Z291" s="1"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1715491251" r="291" hidden="0" collapsedDB="0" collapsedOL="1"/>
-        </ext>
-      </extLst>
-    </row>
-    <row r="292" spans="1:26" hidden="1" outlineLevel="1">
+    </row>
+    <row r="292" spans="1:26" outlineLevel="1">
       <c r="A292" s="1" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="D292" s="5" t="e">
         <v>#NAME?</v>
@@ -24471,7 +24396,7 @@
         <v>25</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="H292" s="2" t="s">
         <v>174</v>
@@ -24516,21 +24441,16 @@
       </c>
       <c r="Y292" s="1"/>
       <c r="Z292" s="1"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1715491251" r="292" hidden="0" collapsedDB="0" collapsedOL="1"/>
-        </ext>
-      </extLst>
-    </row>
-    <row r="293" spans="1:26" hidden="1" outlineLevel="1">
+    </row>
+    <row r="293" spans="1:26" outlineLevel="1">
       <c r="A293" s="1" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="D293" s="5" t="e">
         <v>#NAME?</v>
@@ -24540,16 +24460,16 @@
         <v>32</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="H293" s="2" t="s">
         <v>155</v>
       </c>
       <c r="I293" s="3" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="J293" s="3" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="K293" s="1"/>
       <c r="L293" s="1"/>
@@ -24585,18 +24505,13 @@
       </c>
       <c r="Y293" s="1"/>
       <c r="Z293" s="1"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1715491251" r="293" hidden="0" collapsedDB="0" collapsedOL="1"/>
-        </ext>
-      </extLst>
-    </row>
-    <row r="294" spans="1:26" hidden="1" outlineLevel="1">
+    </row>
+    <row r="294" spans="1:26" outlineLevel="1">
       <c r="A294" s="1" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="C294" s="4" t="s">
         <v>1153</v>
@@ -24609,13 +24524,13 @@
         <v>25</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="H294" s="2" t="s">
         <v>155</v>
       </c>
       <c r="I294" s="3" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="J294" s="3"/>
       <c r="K294" s="1"/>
@@ -24652,21 +24567,16 @@
       </c>
       <c r="Y294" s="1"/>
       <c r="Z294" s="1"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1715491251" r="294" hidden="0" collapsedDB="0" collapsedOL="1"/>
-        </ext>
-      </extLst>
-    </row>
-    <row r="295" spans="1:26" hidden="1" outlineLevel="1">
+    </row>
+    <row r="295" spans="1:26" outlineLevel="1">
       <c r="A295" s="1" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>1190</v>
+        <v>1173</v>
       </c>
       <c r="D295" s="5" t="e">
         <v>#NAME?</v>
@@ -24719,13 +24629,8 @@
       </c>
       <c r="Y295" s="1"/>
       <c r="Z295" s="1"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1715491251" r="295" hidden="0" collapsedDB="0" collapsedOL="1"/>
-        </ext>
-      </extLst>
-    </row>
-    <row r="296" spans="1:26" hidden="1" outlineLevel="1">
+    </row>
+    <row r="296" spans="1:26" outlineLevel="1">
       <c r="A296" s="1" t="s">
         <v>1193</v>
       </c>
@@ -24733,7 +24638,7 @@
         <v>1194</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>1190</v>
+        <v>1173</v>
       </c>
       <c r="D296" s="5" t="e">
         <v>#NAME?</v>
@@ -24743,7 +24648,7 @@
         <v>32</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="H296" s="2" t="s">
         <v>174</v>
@@ -24788,13 +24693,8 @@
       </c>
       <c r="Y296" s="1"/>
       <c r="Z296" s="1"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1715491251" r="296" hidden="0" collapsedDB="0" collapsedOL="1"/>
-        </ext>
-      </extLst>
-    </row>
-    <row r="297" spans="1:26" hidden="1" outlineLevel="1">
+    </row>
+    <row r="297" spans="1:26" outlineLevel="1">
       <c r="A297" s="1" t="s">
         <v>1197</v>
       </c>
@@ -24802,7 +24702,7 @@
         <v>1198</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="D297" s="5" t="e">
         <v>#NAME?</v>
@@ -24857,13 +24757,8 @@
       </c>
       <c r="Y297" s="1"/>
       <c r="Z297" s="1"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1715491251" r="297" hidden="0" collapsedDB="0" collapsedOL="1"/>
-        </ext>
-      </extLst>
-    </row>
-    <row r="298" spans="1:26" hidden="1" outlineLevel="1">
+    </row>
+    <row r="298" spans="1:26" outlineLevel="1">
       <c r="A298" s="1" t="s">
         <v>1201</v>
       </c>
@@ -24871,7 +24766,7 @@
         <v>1202</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="D298" s="5" t="e">
         <v>#NAME?</v>
@@ -24930,13 +24825,8 @@
       </c>
       <c r="Y298" s="1"/>
       <c r="Z298" s="1"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1715491251" r="298" hidden="0" collapsedDB="0" collapsedOL="1"/>
-        </ext>
-      </extLst>
-    </row>
-    <row r="299" spans="1:26" hidden="1" outlineLevel="1">
+    </row>
+    <row r="299" spans="1:26" outlineLevel="1">
       <c r="A299" s="1" t="s">
         <v>1204</v>
       </c>
@@ -24944,7 +24834,7 @@
         <v>1205</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>1190</v>
+        <v>1173</v>
       </c>
       <c r="D299" s="5" t="e">
         <v>#NAME?</v>
@@ -25003,13 +24893,8 @@
       </c>
       <c r="Y299" s="1"/>
       <c r="Z299" s="1"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1715491251" r="299" hidden="0" collapsedDB="0" collapsedOL="1"/>
-        </ext>
-      </extLst>
-    </row>
-    <row r="300" spans="1:26" hidden="1" outlineLevel="1">
+    </row>
+    <row r="300" spans="1:26" outlineLevel="1">
       <c r="A300" s="1" t="s">
         <v>1208</v>
       </c>
@@ -25017,7 +24902,7 @@
         <v>1209</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="D300" s="5" t="e">
         <v>#NAME?</v>
@@ -25070,13 +24955,8 @@
       </c>
       <c r="Y300" s="1"/>
       <c r="Z300" s="1"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1715491251" r="300" hidden="0" collapsedDB="0" collapsedOL="1"/>
-        </ext>
-      </extLst>
-    </row>
-    <row r="301" spans="1:26" hidden="1" outlineLevel="1">
+    </row>
+    <row r="301" spans="1:26" outlineLevel="1">
       <c r="A301" s="1" t="s">
         <v>1211</v>
       </c>
@@ -25143,13 +25023,8 @@
       </c>
       <c r="Y301" s="1"/>
       <c r="Z301" s="1"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1715491251" r="301" hidden="0" collapsedDB="0" collapsedOL="1"/>
-        </ext>
-      </extLst>
-    </row>
-    <row r="302" spans="1:26" hidden="1" outlineLevel="1">
+    </row>
+    <row r="302" spans="1:26" outlineLevel="1">
       <c r="A302" s="1" t="s">
         <v>1215</v>
       </c>
@@ -25210,11 +25085,6 @@
       </c>
       <c r="Y302" s="1"/>
       <c r="Z302" s="1"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1715491251" r="302" hidden="0" collapsedDB="0" collapsedOL="1"/>
-        </ext>
-      </extLst>
     </row>
     <row r="303" spans="1:26">
       <c r="A303" s="1" t="s">
@@ -25224,7 +25094,7 @@
         <v>1219</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="D303" s="5" t="e">
         <v>#NAME?</v>
@@ -25544,7 +25414,7 @@
         <v>1242</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="D308" s="5" t="e">
         <v>#NAME?</v>
@@ -25674,7 +25544,7 @@
         <v>1249</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="D310" s="5" t="e">
         <v>#NAME?</v>
@@ -25684,7 +25554,7 @@
         <v>32</v>
       </c>
       <c r="G310" s="1" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="H310" s="2" t="s">
         <v>127</v>
@@ -25808,7 +25678,7 @@
         <v>1258</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="D312" s="5" t="e">
         <v>#NAME?</v>
@@ -25868,7 +25738,7 @@
         <v>1262</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>1190</v>
+        <v>1173</v>
       </c>
       <c r="D313" s="5" t="e">
         <v>#NAME?</v>
@@ -25998,7 +25868,7 @@
         <v>1270</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="D315" s="5" t="e">
         <v>#NAME?</v>
@@ -26292,7 +26162,7 @@
         <v>1283</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>1190</v>
+        <v>1173</v>
       </c>
       <c r="D320" s="5" t="e">
         <v>#NAME?</v>
@@ -26488,7 +26358,7 @@
         <v>1295</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>1190</v>
+        <v>1173</v>
       </c>
       <c r="D323" s="5" t="e">
         <v>#NAME?</v>
@@ -26620,7 +26490,7 @@
         <v>1303</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="D325" s="5" t="e">
         <v>#NAME?</v>
@@ -26682,7 +26552,7 @@
         <v>1306</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>1190</v>
+        <v>1173</v>
       </c>
       <c r="D326" s="5" t="e">
         <v>#NAME?</v>
@@ -26750,7 +26620,7 @@
         <v>1310</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>1190</v>
+        <v>1173</v>
       </c>
       <c r="D327" s="5" t="e">
         <v>#NAME?</v>
@@ -29998,7 +29868,7 @@
         <v>32</v>
       </c>
       <c r="G378" s="1" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="H378" s="2" t="s">
         <v>132</v>
@@ -47932,7 +47802,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1715491251" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1715568702" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -47941,15 +47811,15 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1715491251" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1715491251" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1715568702" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1715568702" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715491251" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715568702" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -48975,7 +48845,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1715491251" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1715568702" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -48984,14 +48854,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1715491251" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1715491251" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1715568702" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1715568702" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715491251" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715568702" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/CardDatabases/Rising Tensions.xlsx
+++ b/CardDatabases/Rising Tensions.xlsx
@@ -14,10 +14,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1715568702" val="1068" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1715568702" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1715568702" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1715568702"/>
+      <pm:revision xmlns:pm="smNativeData" day="1716151689" val="1068" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1716151689" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1716151689" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1716151689"/>
     </ext>
   </extLst>
 </workbook>
@@ -426,7 +426,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="1530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="1533">
   <si>
     <t>Slot</t>
   </si>
@@ -530,7 +530,7 @@
     <t>&lt;u&gt;Transient&lt;/u&gt; Tragedy</t>
   </si>
   <si>
-    <t>&lt;center&gt;&lt;u&gt;Transient&lt;/u&gt; (If ~ would enter your discard pile, instead remove it from the game.)&lt;/center&gt;&lt;p&gt;When you draw ~: Reveal it and your commander loses 1 loyalty.&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;Each commander loses 1 loyalty.&lt;/p&gt;</t>
+    <t>&lt;center&gt;&lt;u&gt;Transient&lt;/u&gt; (If ~ would enter your discard pile, instead remove it from the game.)&lt;/center&gt;&lt;p&gt;When you draw ~: Reveal it and your commander loses 1 morale.&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;Each commander loses 1 morale.&lt;/p&gt;</t>
   </si>
   <si>
     <t>"A great leader is able to assuage the doubts of their critics."</t>
@@ -644,7 +644,7 @@
     <t>Virtual</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;b&gt;&lt;i&gt;As Commander&lt;/i&gt; --&lt;/b&gt; [5], ~ loses 2 loyalty: Draw a card.&lt;/p&gt;&lt;p&gt;(~ can only be included in a deck as its commander.)&lt;/p&gt;</t>
+    <t>&lt;p&gt;&lt;b&gt;&lt;i&gt;As Commander&lt;/i&gt; --&lt;/b&gt; [5], ~ loses 2 morale: Draw a card.&lt;/p&gt;&lt;p&gt;(~ can only be included in a deck as its commander.)&lt;/p&gt;</t>
   </si>
   <si>
     <t>R_CMDR_1</t>
@@ -953,7 +953,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>&lt;center&gt;&lt;u&gt;Subterfuge&lt;/u&gt; (Damage dealt by this card, doesn't cause players to draw cards.)&lt;/center&gt;&lt;p&gt;Whenever a pirate comes under an opponent's control, your commander loses 1 loyalty.&lt;/p&gt;</t>
+    <t>&lt;center&gt;&lt;u&gt;Subterfuge&lt;/u&gt; (Damage dealt by this card, doesn't cause players to draw cards.)&lt;/center&gt;&lt;p&gt;Whenever a pirate comes under an opponent's control, your commander loses 1 morale.&lt;/p&gt;</t>
   </si>
   <si>
     <t>RC_007</t>
@@ -977,7 +977,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>&lt;center&gt;&lt;u&gt;Brainwash&lt;/u&gt; (Damage dealt by ~ is gained as loyalty.)&lt;/center&gt;</t>
+    <t>&lt;center&gt;&lt;u&gt;Brainwash&lt;/u&gt; (Damage dealt by ~ is gained as morale.)&lt;/center&gt;</t>
   </si>
   <si>
     <t>RC_009</t>
@@ -1016,7 +1016,7 @@
     <t>Augmented Female Civilian Scientist</t>
   </si>
   <si>
-    <t>&lt;center&gt;(Becomes &lt;i&gt;'Frantic Research'&lt;/i&gt; if you already control Bing.)&lt;/center&gt;&lt;p&gt;&lt;b&gt;&lt;i&gt;As Commander&lt;/i&gt; --&lt;/b&gt; At the beginning of your turn, if you have no cards in hand, draw upto two additional card, then ~@ loses that much loyalty.&lt;/p&gt;&lt;p&gt;&lt;b&gt;&lt;i&gt;As Asset&lt;/i&gt; --&lt;/b&gt; &lt;u&gt;Forfeit X&lt;/u&gt; (X is the generalized cost of the card to be returned.) assets you control which share a type with an asset of your choice in your discard pile: Return that asset from your discard pile to the battlefield, it becomes an Augmented Mutant.&lt;/p&gt;</t>
+    <t>&lt;center&gt;(Becomes &lt;i&gt;'Frantic Research'&lt;/i&gt; if you already control Bing.)&lt;/center&gt;&lt;p&gt;&lt;b&gt;&lt;i&gt;As Commander&lt;/i&gt; --&lt;/b&gt; At the beginning of your turn, if you have no cards in hand, draw upto two additional card, then ~@ loses that much morale.&lt;/p&gt;&lt;p&gt;&lt;b&gt;&lt;i&gt;As Asset&lt;/i&gt; --&lt;/b&gt; &lt;u&gt;Forfeit X&lt;/u&gt; (X is the generalized cost of the card to be returned.) assets you control which share a type with an asset of your choice in your discard pile: Return that asset from your discard pile to the battlefield, it becomes an Augmented Mutant.&lt;/p&gt;</t>
   </si>
   <si>
     <t>"Anything can be put back together! Anything!"</t>
@@ -1043,7 +1043,7 @@
     <t>Mutant Subject</t>
   </si>
   <si>
-    <t>&lt;center&gt;(If you obtain another card with the same name as ~, you must choose one to keep and another to send to its owner's discard pile. Becomes &lt;i&gt;'Rampager's Fury'&lt;/i&gt; if you already control ~.)&lt;br/&gt;&lt;u&gt;Permanence&lt;/u&gt;&lt;/center&gt;&lt;p&gt;Whenever ~ attacks it deals 1 damage to each other asset that attacked this turn, then choose a commander to lose &lt;u&gt;X&lt;/u&gt; (X is the damage dealt this way) loyalty.&lt;/p&gt;</t>
+    <t>&lt;center&gt;(If you obtain another card with the same name as ~, you must choose one to keep and another to send to its owner's discard pile. Becomes &lt;i&gt;'Rampager's Fury'&lt;/i&gt; if you already control ~.)&lt;br/&gt;&lt;u&gt;Permanence&lt;/u&gt;&lt;/center&gt;&lt;p&gt;Whenever ~ attacks it deals 1 damage to each other asset that attacked this turn, then choose a commander to lose &lt;u&gt;X&lt;/u&gt; (X is the damage dealt this way) morale.&lt;/p&gt;</t>
   </si>
   <si>
     <t>RR_005b</t>
@@ -1100,7 +1100,7 @@
     <t>Infect the Strong</t>
   </si>
   <si>
-    <t>&lt;p&gt;Each individual combatant permanently gets &lt;u&gt;-X/-X&lt;/u&gt; (X is its attack power.)&lt;/p&gt;&lt;p&gt;Each opponent &lt;u&gt;decays 4&lt;/u&gt; (The specified players put the top 4 cards of their deck into their discard pile.)&lt;/p&gt;&lt;p&gt;Your commander loses 3 loyalty.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Each individual combatant permanently gets &lt;u&gt;-X/-X&lt;/u&gt; (X is its attack power.)&lt;/p&gt;&lt;p&gt;Each opponent &lt;u&gt;decays 4&lt;/u&gt; (The specified players put the top 4 cards of their deck into their discard pile.)&lt;/p&gt;&lt;p&gt;Your commander loses 3 morale.&lt;/p&gt;</t>
   </si>
   <si>
     <t>RU_010</t>
@@ -1112,7 +1112,7 @@
     <t>Experiment</t>
   </si>
   <si>
-    <t>&lt;p&gt;Choose a combatant; it permanently gets -3/-3.&lt;/p&gt;&lt;p&gt;Your commander gains 3 loyalty.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Choose a combatant; it permanently gets -3/-3.&lt;/p&gt;&lt;p&gt;Your commander gains 3 morale.&lt;/p&gt;</t>
   </si>
   <si>
     <t>RU_011</t>
@@ -1124,7 +1124,7 @@
     <t>Bioweapon</t>
   </si>
   <si>
-    <t>&lt;center&gt;&lt;u&gt;Warrant&lt;/u&gt; (When you deploy ~, shuffle an 'Incarceration' into your deck.)&lt;/center&gt;&lt;p&gt;&lt;u&gt;Forfeit&lt;/u&gt; (Put the specified card into its owner's discard pile.) ~, [1] or [2]: Choose [1] or [2]:&lt;ul&gt;Each player's commander loses 3 loyalty.&lt;br/&gt;Each player discards a card in their hand.&lt;br/&gt;Each player &lt;u&gt;forfeits&lt;/u&gt; a generator they control.&lt;br/&gt;Each player &lt;u&gt;forfeits&lt;/u&gt; an asset they control.&lt;/ul&gt;&lt;/p&gt;</t>
+    <t>&lt;center&gt;&lt;u&gt;Warrant&lt;/u&gt; (When you deploy ~, shuffle an 'Incarceration' into your deck.)&lt;/center&gt;&lt;p&gt;&lt;u&gt;Forfeit&lt;/u&gt; (Put the specified card into its owner's discard pile.) ~, [1] or [2]: Choose [1] or [2]:&lt;ul&gt;Each player's commander loses 3 morale.&lt;br/&gt;Each player discards a card in their hand.&lt;br/&gt;Each player &lt;u&gt;forfeits&lt;/u&gt; a generator they control.&lt;br/&gt;Each player &lt;u&gt;forfeits&lt;/u&gt; an asset they control.&lt;/ul&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>RU_012</t>
@@ -1178,7 +1178,7 @@
     <t>Human Civilian Intern</t>
   </si>
   <si>
-    <t>&lt;center&gt;&lt;u&gt;Armed -- 'CCW'&lt;/u&gt; (~ enters the battlefield with a transient &lt;i&gt;'CCW'&lt;/i&gt; attached to it.),&lt;u&gt;Permanence&lt;/u&gt; (Damage ~ deals permanently reduces the health of the assets which it damages.), &lt;u&gt;Quick Hire&lt;/u&gt; (When ~ is hired as a generator, it can be utilized as soon as it is hired.)&lt;/center&gt;&lt;p&gt;[T]: Add [R].&lt;/p&gt;&lt;p&gt;[2][R][R], [T]: Your commander loses &lt;u&gt;X&lt;/u&gt; (X is the number of cards in your hand.) loyalty. Draw a card.&lt;/p&gt;</t>
+    <t>&lt;center&gt;&lt;u&gt;Armed -- 'CCW'&lt;/u&gt; (~ enters the battlefield with a transient &lt;i&gt;'CCW'&lt;/i&gt; attached to it.),&lt;u&gt;Permanence&lt;/u&gt; (Damage ~ deals permanently reduces the health of the assets which it damages.), &lt;u&gt;Quick Hire&lt;/u&gt; (When ~ is hired as a generator, it can be utilized as soon as it is hired.)&lt;/center&gt;&lt;p&gt;[T]: Add [R].&lt;/p&gt;&lt;p&gt;[2][R][R], [T]: Your commander loses &lt;u&gt;X&lt;/u&gt; (X is the number of cards in your hand.) morale. Draw a card.&lt;/p&gt;</t>
   </si>
   <si>
     <t>RU_016</t>
@@ -1364,7 +1364,7 @@
     <t>Augmented Female Delta Operative</t>
   </si>
   <si>
-    <t>&lt;center&gt;(If you obtain another card with the same name as ~@, you must choose one to keep and another to send to its owner's discard pile.  Becomes &lt;i&gt;'Remember the Plan!'&lt;/i&gt; if you already control ~@.)&lt;br/&gt;&lt;u&gt;Reckless&lt;/u&gt; (~@ can't intercept.)&lt;/center&gt;&lt;p&gt;After your opponent attacks, you may attack.&lt;/p&gt;</t>
+    <t>&lt;center&gt;(If you obtain another card with the same name as ~@, you must choose one to keep and another to send to its owner's discard pile.  Becomes &lt;i&gt;'Remember the Plan!'&lt;/i&gt; if you already control ~@.)&lt;br/&gt;&lt;u&gt;Reckless&lt;/u&gt; (~@ can't intercept.)&lt;/center&gt;&lt;p&gt;You may directly attack utilized combatants your opponent's control.&lt;/p&gt;</t>
   </si>
   <si>
     <t>OR_001b</t>
@@ -1505,7 +1505,7 @@
     <t>OOO</t>
   </si>
   <si>
-    <t>&lt;center&gt;&lt;u&gt;Response&lt;/u&gt; (You may deploy ~ in response to other cards and effects.)&lt;/center&gt;&lt;p&gt;Until end of turn, whenever a player would draw a card, you may have your commander lose 2 loyalty to prevent that card draw.&lt;/p&gt;</t>
+    <t>&lt;center&gt;&lt;u&gt;Response&lt;/u&gt; (You may deploy ~ in response to other cards and effects.)&lt;/center&gt;&lt;p&gt;Until end of turn, whenever a player would draw a card, you may have your commander lose 2 morale to prevent that card draw.&lt;/p&gt;</t>
   </si>
   <si>
     <t>OC_001</t>
@@ -1631,7 +1631,7 @@
     <t>Orange</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;center&gt;~'s cost is equal to your commander's cost&lt;/center&gt;&lt;/p&gt;&lt;p&gt;Your commander becomes an asset, until end of turn (Damage it takes as an asset becomes lost loyalty. If it would leave the battlefield, instead it returns to being your commander.)&lt;/p&gt;</t>
+    <t>&lt;p&gt;&lt;center&gt;~'s cost is equal to your commander's cost&lt;/center&gt;&lt;/p&gt;&lt;p&gt;Your commander becomes an asset, until end of turn (Damage it takes as an asset becomes lost morale. If it would leave the battlefield, instead it returns to being your commander.)&lt;/p&gt;</t>
   </si>
   <si>
     <t>OC_012</t>
@@ -1700,7 +1700,7 @@
     <t>&lt;u&gt;Discovery&lt;/u&gt; Delta Cause</t>
   </si>
   <si>
-    <t>&lt;center&gt;(When ~ enters the battlefield or at the beginning of your turn, progress to the next phase unless the final phase has been reached.)&lt;/center&gt;&lt;p&gt;&lt;b&gt;&lt;i&gt;1-3)&lt;/i&gt;&lt;/b&gt; Choose a card in your hand with &lt;u&gt;generalized cost&lt;/u&gt; [X] or less; deploy it without paying its cost.&lt;/p&gt;&lt;p&gt;&lt;b&gt;&lt;i&gt;Final)&lt;/i&gt;&lt;/b&gt; If an opponent's commander would loose loyalty to an effect not named ~, each opponents' commander loses that much loyalty (multiple final state ~s do not further duplicate this effect).&lt;/p&gt;</t>
+    <t>&lt;center&gt;(When ~ enters the battlefield or at the beginning of your turn, progress to the next phase unless the final phase has been reached.)&lt;/center&gt;&lt;p&gt;&lt;b&gt;&lt;i&gt;1-3)&lt;/i&gt;&lt;/b&gt; Choose a card in your hand with &lt;u&gt;generalized cost&lt;/u&gt; [X] or less; deploy it without paying its cost.&lt;/p&gt;&lt;p&gt;&lt;b&gt;&lt;i&gt;Final)&lt;/i&gt;&lt;/b&gt; If an opponent's commander would loose morale to an effect not named ~, each opponents' commander loses that much morale (multiple final state ~s do not further duplicate this effect).&lt;/p&gt;</t>
   </si>
   <si>
     <t>OR_008</t>
@@ -2213,7 +2213,7 @@
     <t>Human Male Space-corp Engineer</t>
   </si>
   <si>
-    <t>If an opponent's commander would lose loyalty outside of combat, it loses that much loyalty +1 instead.</t>
+    <t>If an opponent's commander would lose morale outside of combat, it loses that much morale +1 instead.</t>
   </si>
   <si>
     <t>YC_010</t>
@@ -2285,6 +2285,9 @@
     <t>Marina Arrigotti, Femme Fatale</t>
   </si>
   <si>
+    <t>YYYYY</t>
+  </si>
+  <si>
     <t>Human Female Civilian Prostitute Operative</t>
   </si>
   <si>
@@ -2312,7 +2315,7 @@
     <t>Augmented &lt;u&gt;Mob&lt;/u&gt; Propagandist</t>
   </si>
   <si>
-    <t>&lt;center&gt;&lt;u&gt;Mob&lt;/u&gt; (You may assign any number of mob combatants you control to a unit.)&lt;/center&gt;&lt;p&gt;If an opponent's commander would lose loyalty outside of combat, they loose twice as much loyalty instead.&lt;/p&gt;</t>
+    <t>&lt;center&gt;&lt;u&gt;Mob&lt;/u&gt; (You may assign any number of mob combatants you control to a unit.)&lt;/center&gt;&lt;p&gt;If an opponent's commander would lose morale outside of combat, they loose twice as much morale instead.&lt;/p&gt;</t>
   </si>
   <si>
     <t>YR_007</t>
@@ -2543,7 +2546,7 @@
     <t>5GG</t>
   </si>
   <si>
-    <t>&lt;center&gt;(This effect can only be deployed if you control a renowned asset.)&lt;/center&gt;&lt;p&gt;Each commander's loyalty is doubled, up to their starting loyalty.&lt;/p&gt;&lt;p&gt;Prevent all damage that would be dealt this turn.&lt;/p&gt;&lt;p&gt;&lt;u&gt;Personal&lt;/u&gt; (Shuffle &lt;i&gt;'L.O.K.I.O, Logistics AI'&lt;/i&gt; into your deck.)&lt;/p&gt;</t>
+    <t>&lt;center&gt;(This effect can only be deployed if you control a renowned asset.)&lt;/center&gt;&lt;p&gt;Each commander's morale is doubled, up to their starting morale.&lt;/p&gt;&lt;p&gt;Prevent all damage that would be dealt this turn.&lt;/p&gt;&lt;p&gt;&lt;u&gt;Personal&lt;/u&gt; (Shuffle &lt;i&gt;'L.O.K.I.O, Logistics AI'&lt;/i&gt; into your deck.)&lt;/p&gt;</t>
   </si>
   <si>
     <t>"Intake rates at all our hospitals have increased by 32% on average over the past week."</t>
@@ -2663,7 +2666,7 @@
     <t>Vitality</t>
   </si>
   <si>
-    <t>&lt;center&gt;(Generators are not assets or effects. You may only play ~ whenever you have the option to hire generator instead of hiring any other card as a generator.)&lt;/center&gt;&lt;p&gt;[T]: Add [G].&lt;/p&gt;&lt;p&gt;&lt;u&gt;Forfeit&lt;/u&gt; (Put the specified card into its owner's discard pile.) ~: Your commander gains &lt;u&gt;X&lt;/u&gt; (X is the number of cards named ~ on the battlefield) loyalty.&lt;/p&gt;</t>
+    <t>&lt;center&gt;(Generators are not assets or effects. You may only play ~ whenever you have the option to hire generator instead of hiring any other card as a generator.)&lt;/center&gt;&lt;p&gt;[T]: Add [G].&lt;/p&gt;&lt;p&gt;&lt;u&gt;Forfeit&lt;/u&gt; (Put the specified card into its owner's discard pile.) ~: Your commander gains &lt;u&gt;X&lt;/u&gt; (X is the number of cards named ~ on the battlefield) morale.&lt;/p&gt;</t>
   </si>
   <si>
     <t>GU_005</t>
@@ -2708,7 +2711,7 @@
     <t>Building</t>
   </si>
   <si>
-    <t>&lt;center&gt;(You may play ~ whenever you have the option to hire a generator, instead of hiring any other card as a generator, or you may deploy it as an asset.)&lt;br/&gt;&lt;u&gt;Barricade&lt;/u&gt; (~ can't attack; however, intercepting doesn't utilize it.), &lt;u&gt;Armor 2&lt;/u&gt;&lt;/center&gt;&lt;p&gt;[T], [X][G] (X is the number of times this effect has been activated.): Your commander gains [X] loyalty. This effect may be activated by any player.&lt;/p&gt;</t>
+    <t>&lt;center&gt;(You may play ~ whenever you have the option to hire a generator, instead of hiring any other card as a generator, or you may deploy it as an asset.)&lt;br/&gt;&lt;u&gt;Barricade&lt;/u&gt; (~ can't attack; however, intercepting doesn't utilize it.), &lt;u&gt;Armor 2&lt;/u&gt;&lt;/center&gt;&lt;p&gt;[T], [X][G] (X is the number of times this effect has been activated.): Your commander gains [X] morale. This effect may be activated by any player.&lt;/p&gt;</t>
   </si>
   <si>
     <t>The logistics of storage and distribution are the cornerstones of civilization.</t>
@@ -2834,7 +2837,7 @@
     <t>Human Civilian Propagandist</t>
   </si>
   <si>
-    <t>&lt;center&gt;When ~ enters the battlefield, your commander gains 6 loyalty.&lt;/center&gt;</t>
+    <t>&lt;center&gt;When ~ enters the battlefield, your commander gains 6 morale.&lt;/center&gt;</t>
   </si>
   <si>
     <t>GC_010</t>
@@ -2855,7 +2858,7 @@
     <t xml:space="preserve">&lt;u&gt;Response&lt;/u&gt; Tax </t>
   </si>
   <si>
-    <t>&lt;center&gt;&lt;u&gt;Tax&lt;/u&gt; (When ~ resolves, if it is not a copy, copy it for each other card and effect on the stack.)&lt;/center&gt;&lt;p&gt;Your commander gains 4 loyalty.&lt;/p&gt;</t>
+    <t>&lt;center&gt;&lt;u&gt;Tax&lt;/u&gt; (When ~ resolves, if it is not a copy, copy it for each other card and effect on the stack.)&lt;/center&gt;&lt;p&gt;Your commander gains 4 morale.&lt;/p&gt;</t>
   </si>
   <si>
     <t>GC_012</t>
@@ -2993,7 +2996,7 @@
     <t>&lt;center&gt;&lt;u&gt;Armor 5&lt;/u&gt;, &lt;u&gt;Formation - Attack Front 5, Back 7&lt;/u&gt; (Cards with Formation have their ranged status determined by their place in their formation; a formation consists of a mandatory melee card at the front and up to 2 ranged cards at the back. The attack power of the formation is the sum of all combatants in the formation. Combat damage is dealt to the front combatant before the back combatants. Formations can only be formed anytime you could reorganize units.) &lt;u&gt;Vehicle&lt;/u&gt;&lt;/center&gt;</t>
   </si>
   <si>
-    <t>"Musk really hit it out of the park with this one" &lt;p&gt;-- ?&lt;/p&gt;</t>
+    <t>"Mollusk really hit it out of the park with this one" &lt;p&gt;-- ?&lt;/p&gt;</t>
   </si>
   <si>
     <t>GU_014</t>
@@ -3161,7 +3164,7 @@
     <t>AI Police Medic</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;center&gt;&lt;b&gt;~@ isn't renowned.&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;&lt;i&gt;As Commander&lt;/i&gt; --&lt;/b&gt; At the beginning of each turn, ~@ gains 1 loyalty.&lt;/p&gt;&lt;p&gt;&lt;b&gt;&lt;i&gt;As Asset&lt;/i&gt; --&lt;/b&gt; Each time your commander loses &lt;u&gt;X&lt;/u&gt; (X is 1/5 your commander's starting loyalty) loyalty, create an &lt;i&gt;'Emergency Defibrillator'&lt;/i&gt; in your hand. If ~@ is inside a vehicle, instead create an &lt;i&gt;'Emergency Defibrillator'&lt;/i&gt; whenever your commander loses loyalty.&lt;/p&gt;</t>
+    <t>&lt;p&gt;&lt;center&gt;&lt;b&gt;~@ isn't renowned.&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;&lt;i&gt;As Commander&lt;/i&gt; --&lt;/b&gt; At the beginning of each turn, ~@ gains 1 morale.&lt;/p&gt;&lt;p&gt;&lt;b&gt;&lt;i&gt;As Asset&lt;/i&gt; --&lt;/b&gt; Each time your commander loses &lt;u&gt;X&lt;/u&gt; (X is 1/5 your commander's starting morale) morale, create an &lt;i&gt;'Emergency Defibrillator'&lt;/i&gt; in your hand. If ~@ is inside a vehicle, instead create an &lt;i&gt;'Emergency Defibrillator'&lt;/i&gt; whenever your commander loses morale.&lt;/p&gt;</t>
   </si>
   <si>
     <t>"A.L.I.V.E's job is to ensure that every officer returns in one piece."</t>
@@ -3215,7 +3218,7 @@
     <t>Moral</t>
   </si>
   <si>
-    <t>&lt;center&gt;&lt;u&gt;Append to Effect [4][B]&lt;/u&gt; (As you deploy an Effect you may reveal ~ and pay [4][B]. If you do add this card's effects as it resolves; it loses those effects once it leaves the stack.)&lt;/center&gt;&lt;p&gt;All combatants of a subtype of your choice on the battlefield, permanently gain +1/+1.&lt;/p&gt;</t>
+    <t>&lt;center&gt;&lt;u&gt;Append to Effect [4][B]&lt;/u&gt; (As you deploy an Effect you may reveal ~ and pay [4][B]. If you do add this card's effects as it resolves; it loses those effects once it leaves the stack.)&lt;/center&gt;&lt;p&gt;All combatants of a non-racial subtype of your choice on the battlefield, permanently gain +1/+1.&lt;/p&gt;</t>
   </si>
   <si>
     <t>BR_004</t>
@@ -3242,7 +3245,7 @@
     <t>&lt;u&gt;Vehicle&lt;/u&gt; Ambulance</t>
   </si>
   <si>
-    <t>&lt;center&gt;&lt;u&gt;Vehicle&lt;/u&gt;&lt;/center&gt;&lt;p&gt;If your commander would gain loyalty, it gains an additional 1 loyalty.&lt;/p&gt;&lt;p&gt;If an asset would be healed, it is additionally &lt;u&gt;healed 1&lt;/u&gt; (If the specified asset has attack power or health reductions, reduce them by 1 [reducing permanent reductions first]. Otherwise remove 1 damage from it.)&lt;/p&gt;</t>
+    <t>&lt;center&gt;&lt;u&gt;Vehicle&lt;/u&gt;&lt;/center&gt;&lt;p&gt;If your commander would gain morale, it gains an additional 1 morale.&lt;/p&gt;&lt;p&gt;If an asset would be healed, it is additionally &lt;u&gt;healed 1&lt;/u&gt; (If the specified asset has attack power or health reductions, reduce them by 1 [reducing permanent reductions first]. Otherwise remove 1 damage from it.)&lt;/p&gt;</t>
   </si>
   <si>
     <t>BU_002</t>
@@ -3545,7 +3548,7 @@
     <t>Redistribution</t>
   </si>
   <si>
-    <t>&lt;center&gt;&lt;u&gt;Exchange [1]&lt;/u&gt; (Pay [1], Discard ~ from your hand: Draw a card.)&lt;/center&gt;&lt;p&gt;Each player may draw up to 3 cards. Their commanders gain 4 loyalty for each card they don't draw.&lt;/p&gt;</t>
+    <t>&lt;center&gt;&lt;u&gt;Exchange [1]&lt;/u&gt; (Pay [1], Discard ~ from your hand: Draw a card.)&lt;/center&gt;&lt;p&gt;Each player may draw up to 3 cards. Their commanders gain 4 morale for each card they don't draw.&lt;/p&gt;</t>
   </si>
   <si>
     <t>"The visionaries of the 20th century claimed all the words problems would be fixed if we gave all our money to those who had non-e.."</t>
@@ -3608,7 +3611,7 @@
     <t>Charitable Widow</t>
   </si>
   <si>
-    <t>When ~ enters the battlefield, choose one:&lt;ul&gt;Your commander gains 2 loyalty.&lt;br/&gt;Shuffle a &lt;i&gt;'Tip'&lt;/i&gt; into your deck.&lt;/ul&gt;</t>
+    <t>When ~ enters the battlefield, choose one:&lt;ul&gt;Your commander gains 2 morale.&lt;br/&gt;Shuffle a &lt;i&gt;'Tip'&lt;/i&gt; into your deck.&lt;/ul&gt;</t>
   </si>
   <si>
     <t>BU_015</t>
@@ -3629,7 +3632,7 @@
     <t>Imparter of Wisdom</t>
   </si>
   <si>
-    <t>Human Citizen Teacher</t>
+    <t>Human Civilian Teacher</t>
   </si>
   <si>
     <t>&lt;u&gt;Once&lt;/u&gt; (As you activate this effect, remove it from this card): All other combatants without effects permanently get +2/+2.</t>
@@ -3656,7 +3659,7 @@
     <t>First Aid</t>
   </si>
   <si>
-    <t>Choose one:&lt;ul&gt;Your commander gains 3 loyalty.&lt;br/&gt;Choose an asset; &lt;u&gt;Heal it 3&lt;/u&gt; (If the specified asset has attack power or health reductions, reduce them by 3 [reducing permanent reductions first]. Otherwise remove 3 damage from it.)&lt;br/&gt;Choose an asset; it looses bleeding.&lt;/ul&gt;</t>
+    <t>Choose one:&lt;ul&gt;Your commander gains 3 morale.&lt;br/&gt;Choose an asset; &lt;u&gt;Heal it 3&lt;/u&gt; (If the specified asset has attack power or health reductions, reduce them by 3 [reducing permanent reductions first]. Otherwise remove 3 damage from it.)&lt;br/&gt;Choose an asset; it looses bleeding.&lt;/ul&gt;</t>
   </si>
   <si>
     <t>BC_015</t>
@@ -3950,7 +3953,7 @@
     <t>P</t>
   </si>
   <si>
-    <t>Look at the top 3 cards of your deck, draw 1 of them, then put the rest back on top in any order.&lt;p&gt;You may pay an additional [2][P] as you deploy ~, if you do choose an asset; return it to its owner's hand, then it loses all &lt;u&gt;stat modifications&lt;/u&gt; (Added/changed words, attack power, health, or ranged status.)&lt;/p&gt;</t>
+    <t>&lt;p&gt;Look at the top 3 cards of your deck, draw 1 of them, then put the rest back on top in any order.&lt;/p&gt;&lt;p&gt;You may pay an additional [2][P] as you deploy ~, if you do choose an asset; return it to its owner's hand, then it loses all &lt;u&gt;stat modifications&lt;/u&gt; (Added/changed words, attack power, health, or ranged status.)&lt;/p&gt;</t>
   </si>
   <si>
     <t>PC_002</t>
@@ -4079,7 +4082,10 @@
     <t>Try Again</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;u&gt;Card Hack&lt;/u&gt; (Choose a card on the stack; send it to its owner's discard, none of its effects happen.), unless its controller pays its cost again. </t>
+    <t>PPP</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;center&gt;&lt;u&gt;Devious [P][P]&lt;/u&gt; (~ costs [P][P] less if it isn't your turn.)&lt;/center&gt;&lt;/p&gt;&lt;p&gt;&lt;u&gt;Card Hack&lt;/u&gt; (Choose a card on the stack; send it to its owner's discard, none of its effects happen.), unless its controller pays its cost again. &lt;/p&gt;</t>
   </si>
   <si>
     <t>P_CMDR_2</t>
@@ -4166,7 +4172,7 @@
     <t>Hack</t>
   </si>
   <si>
-    <t>&lt;u&gt;Card Hack&lt;/u&gt; (Choose a card on the stack; send it to its owner's discard, none of its effects happen.), that card's owner looks at the top 4 cards of their deck and draws 1 of them.</t>
+    <t>&lt;p&gt;&lt;center&gt;&lt;u&gt;Devious [P]&lt;/u&gt; (~ costs [P] less if it isn't your turn.)&lt;/center&gt;&lt;/p&gt;&lt;p&gt;&lt;u&gt;Card Hack&lt;/u&gt; (Choose a card on the stack; send it to its owner's discard, none of its effects happen.), that card's owner looks at the top 4 cards of their deck and draws 1 of them.&lt;/p&gt;</t>
   </si>
   <si>
     <t>"You have to be careful whenever you do a job, next time their defenses will be better." &lt;p&gt;-- Sara Anthony&lt;/p&gt;</t>
@@ -4319,7 +4325,7 @@
     <t>Choose a card to &lt;u&gt;hack&lt;/u&gt; (Choose a card on the stack; send it to its owner's discard, none of its effects happen.) with &lt;u&gt;generalized cost&lt;/u&gt; (The cost of the card if all typed symbols were replaced with generic numbers. Ex. Their Password was 'password' has a generalized cost of [1].) [2] or less.</t>
   </si>
   <si>
-    <t>"When I was a little girl, Felicity Smoak was always my hero." &lt;p&gt;-- Sara Anthony.&lt;/p&gt;</t>
+    <t>"When I was a little girl, I always fancied becoming some sort of Oracle." &lt;p&gt;-- Sara Anthony.&lt;/p&gt;</t>
   </si>
   <si>
     <t>PC_019</t>
@@ -4340,7 +4346,10 @@
     <t>Incremental Attack</t>
   </si>
   <si>
-    <t>&lt;center&gt;&lt;u&gt;Advantageous&lt;/u&gt; (When ~ resolves, draw a card.)&lt;/center&gt;&lt;p&gt;&lt;u&gt;Effect Hack&lt;/u&gt; (Choose an effect on the stack; send it to its owner's discard, none of its effects happen.), unless its controller pays &lt;u&gt;[X]&lt;/u&gt; ([X] is 1 plus the number of cards named ~ that have been deployed this game.)&lt;/p&gt;</t>
+    <t>1PP</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;&lt;u&gt;Advantageous&lt;/u&gt; (When ~ resolves, draw a card.), &lt;u&gt;Devious [P]&lt;/u&gt; (~ costs [P] less if it isn't your turn.)&lt;/center&gt;&lt;p&gt;&lt;u&gt;Effect Hack&lt;/u&gt; (Choose an effect on the stack; send it to its owner's discard, none of its effects happen.), unless its controller pays &lt;u&gt;[X]&lt;/u&gt; ([X] is 1 plus the number of cards named ~ that have been deployed this game.)&lt;/p&gt;</t>
   </si>
   <si>
     <t>PC_021</t>
@@ -4514,7 +4523,7 @@
     <t>Latent Emotion</t>
   </si>
   <si>
-    <t>&lt;center&gt;([_] can be paid with [2] or [Y].)&lt;/center&gt;&lt;p&gt;Player's can't draw cards during the end of their turn.&lt;/p&gt;&lt;p&gt;Whenever a player discards down to their maximum hand size, their commander loses X (X is the number of cards discarded) loyalty.&lt;/p&gt;&lt;p&gt;(~ has &lt;u&gt;generalized cost&lt;/u&gt; [4].)&lt;/p&gt;</t>
+    <t>&lt;center&gt;([_] can be paid with [2] or [Y].)&lt;/center&gt;&lt;p&gt;Player's can't draw cards during the end of their turn.&lt;/p&gt;&lt;p&gt;Whenever a player discards down to their maximum hand size, their commander loses X (X is the number of cards discarded) morale.&lt;/p&gt;&lt;p&gt;(~ has &lt;u&gt;generalized cost&lt;/u&gt; [4].)&lt;/p&gt;</t>
   </si>
   <si>
     <t>Yellow Generic</t>
@@ -4529,7 +4538,7 @@
     <t>&lt;u&gt;Discovery&lt;/u&gt;</t>
   </si>
   <si>
-    <t>&lt;center&gt;(When ~ enters the battlefield or at the beginning of your turn, progress to the next phase unless the final phase has been reached.)&lt;/center&gt;&lt;p&gt;&lt;b&gt;&lt;i&gt;1-3)&lt;/i&gt;&lt;/b&gt; Create &lt;u&gt;X&lt;/u&gt; (X is the number of turns ~ has been on the battlefield) &lt;u&gt;transient&lt;/u&gt; (If it would enter a discard, instead remove it from the game.) &lt;i&gt;'Explorer Drone'&lt;/i&gt;s in your hand.&lt;/p&gt;&lt;p&gt;&lt;b&gt;&lt;i&gt;Final)&lt;/i&gt;&lt;/b&gt; At the beginning of each turn, your commander gains 1 loyalty.&lt;/p&gt;</t>
+    <t>&lt;center&gt;(When ~ enters the battlefield or at the beginning of your turn, progress to the next phase unless the final phase has been reached.)&lt;/center&gt;&lt;p&gt;&lt;b&gt;&lt;i&gt;1-3)&lt;/i&gt;&lt;/b&gt; Create &lt;u&gt;X&lt;/u&gt; (X is the number of turns ~ has been on the battlefield) &lt;u&gt;transient&lt;/u&gt; (If it would enter a discard, instead remove it from the game.) &lt;i&gt;'Explorer Drone'&lt;/i&gt;s in your hand.&lt;/p&gt;&lt;p&gt;&lt;b&gt;&lt;i&gt;Final)&lt;/i&gt;&lt;/b&gt; At the beginning of each turn, your commander gains 1 morale up to its starting total.&lt;/p&gt;</t>
   </si>
   <si>
     <t>CR_005</t>
@@ -4553,7 +4562,7 @@
     <t>Augmented</t>
   </si>
   <si>
-    <t>If a generator would produce more than 1 energy, its owner's commander loses that much loyalty.</t>
+    <t>If a generator would produce more than 1 energy, its owner's commander loses that much morale.</t>
   </si>
   <si>
     <t>CR_007</t>
@@ -4598,7 +4607,7 @@
     <t>Space Shuttle</t>
   </si>
   <si>
-    <t>&lt;center&gt;&lt;u&gt;Vehicle&lt;/u&gt; (When ~ enters the battlefield, you may choose another asset to attach it to. The combined unit has all effects of both assets, and the highest attack power, health, and ranged status of the two.), &lt;u&gt;Spacecraft&lt;/u&gt; (Space Shuttle can only intercept or be intercepted by assets with spacecraft.)&lt;/center&gt;</t>
+    <t>&lt;p&gt;&lt;center&gt;&lt;u&gt;Vehicle&lt;/u&gt; (When ~ enters the battlefield, you may choose another asset to attach it to. The combined unit has all effects of both assets, and the highest attack power, health, and ranged status of the two.), &lt;u&gt;Spacecraft&lt;/u&gt; (Space Shuttle can only intercept or be intercepted by assets with spacecraft.)&lt;/center&gt;&lt;/p&gt;&lt;p&gt;~ can't be part of a unit.&lt;/p&gt;</t>
   </si>
   <si>
     <t>CU_005</t>
@@ -4910,7 +4919,7 @@
     <t>RR</t>
   </si>
   <si>
-    <t>&lt;center&gt;&lt;u&gt;Brainwash&lt;/u&gt; (Damage dealt by ~ is gained as loyalty.)&lt;/center&gt;&lt;p&gt;Choose a player; they discard a card of your choice.&lt;ul&gt;If that card is a combatant, draw a card and your commander loses 1 loyalty.&lt;br/&gt;If that card is an effect, deal 3 damage to their commander.&lt;/ul&gt;&lt;/p&gt;</t>
+    <t>&lt;center&gt;&lt;u&gt;Brainwash&lt;/u&gt; (Damage dealt by ~ is gained as morale.)&lt;/center&gt;&lt;p&gt;Choose a player; they discard a card of your choice.&lt;ul&gt;If that card is a combatant, draw a card and your commander loses 1 morale.&lt;br/&gt;If that card is an effect, deal 3 damage to their commander.&lt;/ul&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>RR_010</t>
@@ -4928,7 +4937,7 @@
     <t>Economic Suicide</t>
   </si>
   <si>
-    <t>&lt;center&gt;&lt;u&gt;Exchange [1]&lt;/u&gt; (Pay [1], Discard ~ from your hand: Draw a card.)&lt;/center&gt;&lt;p&gt;Choose one (round down):&lt;ul&gt;Your commander loses half its loyalty.&lt;br/&gt;Discard half of the cards in your hand.&lt;br/&gt;&lt;u&gt;Forfeit&lt;/u&gt; (Put the specified card into its owner's discard pile.) half of the assets you control.&lt;/ul&gt;&lt;/p&gt;</t>
+    <t>&lt;center&gt;&lt;u&gt;Exchange [1]&lt;/u&gt; (Pay [1], Discard ~ from your hand: Draw a card.)&lt;/center&gt;&lt;p&gt;Choose one (round down):&lt;ul&gt;Your commander loses half its morale.&lt;br/&gt;Discard half of the cards in your hand.&lt;br/&gt;&lt;u&gt;Forfeit&lt;/u&gt; (Put the specified card into its owner's discard pile.) half of the assets you control.&lt;/ul&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>RC_025</t>
@@ -5041,7 +5050,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715568702" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1716151689" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -5056,7 +5065,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715568702" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1716151689" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -5071,7 +5080,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715568702" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1716151689" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -5086,7 +5095,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715568702" fgClr="F7981D" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1716151689" fgClr="F7981D" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -5101,7 +5110,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715568702" fgClr="222222" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1716151689" fgClr="222222" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -5117,7 +5126,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715568702" fgClr="1155CC" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1716151689" fgClr="1155CC" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -5133,7 +5142,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715568702" fgClr="1155CC" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1716151689" fgClr="1155CC" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -5156,7 +5165,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715568702" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716151689" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -5167,7 +5176,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715568702" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716151689" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -5189,7 +5198,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715568702"/>
+          <pm:border xmlns:pm="smNativeData" id="1716151689"/>
         </ext>
       </extLst>
     </border>
@@ -5208,7 +5217,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715568702"/>
+          <pm:border xmlns:pm="smNativeData" id="1716151689"/>
         </ext>
       </extLst>
     </border>
@@ -5227,7 +5236,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715568702"/>
+          <pm:border xmlns:pm="smNativeData" id="1716151689"/>
         </ext>
       </extLst>
     </border>
@@ -5272,10 +5281,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1715568702" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1716151689" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1715568702" count="3">
+      <pm:colors xmlns:pm="smNativeData" id="1716151689" count="3">
         <pm:color name="Color 24" rgb="F7981D"/>
         <pm:color name="Color 25" rgb="222222"/>
         <pm:color name="Color 26" rgb="1155CC"/>
@@ -5546,9 +5555,9 @@
   </sheetPr>
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C292" sqref="C292"/>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A338" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I343" sqref="I343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="11" defaultColWidth="12.630631" defaultRowHeight="13.45"/>
@@ -15028,7 +15037,7 @@
         <v>618</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>529</v>
+        <v>619</v>
       </c>
       <c r="D147" s="5" t="e">
         <v>#NAME?</v>
@@ -15040,16 +15049,16 @@
         <v>90</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>77</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="K147" s="1" t="n">
         <v>4</v>
@@ -15092,10 +15101,10 @@
     </row>
     <row r="148" spans="1:26" outlineLevel="1">
       <c r="A148" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>557</v>
@@ -15114,7 +15123,7 @@
         <v>27</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="J148" s="1"/>
       <c r="K148" s="6"/>
@@ -15154,10 +15163,10 @@
     </row>
     <row r="149" spans="1:26" outlineLevel="1">
       <c r="A149" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>593</v>
@@ -15172,13 +15181,13 @@
         <v>90</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H149" s="2" t="s">
         <v>77</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="J149" s="1"/>
       <c r="K149" s="6" t="n">
@@ -15222,13 +15231,13 @@
     </row>
     <row r="150" spans="1:26" outlineLevel="1">
       <c r="A150" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D150" s="5" t="e">
         <v>#NAME?</v>
@@ -15240,13 +15249,13 @@
         <v>25</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>77</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="J150" s="1"/>
       <c r="K150" s="6" t="n">
@@ -15290,13 +15299,13 @@
     </row>
     <row r="151" spans="1:26" outlineLevel="1">
       <c r="A151" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D151" s="5" t="e">
         <v>#NAME?</v>
@@ -15306,13 +15315,13 @@
         <v>83</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H151" s="2" t="s">
         <v>77</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="J151" s="3"/>
       <c r="K151" s="1"/>
@@ -15352,10 +15361,10 @@
     </row>
     <row r="152" spans="1:26" outlineLevel="1">
       <c r="A152" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>490</v>
@@ -15370,13 +15379,13 @@
         <v>25</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H152" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="J152" s="3"/>
       <c r="K152" s="1" t="n">
@@ -15420,10 +15429,10 @@
     </row>
     <row r="153" spans="1:26" outlineLevel="1">
       <c r="A153" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>535</v>
@@ -15438,17 +15447,17 @@
         <v>25</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H153" s="2" t="s">
         <v>117</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="J153" s="3"/>
       <c r="K153" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="L153" s="1" t="n">
         <v>3</v>
@@ -15488,10 +15497,10 @@
     </row>
     <row r="154" spans="1:26" outlineLevel="1">
       <c r="A154" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>557</v>
@@ -15506,13 +15515,13 @@
         <v>25</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H154" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="J154" s="3"/>
       <c r="K154" s="1" t="n">
@@ -15556,10 +15565,10 @@
     </row>
     <row r="155" spans="1:26" outlineLevel="1">
       <c r="A155" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>535</v>
@@ -15576,7 +15585,7 @@
         <v>117</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J155" s="3"/>
       <c r="K155" s="1"/>
@@ -15616,10 +15625,10 @@
     </row>
     <row r="156" spans="1:26" outlineLevel="1">
       <c r="A156" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>524</v>
@@ -15638,10 +15647,10 @@
         <v>117</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J156" s="3" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
@@ -15680,10 +15689,10 @@
     </row>
     <row r="157" spans="1:26" outlineLevel="1">
       <c r="A157" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>518</v>
@@ -15702,7 +15711,7 @@
         <v>117</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J157" s="3"/>
       <c r="K157" s="1"/>
@@ -15742,10 +15751,10 @@
     </row>
     <row r="158" spans="1:26" outlineLevel="1">
       <c r="A158" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>529</v>
@@ -15758,13 +15767,13 @@
         <v>25</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H158" s="2" t="s">
         <v>117</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="J158" s="3"/>
       <c r="K158" s="1"/>
@@ -15804,10 +15813,10 @@
     </row>
     <row r="159" spans="1:26" outlineLevel="1">
       <c r="A159" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>529</v>
@@ -15820,13 +15829,13 @@
         <v>32</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="J159" s="3"/>
       <c r="K159" s="1"/>
@@ -15866,10 +15875,10 @@
     </row>
     <row r="160" spans="1:26" outlineLevel="1">
       <c r="A160" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>518</v>
@@ -15884,13 +15893,13 @@
         <v>25</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H160" s="2" t="s">
         <v>155</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="J160" s="3"/>
       <c r="K160" s="1" t="n">
@@ -15934,10 +15943,10 @@
     </row>
     <row r="161" spans="1:26" outlineLevel="1">
       <c r="A161" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>524</v>
@@ -15956,7 +15965,7 @@
         <v>155</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
@@ -15996,29 +16005,29 @@
     </row>
     <row r="162" spans="1:26" outlineLevel="1">
       <c r="A162" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>513</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E162" s="1"/>
       <c r="F162" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H162" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="J162" s="3"/>
       <c r="K162" s="1"/>
@@ -16037,7 +16046,7 @@
         <v>#NAME?</v>
       </c>
       <c r="T162" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="U162" s="1" t="e">
         <v>#NAME?</v>
@@ -16058,10 +16067,10 @@
     </row>
     <row r="163" spans="1:26" outlineLevel="1">
       <c r="A163" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>529</v>
@@ -16074,13 +16083,13 @@
         <v>32</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H163" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J163" s="3"/>
       <c r="K163" s="1"/>
@@ -16120,10 +16129,10 @@
     </row>
     <row r="164" spans="1:26" outlineLevel="1">
       <c r="A164" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>557</v>
@@ -16138,7 +16147,7 @@
         <v>25</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H164" s="2" t="s">
         <v>174</v>
@@ -16186,10 +16195,10 @@
     </row>
     <row r="165" spans="1:26" outlineLevel="1">
       <c r="A165" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>535</v>
@@ -16204,13 +16213,13 @@
         <v>25</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H165" s="2" t="s">
         <v>174</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="J165" s="3"/>
       <c r="K165" s="1" t="n">
@@ -16254,13 +16263,13 @@
     </row>
     <row r="166" spans="1:26" outlineLevel="1">
       <c r="A166" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D166" s="5" t="e">
         <v>#NAME?</v>
@@ -16272,13 +16281,13 @@
         <v>25</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H166" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I166" s="3" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="J166" s="3"/>
       <c r="K166" s="1" t="n">
@@ -16322,7 +16331,7 @@
     </row>
     <row r="167" spans="1:26" outlineLevel="1">
       <c r="A167" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B167" s="1" t="str">
         <f>A167</f>
@@ -16375,7 +16384,7 @@
     </row>
     <row r="168" spans="1:26" outlineLevel="1">
       <c r="A168" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B168" s="1" t="str">
         <f>A168</f>
@@ -16428,7 +16437,7 @@
     </row>
     <row r="169" spans="1:26" outlineLevel="1">
       <c r="A169" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B169" s="1" t="str">
         <f>A169</f>
@@ -16481,7 +16490,7 @@
     </row>
     <row r="170" spans="1:26">
       <c r="A170" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B170" s="1" t="str">
         <f>A170</f>
@@ -16534,7 +16543,7 @@
     </row>
     <row r="171" spans="1:26" outlineLevel="1">
       <c r="A171" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B171" s="1" t="str">
         <f>A171</f>
@@ -16587,13 +16596,13 @@
     </row>
     <row r="172" spans="1:26" outlineLevel="1">
       <c r="A172" s="7" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D172" s="5" t="e">
         <v>#NAME?</v>
@@ -16603,16 +16612,16 @@
         <v>70</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H172" s="2" t="s">
         <v>92</v>
       </c>
       <c r="I172" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="J172" s="3" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="K172" s="1"/>
       <c r="L172" s="1"/>
@@ -16651,13 +16660,13 @@
     </row>
     <row r="173" spans="1:26" outlineLevel="1">
       <c r="A173" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D173" s="5" t="e">
         <v>#NAME?</v>
@@ -16673,10 +16682,10 @@
         <v>27</v>
       </c>
       <c r="I173" s="3" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
@@ -16715,13 +16724,13 @@
     </row>
     <row r="174" spans="1:26" outlineLevel="1">
       <c r="A174" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D174" s="5" t="e">
         <v>#NAME?</v>
@@ -16735,7 +16744,7 @@
         <v>92</v>
       </c>
       <c r="I174" s="3" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="J174" s="3"/>
       <c r="K174" s="1"/>
@@ -16775,13 +16784,13 @@
     </row>
     <row r="175" spans="1:26" outlineLevel="1">
       <c r="A175" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D175" s="5" t="e">
         <v>#NAME?</v>
@@ -16795,7 +16804,7 @@
         <v>10</v>
       </c>
       <c r="I175" s="3" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="J175" s="3"/>
       <c r="K175" s="1"/>
@@ -16835,13 +16844,13 @@
     </row>
     <row r="176" spans="1:26" outlineLevel="1">
       <c r="A176" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D176" s="5" t="e">
         <v>#NAME?</v>
@@ -16857,7 +16866,7 @@
         <v>10</v>
       </c>
       <c r="I176" s="3" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="J176" s="3"/>
       <c r="K176" s="1"/>
@@ -16897,13 +16906,13 @@
     </row>
     <row r="177" spans="1:26" outlineLevel="1">
       <c r="A177" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D177" s="5" t="e">
         <v>#NAME?</v>
@@ -16913,13 +16922,13 @@
         <v>25</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H177" s="4" t="n">
         <v>10</v>
       </c>
       <c r="I177" s="3" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
@@ -16959,13 +16968,13 @@
     </row>
     <row r="178" spans="1:26" outlineLevel="1">
       <c r="A178" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D178" s="5" t="e">
         <v>#NAME?</v>
@@ -16981,10 +16990,10 @@
         <v>127</v>
       </c>
       <c r="I178" s="3" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="J178" s="3" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K178" s="1" t="s">
         <v>29</v>
@@ -17027,13 +17036,13 @@
     </row>
     <row r="179" spans="1:26" outlineLevel="1">
       <c r="A179" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D179" s="5" t="e">
         <v>#NAME?</v>
@@ -17045,13 +17054,13 @@
         <v>25</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H179" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I179" s="3" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J179" s="3"/>
       <c r="K179" s="1" t="n">
@@ -17095,13 +17104,13 @@
     </row>
     <row r="180" spans="1:26" outlineLevel="1">
       <c r="A180" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D180" s="5" t="e">
         <v>#NAME?</v>
@@ -17119,7 +17128,7 @@
         <v>127</v>
       </c>
       <c r="I180" s="3" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="J180" s="1"/>
       <c r="K180" s="6" t="n">
@@ -17163,13 +17172,13 @@
     </row>
     <row r="181" spans="1:26" outlineLevel="1">
       <c r="A181" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D181" s="5" t="e">
         <v>#NAME?</v>
@@ -17185,7 +17194,7 @@
         <v>127</v>
       </c>
       <c r="I181" s="3" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="J181" s="3"/>
       <c r="K181" s="1"/>
@@ -17225,27 +17234,27 @@
     </row>
     <row r="182" spans="1:26" outlineLevel="1">
       <c r="A182" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="5" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="E182" s="1"/>
       <c r="F182" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H182" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I182" s="3" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="J182" s="3"/>
       <c r="K182" s="6"/>
@@ -17264,7 +17273,7 @@
         <v>#NAME?</v>
       </c>
       <c r="T182" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="U182" s="1" t="e">
         <v>#NAME?</v>
@@ -17285,13 +17294,13 @@
     </row>
     <row r="183" spans="1:26" outlineLevel="1">
       <c r="A183" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D183" s="5" t="e">
         <v>#NAME?</v>
@@ -17303,16 +17312,16 @@
         <v>25</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H183" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I183" s="3" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="J183" s="3" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="K183" s="6" t="n">
         <v>1</v>
@@ -17355,13 +17364,13 @@
     </row>
     <row r="184" spans="1:26" outlineLevel="1">
       <c r="A184" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D184" s="5" t="e">
         <v>#NAME?</v>
@@ -17373,13 +17382,13 @@
         <v>25</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H184" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I184" s="3" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="J184" s="1"/>
       <c r="K184" s="6" t="n">
@@ -17423,13 +17432,13 @@
     </row>
     <row r="185" spans="1:26" outlineLevel="1">
       <c r="A185" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D185" s="5" t="e">
         <v>#NAME?</v>
@@ -17438,19 +17447,19 @@
         <v>48</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H185" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I185" s="3" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="J185" s="3" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="K185" s="6" t="n">
         <v>0</v>
@@ -17493,13 +17502,13 @@
     </row>
     <row r="186" spans="1:26" outlineLevel="1">
       <c r="A186" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D186" s="5" t="e">
         <v>#NAME?</v>
@@ -17509,13 +17518,13 @@
         <v>25</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H186" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I186" s="3" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="J186" s="3"/>
       <c r="K186" s="1"/>
@@ -17555,13 +17564,13 @@
     </row>
     <row r="187" spans="1:26" outlineLevel="1">
       <c r="A187" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D187" s="5" t="e">
         <v>#NAME?</v>
@@ -17573,13 +17582,13 @@
         <v>25</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H187" s="2" t="s">
         <v>174</v>
       </c>
       <c r="I187" s="8" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="J187" s="3"/>
       <c r="K187" s="1" t="n">
@@ -17623,13 +17632,13 @@
     </row>
     <row r="188" spans="1:26" outlineLevel="1">
       <c r="A188" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D188" s="5" t="e">
         <v>#NAME?</v>
@@ -17641,13 +17650,13 @@
         <v>25</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H188" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I188" s="3" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="J188" s="1"/>
       <c r="K188" s="6" t="n">
@@ -17691,13 +17700,13 @@
     </row>
     <row r="189" spans="1:26" outlineLevel="1">
       <c r="A189" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D189" s="5" t="e">
         <v>#NAME?</v>
@@ -17711,7 +17720,7 @@
         <v>155</v>
       </c>
       <c r="I189" s="3" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="J189" s="3"/>
       <c r="K189" s="1"/>
@@ -17751,13 +17760,13 @@
     </row>
     <row r="190" spans="1:26" outlineLevel="1">
       <c r="A190" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D190" s="5" t="e">
         <v>#NAME?</v>
@@ -17769,16 +17778,16 @@
         <v>25</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H190" s="2" t="s">
         <v>174</v>
       </c>
       <c r="I190" s="3" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="J190" s="3" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="K190" s="1" t="n">
         <v>1</v>
@@ -17821,13 +17830,13 @@
     </row>
     <row r="191" spans="1:26" outlineLevel="1">
       <c r="A191" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D191" s="5" t="e">
         <v>#NAME?</v>
@@ -17839,7 +17848,7 @@
         <v>25</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H191" s="2" t="s">
         <v>174</v>
@@ -17887,13 +17896,13 @@
     </row>
     <row r="192" spans="1:26" outlineLevel="1">
       <c r="A192" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D192" s="5" t="e">
         <v>#NAME?</v>
@@ -17905,13 +17914,13 @@
         <v>25</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H192" s="2" t="s">
         <v>174</v>
       </c>
       <c r="I192" s="8" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="J192" s="3"/>
       <c r="K192" s="1" t="n">
@@ -17955,13 +17964,13 @@
     </row>
     <row r="193" spans="1:26" outlineLevel="1">
       <c r="A193" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D193" s="5" t="e">
         <v>#NAME?</v>
@@ -17973,13 +17982,13 @@
         <v>25</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H193" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I193" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="J193" s="3"/>
       <c r="K193" s="1" t="n">
@@ -18023,13 +18032,13 @@
     </row>
     <row r="194" spans="1:26" outlineLevel="1">
       <c r="A194" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D194" s="5" t="e">
         <v>#NAME?</v>
@@ -18041,16 +18050,16 @@
         <v>25</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H194" s="2" t="s">
         <v>174</v>
       </c>
       <c r="I194" s="3" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="J194" s="3" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="K194" s="1" t="n">
         <v>1</v>
@@ -18093,13 +18102,13 @@
     </row>
     <row r="195" spans="1:26" outlineLevel="1">
       <c r="A195" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D195" s="5" t="e">
         <v>#NAME?</v>
@@ -18111,13 +18120,13 @@
         <v>25</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H195" s="2" t="s">
         <v>174</v>
       </c>
       <c r="I195" s="3" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="J195" s="3"/>
       <c r="K195" s="1" t="n">
@@ -18161,13 +18170,13 @@
     </row>
     <row r="196" spans="1:26" outlineLevel="1">
       <c r="A196" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D196" s="5" t="e">
         <v>#NAME?</v>
@@ -18185,7 +18194,7 @@
         <v>174</v>
       </c>
       <c r="I196" s="3" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J196" s="3"/>
       <c r="K196" s="1" t="n">
@@ -18229,13 +18238,13 @@
     </row>
     <row r="197" spans="1:26">
       <c r="A197" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D197" s="5" t="e">
         <v>#NAME?</v>
@@ -18245,13 +18254,13 @@
         <v>32</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H197" s="2" t="s">
         <v>132</v>
       </c>
       <c r="I197" s="3" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J197" s="3"/>
       <c r="K197" s="1"/>
@@ -18291,13 +18300,13 @@
     </row>
     <row r="198" spans="1:26" outlineLevel="1">
       <c r="A198" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D198" s="5" t="e">
         <v>#NAME?</v>
@@ -18311,7 +18320,7 @@
         <v>132</v>
       </c>
       <c r="I198" s="3" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="J198" s="3"/>
       <c r="K198" s="1"/>
@@ -18351,31 +18360,31 @@
     </row>
     <row r="199" spans="1:26" outlineLevel="1">
       <c r="A199" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D199" s="5" t="e">
         <v>#NAME?</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H199" s="2" t="s">
         <v>530</v>
       </c>
       <c r="I199" s="3" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="J199" s="3"/>
       <c r="K199" s="1" t="n">
@@ -18419,13 +18428,13 @@
     </row>
     <row r="200" spans="1:26" outlineLevel="1">
       <c r="A200" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D200" s="5" t="e">
         <v>#NAME?</v>
@@ -18441,7 +18450,7 @@
         <v>27</v>
       </c>
       <c r="I200" s="3" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="J200" s="1"/>
       <c r="K200" s="6"/>
@@ -18481,13 +18490,13 @@
     </row>
     <row r="201" spans="1:26" outlineLevel="1">
       <c r="A201" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D201" s="5" t="e">
         <v>#NAME?</v>
@@ -18499,13 +18508,13 @@
         <v>25</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H201" s="2" t="s">
         <v>77</v>
       </c>
       <c r="I201" s="3" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="J201" s="1"/>
       <c r="K201" s="6" t="n">
@@ -18549,31 +18558,31 @@
     </row>
     <row r="202" spans="1:26" outlineLevel="1">
       <c r="A202" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D202" s="5" t="e">
         <v>#NAME?</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H202" s="2" t="s">
         <v>77</v>
       </c>
       <c r="I202" s="3" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="J202" s="1"/>
       <c r="K202" s="6" t="n">
@@ -18617,13 +18626,13 @@
     </row>
     <row r="203" spans="1:26" outlineLevel="1">
       <c r="A203" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D203" s="5" t="e">
         <v>#NAME?</v>
@@ -18635,17 +18644,17 @@
         <v>25</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="I203" s="3" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="J203" s="3"/>
       <c r="K203" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L203" s="1" t="n">
         <v>4</v>
@@ -18685,7 +18694,7 @@
     </row>
     <row r="204" spans="1:26" outlineLevel="1">
       <c r="A204" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B204" s="1" t="str">
         <f>A204</f>
@@ -18738,13 +18747,13 @@
     </row>
     <row r="205" spans="1:26" outlineLevel="1">
       <c r="A205" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D205" s="5" t="e">
         <v>#NAME?</v>
@@ -18754,13 +18763,13 @@
         <v>32</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H205" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I205" s="3" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="J205" s="3"/>
       <c r="K205" s="1"/>
@@ -18800,13 +18809,13 @@
     </row>
     <row r="206" spans="1:26" outlineLevel="1">
       <c r="A206" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D206" s="5" t="e">
         <v>#NAME?</v>
@@ -18820,7 +18829,7 @@
         <v>117</v>
       </c>
       <c r="I206" s="3" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="J206" s="3"/>
       <c r="K206" s="1"/>
@@ -18860,13 +18869,13 @@
     </row>
     <row r="207" spans="1:26" outlineLevel="1">
       <c r="A207" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D207" s="5" t="e">
         <v>#NAME?</v>
@@ -18876,13 +18885,13 @@
         <v>32</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H207" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I207" s="3" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="J207" s="3"/>
       <c r="K207" s="1"/>
@@ -18922,13 +18931,13 @@
     </row>
     <row r="208" spans="1:26" outlineLevel="1">
       <c r="A208" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D208" s="5" t="e">
         <v>#NAME?</v>
@@ -18944,7 +18953,7 @@
         <v>127</v>
       </c>
       <c r="I208" s="3" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="J208" s="3"/>
       <c r="K208" s="1"/>
@@ -18984,37 +18993,37 @@
     </row>
     <row r="209" spans="1:26" outlineLevel="1">
       <c r="A209" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D209" s="5" t="e">
         <v>#NAME?</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H209" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I209" s="3" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="J209" s="3" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="K209" s="6" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="L209" s="6" t="n">
         <v>8</v>
@@ -19054,35 +19063,35 @@
     </row>
     <row r="210" spans="1:26" outlineLevel="1">
       <c r="A210" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D210" s="5" t="e">
         <v>#NAME?</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H210" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I210" s="3" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="J210" s="3"/>
       <c r="K210" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="L210" s="1" t="n">
         <v>6</v>
@@ -19122,13 +19131,13 @@
     </row>
     <row r="211" spans="1:26" outlineLevel="1">
       <c r="A211" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D211" s="5" t="e">
         <v>#NAME?</v>
@@ -19142,7 +19151,7 @@
         <v>127</v>
       </c>
       <c r="I211" s="3" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="J211" s="3"/>
       <c r="K211" s="1"/>
@@ -19182,13 +19191,13 @@
     </row>
     <row r="212" spans="1:26" outlineLevel="1">
       <c r="A212" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D212" s="5" t="e">
         <v>#NAME?</v>
@@ -19200,13 +19209,13 @@
         <v>25</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H212" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I212" s="3" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="J212" s="3"/>
       <c r="K212" s="1" t="n">
@@ -19250,13 +19259,13 @@
     </row>
     <row r="213" spans="1:26" outlineLevel="1">
       <c r="A213" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D213" s="5" t="e">
         <v>#NAME?</v>
@@ -19268,13 +19277,13 @@
         <v>25</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H213" s="2" t="s">
         <v>174</v>
       </c>
       <c r="I213" s="3" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="J213" s="3"/>
       <c r="K213" s="1" t="n">
@@ -19318,13 +19327,13 @@
     </row>
     <row r="214" spans="1:26" outlineLevel="1">
       <c r="A214" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D214" s="5" t="e">
         <v>#NAME?</v>
@@ -19340,7 +19349,7 @@
         <v>174</v>
       </c>
       <c r="I214" s="3" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="J214" s="3"/>
       <c r="K214" s="1"/>
@@ -19380,13 +19389,13 @@
     </row>
     <row r="215" spans="1:26" outlineLevel="1">
       <c r="A215" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D215" s="5" t="e">
         <v>#NAME?</v>
@@ -19398,13 +19407,13 @@
         <v>25</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H215" s="2" t="s">
         <v>155</v>
       </c>
       <c r="I215" s="3" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="J215" s="3"/>
       <c r="K215" s="1" t="n">
@@ -19448,13 +19457,13 @@
     </row>
     <row r="216" spans="1:26" outlineLevel="1">
       <c r="A216" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D216" s="5" t="e">
         <v>#NAME?</v>
@@ -19466,13 +19475,13 @@
         <v>25</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H216" s="2" t="s">
         <v>132</v>
       </c>
       <c r="I216" s="3" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="J216" s="1"/>
       <c r="K216" s="6" t="n">
@@ -19516,13 +19525,13 @@
     </row>
     <row r="217" spans="1:26" outlineLevel="1">
       <c r="A217" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="D217" s="5" t="e">
         <v>#NAME?</v>
@@ -19534,13 +19543,13 @@
         <v>25</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H217" s="2" t="s">
         <v>155</v>
       </c>
       <c r="I217" s="3" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="J217" s="1"/>
       <c r="K217" s="6" t="n">
@@ -19584,16 +19593,16 @@
     </row>
     <row r="218" spans="1:26" outlineLevel="1">
       <c r="A218" s="1" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="E218" s="1"/>
       <c r="F218" s="1" t="s">
@@ -19606,7 +19615,7 @@
         <v>127</v>
       </c>
       <c r="I218" s="3" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="J218" s="3"/>
       <c r="K218" s="1"/>
@@ -19646,13 +19655,13 @@
     </row>
     <row r="219" spans="1:26" outlineLevel="1">
       <c r="A219" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D219" s="5" t="e">
         <v>#NAME?</v>
@@ -19664,13 +19673,13 @@
         <v>25</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H219" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I219" s="3" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="J219" s="1"/>
       <c r="K219" s="6" t="n">
@@ -19714,13 +19723,13 @@
     </row>
     <row r="220" spans="1:26" outlineLevel="1">
       <c r="A220" s="1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D220" s="5" t="e">
         <v>#NAME?</v>
@@ -19736,7 +19745,7 @@
         <v>174</v>
       </c>
       <c r="I220" s="3" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="J220" s="3"/>
       <c r="K220" s="1"/>
@@ -19776,31 +19785,31 @@
     </row>
     <row r="221" spans="1:26" outlineLevel="1">
       <c r="A221" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D221" s="5" t="e">
         <v>#NAME?</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H221" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I221" s="3" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="J221" s="3"/>
       <c r="K221" s="1" t="n">
@@ -19844,13 +19853,13 @@
     </row>
     <row r="222" spans="1:26" outlineLevel="1">
       <c r="A222" s="1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D222" s="5" t="e">
         <v>#NAME?</v>
@@ -19862,13 +19871,13 @@
         <v>25</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H222" s="2" t="s">
         <v>174</v>
       </c>
       <c r="I222" s="3" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="J222" s="3"/>
       <c r="K222" s="1" t="n">
@@ -19912,13 +19921,13 @@
     </row>
     <row r="223" spans="1:26">
       <c r="A223" s="1" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D223" s="5" t="e">
         <v>#NAME?</v>
@@ -19930,13 +19939,13 @@
         <v>25</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H223" s="2" t="s">
         <v>155</v>
       </c>
       <c r="I223" s="3" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="J223" s="3"/>
       <c r="K223" s="1" t="n">
@@ -19980,16 +19989,16 @@
     </row>
     <row r="224" spans="1:26" outlineLevel="1">
       <c r="A224" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="E224" s="1"/>
       <c r="F224" s="1" t="s">
@@ -20000,7 +20009,7 @@
       </c>
       <c r="H224" s="2"/>
       <c r="I224" s="3" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="J224" s="3"/>
       <c r="K224" s="1"/>
@@ -20040,10 +20049,10 @@
     </row>
     <row r="225" spans="1:26" outlineLevel="1">
       <c r="A225" s="7" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>53</v>
@@ -20056,16 +20065,16 @@
         <v>70</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H225" s="2" t="s">
         <v>77</v>
       </c>
       <c r="I225" s="3" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="J225" s="3" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="K225" s="1"/>
       <c r="L225" s="1"/>
@@ -20104,35 +20113,35 @@
     </row>
     <row r="226" spans="1:26" outlineLevel="1">
       <c r="A226" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D226" s="5" t="e">
         <v>#NAME?</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>90</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H226" s="2" t="s">
         <v>77</v>
       </c>
       <c r="I226" s="3" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="J226" s="1"/>
       <c r="K226" s="3" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="L226" s="1" t="n">
         <v>10</v>
@@ -20172,13 +20181,13 @@
     </row>
     <row r="227" spans="1:26" outlineLevel="1">
       <c r="A227" s="1" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D227" s="5" t="e">
         <v>#NAME?</v>
@@ -20188,13 +20197,13 @@
         <v>83</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H227" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I227" s="3" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="J227" s="3"/>
       <c r="K227" s="1"/>
@@ -20234,31 +20243,31 @@
     </row>
     <row r="228" spans="1:26" outlineLevel="1">
       <c r="A228" s="1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D228" s="5" t="e">
         <v>#NAME?</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H228" s="2" t="s">
         <v>77</v>
       </c>
       <c r="I228" s="3" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="J228" s="3"/>
       <c r="K228" s="1" t="n">
@@ -20302,13 +20311,13 @@
     </row>
     <row r="229" spans="1:26" outlineLevel="1">
       <c r="A229" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D229" s="5" t="e">
         <v>#NAME?</v>
@@ -20322,7 +20331,7 @@
         <v>77</v>
       </c>
       <c r="I229" s="3" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="J229" s="3"/>
       <c r="K229" s="1"/>
@@ -20362,13 +20371,13 @@
     </row>
     <row r="230" spans="1:26" outlineLevel="1">
       <c r="A230" s="1" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D230" s="5" t="e">
         <v>#NAME?</v>
@@ -20384,7 +20393,7 @@
         <v>77</v>
       </c>
       <c r="I230" s="3" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="J230" s="3"/>
       <c r="K230" s="1"/>
@@ -20424,13 +20433,13 @@
     </row>
     <row r="231" spans="1:26" outlineLevel="1">
       <c r="A231" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="D231" s="5" t="e">
         <v>#NAME?</v>
@@ -20442,13 +20451,13 @@
         <v>25</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H231" s="2" t="s">
         <v>117</v>
       </c>
       <c r="I231" s="3" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="J231" s="3"/>
       <c r="K231" s="1" t="n">
@@ -20492,13 +20501,13 @@
     </row>
     <row r="232" spans="1:26" outlineLevel="1">
       <c r="A232" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="D232" s="5" t="e">
         <v>#NAME?</v>
@@ -20510,13 +20519,13 @@
         <v>25</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="H232" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I232" s="3" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="J232" s="1"/>
       <c r="K232" s="6" t="n">
@@ -20560,13 +20569,13 @@
     </row>
     <row r="233" spans="1:26" outlineLevel="1">
       <c r="A233" s="1" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="D233" s="5" t="e">
         <v>#NAME?</v>
@@ -20582,7 +20591,7 @@
         <v>117</v>
       </c>
       <c r="I233" s="3" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="J233" s="3"/>
       <c r="K233" s="1"/>
@@ -20622,31 +20631,31 @@
     </row>
     <row r="234" spans="1:26" outlineLevel="1">
       <c r="A234" s="1" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="D234" s="5" t="e">
         <v>#NAME?</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H234" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I234" s="3" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="J234" s="1"/>
       <c r="K234" s="6" t="n">
@@ -20690,31 +20699,31 @@
     </row>
     <row r="235" spans="1:26" outlineLevel="1">
       <c r="A235" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="D235" s="5" t="e">
         <v>#NAME?</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H235" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I235" s="3" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="J235" s="1"/>
       <c r="K235" s="6" t="n">
@@ -20758,13 +20767,13 @@
     </row>
     <row r="236" spans="1:26" outlineLevel="1">
       <c r="A236" s="1" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D236" s="5" t="e">
         <v>#NAME?</v>
@@ -20774,13 +20783,13 @@
         <v>25</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H236" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I236" s="3" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="J236" s="3"/>
       <c r="K236" s="1"/>
@@ -20820,13 +20829,13 @@
     </row>
     <row r="237" spans="1:26" outlineLevel="1">
       <c r="A237" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="D237" s="5" t="e">
         <v>#NAME?</v>
@@ -20836,13 +20845,13 @@
         <v>25</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H237" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I237" s="3" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="J237" s="3"/>
       <c r="K237" s="1"/>
@@ -20882,13 +20891,13 @@
     </row>
     <row r="238" spans="1:26" outlineLevel="1">
       <c r="A238" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D238" s="5" t="e">
         <v>#NAME?</v>
@@ -20904,7 +20913,7 @@
         <v>127</v>
       </c>
       <c r="I238" s="3" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="J238" s="3"/>
       <c r="K238" s="1"/>
@@ -20944,10 +20953,10 @@
     </row>
     <row r="239" spans="1:26" outlineLevel="1">
       <c r="A239" s="1" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>295</v>
@@ -20962,13 +20971,13 @@
         <v>25</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H239" s="2" t="s">
         <v>174</v>
       </c>
       <c r="I239" s="8" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="J239" s="3"/>
       <c r="K239" s="1" t="n">
@@ -21012,13 +21021,13 @@
     </row>
     <row r="240" spans="1:26" outlineLevel="1">
       <c r="A240" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="D240" s="5" t="e">
         <v>#NAME?</v>
@@ -21030,16 +21039,16 @@
         <v>25</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H240" s="2" t="s">
         <v>155</v>
       </c>
       <c r="I240" s="3" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="J240" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="K240" s="6" t="n">
         <v>4</v>
@@ -21082,13 +21091,13 @@
     </row>
     <row r="241" spans="1:26" outlineLevel="1">
       <c r="A241" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D241" s="5" t="e">
         <v>#NAME?</v>
@@ -21100,16 +21109,16 @@
         <v>25</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H241" s="2" t="s">
         <v>155</v>
       </c>
       <c r="I241" s="3" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="J241" s="3" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="K241" s="6" t="n">
         <v>3</v>
@@ -21152,13 +21161,13 @@
     </row>
     <row r="242" spans="1:26" outlineLevel="1">
       <c r="A242" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="D242" s="5" t="e">
         <v>#NAME?</v>
@@ -21174,7 +21183,7 @@
         <v>155</v>
       </c>
       <c r="I242" s="3" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="J242" s="3"/>
       <c r="K242" s="1"/>
@@ -21214,13 +21223,13 @@
     </row>
     <row r="243" spans="1:26" outlineLevel="1">
       <c r="A243" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="D243" s="5" t="e">
         <v>#NAME?</v>
@@ -21230,13 +21239,13 @@
         <v>25</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H243" s="2" t="s">
         <v>155</v>
       </c>
       <c r="I243" s="3" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="J243" s="3"/>
       <c r="K243" s="1"/>
@@ -21276,10 +21285,10 @@
     </row>
     <row r="244" spans="1:26" outlineLevel="1">
       <c r="A244" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>53</v>
@@ -21294,13 +21303,13 @@
         <v>25</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H244" s="2" t="s">
         <v>174</v>
       </c>
       <c r="I244" s="8" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="J244" s="3"/>
       <c r="K244" s="1" t="n">
@@ -21344,13 +21353,13 @@
     </row>
     <row r="245" spans="1:26" outlineLevel="1">
       <c r="A245" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D245" s="5" t="e">
         <v>#NAME?</v>
@@ -21359,16 +21368,16 @@
         <v>48</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="H245" s="2" t="s">
         <v>132</v>
       </c>
       <c r="I245" s="3" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="J245" s="3"/>
       <c r="K245" s="1" t="n">
@@ -21412,10 +21421,10 @@
     </row>
     <row r="246" spans="1:26" outlineLevel="1">
       <c r="A246" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>53</v>
@@ -21430,13 +21439,13 @@
         <v>25</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H246" s="2" t="s">
         <v>174</v>
       </c>
       <c r="I246" s="3" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="J246" s="3"/>
       <c r="K246" s="1" t="n">
@@ -21480,13 +21489,13 @@
     </row>
     <row r="247" spans="1:26" outlineLevel="1">
       <c r="A247" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D247" s="5" t="e">
         <v>#NAME?</v>
@@ -21498,13 +21507,13 @@
         <v>25</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H247" s="2" t="s">
         <v>174</v>
       </c>
       <c r="I247" s="3" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="J247" s="3"/>
       <c r="K247" s="1" t="n">
@@ -21548,13 +21557,13 @@
     </row>
     <row r="248" spans="1:26" outlineLevel="1">
       <c r="A248" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D248" s="5" t="e">
         <v>#NAME?</v>
@@ -21566,13 +21575,13 @@
         <v>90</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="H248" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I248" s="3" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="J248" s="3"/>
       <c r="K248" s="1" t="n">
@@ -21616,10 +21625,10 @@
     </row>
     <row r="249" spans="1:26">
       <c r="A249" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>53</v>
@@ -21632,13 +21641,13 @@
         <v>25</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H249" s="2" t="s">
         <v>132</v>
       </c>
       <c r="I249" s="3" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="J249" s="3"/>
       <c r="K249" s="1"/>
@@ -21678,13 +21687,13 @@
     </row>
     <row r="250" spans="1:26" outlineLevel="1">
       <c r="A250" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D250" s="5" t="e">
         <v>#NAME?</v>
@@ -21694,16 +21703,16 @@
         <v>32</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="H250" s="2" t="s">
         <v>132</v>
       </c>
       <c r="I250" s="3" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="J250" s="3" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="K250" s="1"/>
       <c r="L250" s="1"/>
@@ -21742,10 +21751,10 @@
     </row>
     <row r="251" spans="1:26" outlineLevel="1">
       <c r="A251" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>295</v>
@@ -21760,16 +21769,16 @@
         <v>70</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="H251" s="2" t="s">
         <v>92</v>
       </c>
       <c r="I251" s="3" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="J251" s="3" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="K251" s="1" t="n">
         <v>1</v>
@@ -21812,13 +21821,13 @@
     </row>
     <row r="252" spans="1:26" outlineLevel="1">
       <c r="A252" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D252" s="5" t="e">
         <v>#NAME?</v>
@@ -21828,13 +21837,13 @@
         <v>83</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="H252" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I252" s="3" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="J252" s="3"/>
       <c r="K252" s="1"/>
@@ -21874,13 +21883,13 @@
     </row>
     <row r="253" spans="1:26" outlineLevel="1">
       <c r="A253" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D253" s="5" t="e">
         <v>#NAME?</v>
@@ -21894,7 +21903,7 @@
         <v>9</v>
       </c>
       <c r="I253" s="3" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="J253" s="3"/>
       <c r="K253" s="1"/>
@@ -21934,10 +21943,10 @@
     </row>
     <row r="254" spans="1:26" outlineLevel="1">
       <c r="A254" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B254" s="12" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>295</v>
@@ -21954,7 +21963,7 @@
         <v>77</v>
       </c>
       <c r="I254" s="3" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="J254" s="3"/>
       <c r="K254" s="1"/>
@@ -21994,13 +22003,13 @@
     </row>
     <row r="255" spans="1:26" outlineLevel="1">
       <c r="A255" s="1" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="D255" s="5" t="e">
         <v>#NAME?</v>
@@ -22012,13 +22021,13 @@
         <v>25</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="H255" s="2" t="s">
         <v>77</v>
       </c>
       <c r="I255" s="3" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="J255" s="3"/>
       <c r="K255" s="1" t="n">
@@ -22062,10 +22071,10 @@
     </row>
     <row r="256" spans="1:26" outlineLevel="1">
       <c r="A256" s="1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>53</v>
@@ -22086,7 +22095,7 @@
         <v>127</v>
       </c>
       <c r="I256" s="3" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="J256" s="3"/>
       <c r="K256" s="1" t="n">
@@ -22130,10 +22139,10 @@
     </row>
     <row r="257" spans="1:26" outlineLevel="1">
       <c r="A257" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>295</v>
@@ -22150,10 +22159,10 @@
         <v>127</v>
       </c>
       <c r="I257" s="3" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="J257" s="3" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="K257" s="1"/>
       <c r="L257" s="1"/>
@@ -22192,13 +22201,13 @@
     </row>
     <row r="258" spans="1:26" outlineLevel="1">
       <c r="A258" s="1" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="D258" s="5" t="e">
         <v>#NAME?</v>
@@ -22208,13 +22217,13 @@
         <v>25</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="H258" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I258" s="3" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="J258" s="3"/>
       <c r="K258" s="1"/>
@@ -22254,10 +22263,10 @@
     </row>
     <row r="259" spans="1:26" outlineLevel="1">
       <c r="A259" s="1" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>53</v>
@@ -22272,16 +22281,16 @@
         <v>25</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="H259" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I259" s="3" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="J259" s="3" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="K259" s="1" t="n">
         <v>2</v>
@@ -22324,13 +22333,13 @@
     </row>
     <row r="260" spans="1:26" outlineLevel="1">
       <c r="A260" s="1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="D260" s="5" t="e">
         <v>#NAME?</v>
@@ -22342,16 +22351,16 @@
         <v>25</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="H260" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I260" s="3" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="J260" s="3" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="K260" s="1" t="n">
         <v>3</v>
@@ -22394,13 +22403,13 @@
     </row>
     <row r="261" spans="1:26" outlineLevel="1">
       <c r="A261" s="1" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D261" s="5" t="e">
         <v>#NAME?</v>
@@ -22414,7 +22423,7 @@
         <v>127</v>
       </c>
       <c r="I261" s="3" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="J261" s="3"/>
       <c r="K261" s="1"/>
@@ -22454,10 +22463,10 @@
     </row>
     <row r="262" spans="1:26" outlineLevel="1">
       <c r="A262" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>58</v>
@@ -22472,13 +22481,13 @@
         <v>25</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H262" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I262" s="3" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="J262" s="3"/>
       <c r="K262" s="1" t="n">
@@ -22522,13 +22531,13 @@
     </row>
     <row r="263" spans="1:26" outlineLevel="1">
       <c r="A263" s="1" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D263" s="5" t="e">
         <v>#NAME?</v>
@@ -22540,13 +22549,13 @@
         <v>25</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H263" s="2" t="s">
         <v>530</v>
       </c>
       <c r="I263" s="3" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="J263" s="3"/>
       <c r="K263" s="1" t="n">
@@ -22590,13 +22599,13 @@
     </row>
     <row r="264" spans="1:26" outlineLevel="1">
       <c r="A264" s="1" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="D264" s="5" t="e">
         <v>#NAME?</v>
@@ -22608,13 +22617,13 @@
         <v>25</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H264" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I264" s="3" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="J264" s="3"/>
       <c r="K264" s="1" t="n">
@@ -22658,13 +22667,13 @@
     </row>
     <row r="265" spans="1:26" outlineLevel="1">
       <c r="A265" s="1" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="D265" s="5" t="e">
         <v>#NAME?</v>
@@ -22676,16 +22685,16 @@
         <v>25</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="H265" s="2" t="s">
         <v>174</v>
       </c>
       <c r="I265" s="3" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="J265" s="3" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="K265" s="1" t="n">
         <v>3</v>
@@ -22728,13 +22737,13 @@
     </row>
     <row r="266" spans="1:26" outlineLevel="1">
       <c r="A266" s="1" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D266" s="5" t="e">
         <v>#NAME?</v>
@@ -22750,7 +22759,7 @@
         <v>182</v>
       </c>
       <c r="I266" s="3" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="J266" s="3"/>
       <c r="K266" s="1"/>
@@ -22790,16 +22799,16 @@
     </row>
     <row r="267" spans="1:26" outlineLevel="1">
       <c r="A267" s="1" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C267" s="4" t="n">
         <v>0</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>48</v>
@@ -22808,13 +22817,13 @@
         <v>25</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="H267" s="2" t="s">
         <v>174</v>
       </c>
       <c r="I267" s="3" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="J267" s="3"/>
       <c r="K267" s="1" t="n">
@@ -22858,13 +22867,13 @@
     </row>
     <row r="268" spans="1:26" outlineLevel="1">
       <c r="A268" s="1" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="D268" s="5" t="e">
         <v>#NAME?</v>
@@ -22880,10 +22889,10 @@
         <v>182</v>
       </c>
       <c r="I268" s="3" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="J268" s="3" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="K268" s="1"/>
       <c r="L268" s="1"/>
@@ -22922,10 +22931,10 @@
     </row>
     <row r="269" spans="1:26" outlineLevel="1">
       <c r="A269" s="1" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>58</v>
@@ -22946,7 +22955,7 @@
         <v>182</v>
       </c>
       <c r="I269" s="3" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="J269" s="3"/>
       <c r="K269" s="1" t="n">
@@ -22990,10 +22999,10 @@
     </row>
     <row r="270" spans="1:26" outlineLevel="1">
       <c r="A270" s="1" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>295</v>
@@ -23008,7 +23017,7 @@
         <v>25</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H270" s="2" t="s">
         <v>174</v>
@@ -23056,10 +23065,10 @@
     </row>
     <row r="271" spans="1:26" outlineLevel="1">
       <c r="A271" s="1" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C271" s="4" t="s">
         <v>295</v>
@@ -23074,13 +23083,13 @@
         <v>25</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="H271" s="2" t="s">
         <v>155</v>
       </c>
       <c r="I271" s="3" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="J271" s="3"/>
       <c r="K271" s="1" t="n">
@@ -23124,13 +23133,13 @@
     </row>
     <row r="272" spans="1:26" outlineLevel="1">
       <c r="A272" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="D272" s="5" t="e">
         <v>#NAME?</v>
@@ -23148,7 +23157,7 @@
         <v>174</v>
       </c>
       <c r="I272" s="3" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="J272" s="3"/>
       <c r="K272" s="1" t="n">
@@ -23192,10 +23201,10 @@
     </row>
     <row r="273" spans="1:26" outlineLevel="1">
       <c r="A273" s="1" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>295</v>
@@ -23208,21 +23217,21 @@
         <v>32</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H273" s="2" t="s">
         <v>155</v>
       </c>
       <c r="I273" s="3" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="J273" s="3" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="K273" s="1"/>
       <c r="L273" s="1"/>
       <c r="M273" s="3" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="N273" s="1"/>
       <c r="O273" s="3"/>
@@ -23258,13 +23267,13 @@
     </row>
     <row r="274" spans="1:26" outlineLevel="1">
       <c r="A274" s="1" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B274" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="D274" s="5" t="e">
         <v>#NAME?</v>
@@ -23278,7 +23287,7 @@
         <v>132</v>
       </c>
       <c r="I274" s="3" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="J274" s="3"/>
       <c r="K274" s="1"/>
@@ -23318,7 +23327,7 @@
     </row>
     <row r="275" spans="1:26" outlineLevel="1">
       <c r="A275" s="1" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B275" s="1" t="str">
         <f>A275</f>
@@ -23371,7 +23380,7 @@
     </row>
     <row r="276" spans="1:26">
       <c r="A276" s="1" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B276" s="1" t="str">
         <f>A276</f>
@@ -23424,13 +23433,13 @@
     </row>
     <row r="277" spans="1:26" outlineLevel="1">
       <c r="A277" s="7" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D277" s="5" t="e">
         <v>#NAME?</v>
@@ -23440,16 +23449,16 @@
         <v>70</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="H277" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I277" s="3" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="J277" s="9" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="K277" s="6"/>
       <c r="L277" s="6"/>
@@ -23488,13 +23497,13 @@
     </row>
     <row r="278" spans="1:26" outlineLevel="1">
       <c r="A278" s="1" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="D278" s="5" t="e">
         <v>#NAME?</v>
@@ -23510,7 +23519,7 @@
         <v>27</v>
       </c>
       <c r="I278" s="9" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="J278" s="3"/>
       <c r="K278" s="1"/>
@@ -23550,13 +23559,13 @@
     </row>
     <row r="279" spans="1:26" outlineLevel="1">
       <c r="A279" s="1" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="D279" s="5" t="e">
         <v>#NAME?</v>
@@ -23566,13 +23575,13 @@
         <v>25</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H279" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I279" s="3" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="J279" s="3"/>
       <c r="K279" s="1"/>
@@ -23612,13 +23621,13 @@
     </row>
     <row r="280" spans="1:26" outlineLevel="1">
       <c r="A280" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="D280" s="5" t="e">
         <v>#NAME?</v>
@@ -23628,16 +23637,16 @@
         <v>25</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="H280" s="2" t="s">
         <v>77</v>
       </c>
       <c r="I280" s="3" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="J280" s="3" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="K280" s="1"/>
       <c r="L280" s="1"/>
@@ -23676,13 +23685,13 @@
     </row>
     <row r="281" spans="1:26" outlineLevel="1">
       <c r="A281" s="1" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="D281" s="5" t="e">
         <v>#NAME?</v>
@@ -23696,10 +23705,10 @@
         <v>77</v>
       </c>
       <c r="I281" s="3" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="J281" s="3" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="K281" s="1"/>
       <c r="L281" s="1"/>
@@ -23738,13 +23747,13 @@
     </row>
     <row r="282" spans="1:26" outlineLevel="1">
       <c r="A282" s="1" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="D282" s="5" t="e">
         <v>#NAME?</v>
@@ -23758,7 +23767,7 @@
         <v>92</v>
       </c>
       <c r="I282" s="3" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="J282" s="3"/>
       <c r="K282" s="1"/>
@@ -23798,13 +23807,13 @@
     </row>
     <row r="283" spans="1:26" outlineLevel="1">
       <c r="A283" s="1" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="D283" s="5" t="e">
         <v>#NAME?</v>
@@ -23814,13 +23823,13 @@
         <v>25</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="H283" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I283" s="3" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="J283" s="3"/>
       <c r="K283" s="1" t="s">
@@ -23864,13 +23873,13 @@
     </row>
     <row r="284" spans="1:26" outlineLevel="1">
       <c r="A284" s="1" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="D284" s="5" t="e">
         <v>#NAME?</v>
@@ -23886,7 +23895,7 @@
         <v>127</v>
       </c>
       <c r="I284" s="3" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="J284" s="3"/>
       <c r="K284" s="1"/>
@@ -23926,13 +23935,13 @@
     </row>
     <row r="285" spans="1:26" outlineLevel="1">
       <c r="A285" s="1" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="D285" s="5" t="e">
         <v>#NAME?</v>
@@ -23948,7 +23957,7 @@
         <v>117</v>
       </c>
       <c r="I285" s="3" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="J285" s="3"/>
       <c r="K285" s="1"/>
@@ -23988,13 +23997,13 @@
     </row>
     <row r="286" spans="1:26" outlineLevel="1">
       <c r="A286" s="1" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D286" s="5" t="e">
         <v>#NAME?</v>
@@ -24012,7 +24021,7 @@
         <v>127</v>
       </c>
       <c r="I286" s="3" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="J286" s="1"/>
       <c r="K286" s="6" t="n">
@@ -24056,13 +24065,13 @@
     </row>
     <row r="287" spans="1:26" outlineLevel="1">
       <c r="A287" s="1" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="D287" s="5" t="e">
         <v>#NAME?</v>
@@ -24076,7 +24085,7 @@
         <v>530</v>
       </c>
       <c r="I287" s="3" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="J287" s="3"/>
       <c r="K287" s="1"/>
@@ -24116,13 +24125,13 @@
     </row>
     <row r="288" spans="1:26" outlineLevel="1">
       <c r="A288" s="1" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="D288" s="5" t="e">
         <v>#NAME?</v>
@@ -24138,10 +24147,10 @@
         <v>127</v>
       </c>
       <c r="I288" s="3" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="J288" s="3" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="K288" s="1"/>
       <c r="L288" s="1"/>
@@ -24180,13 +24189,13 @@
     </row>
     <row r="289" spans="1:26" outlineLevel="1">
       <c r="A289" s="1" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="D289" s="5" t="e">
         <v>#NAME?</v>
@@ -24202,7 +24211,7 @@
         <v>127</v>
       </c>
       <c r="I289" s="3" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="J289" s="3"/>
       <c r="K289" s="1"/>
@@ -24242,13 +24251,13 @@
     </row>
     <row r="290" spans="1:26" outlineLevel="1">
       <c r="A290" s="1" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="D290" s="5" t="e">
         <v>#NAME?</v>
@@ -24260,16 +24269,16 @@
         <v>25</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="H290" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I290" s="3" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="J290" s="3" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="K290" s="1" t="n">
         <v>5</v>
@@ -24312,13 +24321,13 @@
     </row>
     <row r="291" spans="1:26" outlineLevel="1">
       <c r="A291" s="1" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D291" s="5" t="e">
         <v>#NAME?</v>
@@ -24334,7 +24343,7 @@
         <v>127</v>
       </c>
       <c r="I291" s="3" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="J291" s="1"/>
       <c r="K291" s="1" t="s">
@@ -24378,13 +24387,13 @@
     </row>
     <row r="292" spans="1:26" outlineLevel="1">
       <c r="A292" s="1" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="D292" s="5" t="e">
         <v>#NAME?</v>
@@ -24396,7 +24405,7 @@
         <v>25</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="H292" s="2" t="s">
         <v>174</v>
@@ -24444,13 +24453,13 @@
     </row>
     <row r="293" spans="1:26" outlineLevel="1">
       <c r="A293" s="1" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="D293" s="5" t="e">
         <v>#NAME?</v>
@@ -24460,16 +24469,16 @@
         <v>32</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="H293" s="2" t="s">
         <v>155</v>
       </c>
       <c r="I293" s="3" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="J293" s="3" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="K293" s="1"/>
       <c r="L293" s="1"/>
@@ -24508,13 +24517,13 @@
     </row>
     <row r="294" spans="1:26" outlineLevel="1">
       <c r="A294" s="1" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D294" s="5" t="e">
         <v>#NAME?</v>
@@ -24524,13 +24533,13 @@
         <v>25</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="H294" s="2" t="s">
         <v>155</v>
       </c>
       <c r="I294" s="3" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="J294" s="3"/>
       <c r="K294" s="1"/>
@@ -24570,13 +24579,13 @@
     </row>
     <row r="295" spans="1:26" outlineLevel="1">
       <c r="A295" s="1" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D295" s="5" t="e">
         <v>#NAME?</v>
@@ -24590,10 +24599,10 @@
         <v>174</v>
       </c>
       <c r="I295" s="3" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="J295" s="3" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="K295" s="1"/>
       <c r="L295" s="1"/>
@@ -24632,13 +24641,13 @@
     </row>
     <row r="296" spans="1:26" outlineLevel="1">
       <c r="A296" s="1" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D296" s="5" t="e">
         <v>#NAME?</v>
@@ -24648,16 +24657,16 @@
         <v>32</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="H296" s="2" t="s">
         <v>174</v>
       </c>
       <c r="I296" s="3" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="J296" s="3" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="K296" s="1"/>
       <c r="L296" s="1"/>
@@ -24696,13 +24705,13 @@
     </row>
     <row r="297" spans="1:26" outlineLevel="1">
       <c r="A297" s="1" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="D297" s="5" t="e">
         <v>#NAME?</v>
@@ -24718,10 +24727,10 @@
         <v>155</v>
       </c>
       <c r="I297" s="3" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="J297" s="3" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="K297" s="1"/>
       <c r="L297" s="1"/>
@@ -24760,13 +24769,13 @@
     </row>
     <row r="298" spans="1:26" outlineLevel="1">
       <c r="A298" s="1" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="D298" s="5" t="e">
         <v>#NAME?</v>
@@ -24778,13 +24787,13 @@
         <v>25</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H298" s="2" t="s">
         <v>174</v>
       </c>
       <c r="I298" s="3" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="J298" s="3"/>
       <c r="K298" s="1" t="n">
@@ -24828,13 +24837,13 @@
     </row>
     <row r="299" spans="1:26" outlineLevel="1">
       <c r="A299" s="1" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D299" s="5" t="e">
         <v>#NAME?</v>
@@ -24846,13 +24855,13 @@
         <v>25</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="H299" s="2" t="s">
         <v>155</v>
       </c>
       <c r="I299" s="3" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="J299" s="3"/>
       <c r="K299" s="1" t="n">
@@ -24896,13 +24905,13 @@
     </row>
     <row r="300" spans="1:26" outlineLevel="1">
       <c r="A300" s="1" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="D300" s="5" t="e">
         <v>#NAME?</v>
@@ -24918,7 +24927,7 @@
         <v>174</v>
       </c>
       <c r="I300" s="3" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="J300" s="3"/>
       <c r="K300" s="1"/>
@@ -24958,13 +24967,13 @@
     </row>
     <row r="301" spans="1:26" outlineLevel="1">
       <c r="A301" s="1" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D301" s="5" t="e">
         <v>#NAME?</v>
@@ -24976,13 +24985,13 @@
         <v>25</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="H301" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I301" s="3" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="J301" s="3"/>
       <c r="K301" s="1" t="n">
@@ -25026,13 +25035,13 @@
     </row>
     <row r="302" spans="1:26" outlineLevel="1">
       <c r="A302" s="1" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>1122</v>
+        <v>1218</v>
       </c>
       <c r="D302" s="5" t="e">
         <v>#NAME?</v>
@@ -25048,7 +25057,7 @@
         <v>132</v>
       </c>
       <c r="I302" s="3" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="J302" s="1"/>
       <c r="K302" s="1"/>
@@ -25088,13 +25097,13 @@
     </row>
     <row r="303" spans="1:26">
       <c r="A303" s="1" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="D303" s="5" t="e">
         <v>#NAME?</v>
@@ -25106,16 +25115,16 @@
         <v>70</v>
       </c>
       <c r="G303" s="1" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="H303" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I303" s="3" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="J303" s="3" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="K303" s="1" t="n">
         <v>5</v>
@@ -25158,13 +25167,13 @@
     </row>
     <row r="304" spans="1:26" outlineLevel="1">
       <c r="A304" s="1" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="D304" s="5" t="e">
         <v>#NAME?</v>
@@ -25180,7 +25189,7 @@
         <v>27</v>
       </c>
       <c r="I304" s="3" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="J304" s="3"/>
       <c r="K304" s="1"/>
@@ -25220,13 +25229,13 @@
     </row>
     <row r="305" spans="1:26" outlineLevel="1">
       <c r="A305" s="1" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="D305" s="5" t="e">
         <v>#NAME?</v>
@@ -25236,16 +25245,16 @@
         <v>25</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="H305" s="2" t="s">
         <v>77</v>
       </c>
       <c r="I305" s="3" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="J305" s="3" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="K305" s="1"/>
       <c r="L305" s="1"/>
@@ -25284,13 +25293,13 @@
     </row>
     <row r="306" spans="1:26" outlineLevel="1">
       <c r="A306" s="1" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="D306" s="5" t="e">
         <v>#NAME?</v>
@@ -25300,13 +25309,13 @@
         <v>25</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="H306" s="2" t="s">
         <v>77</v>
       </c>
       <c r="I306" s="3" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="J306" s="3"/>
       <c r="K306" s="1"/>
@@ -25346,13 +25355,13 @@
     </row>
     <row r="307" spans="1:26" outlineLevel="1">
       <c r="A307" s="1" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="D307" s="5" t="e">
         <v>#NAME?</v>
@@ -25362,13 +25371,13 @@
         <v>32</v>
       </c>
       <c r="G307" s="1" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="H307" s="2" t="s">
         <v>77</v>
       </c>
       <c r="I307" s="3" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="J307" s="3"/>
       <c r="K307" s="1"/>
@@ -25408,13 +25417,13 @@
     </row>
     <row r="308" spans="1:26" outlineLevel="1">
       <c r="A308" s="1" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="D308" s="5" t="e">
         <v>#NAME?</v>
@@ -25430,7 +25439,7 @@
         <v>92</v>
       </c>
       <c r="I308" s="3" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="J308" s="3"/>
       <c r="K308" s="1"/>
@@ -25470,13 +25479,13 @@
     </row>
     <row r="309" spans="1:26" outlineLevel="1">
       <c r="A309" s="1" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>1122</v>
+        <v>1218</v>
       </c>
       <c r="D309" s="5" t="e">
         <v>#NAME?</v>
@@ -25486,16 +25495,16 @@
         <v>32</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="H309" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I309" s="3" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="J309" s="3" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="K309" s="1" t="s">
         <v>29</v>
@@ -25538,13 +25547,13 @@
     </row>
     <row r="310" spans="1:26" outlineLevel="1">
       <c r="A310" s="1" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="D310" s="5" t="e">
         <v>#NAME?</v>
@@ -25554,16 +25563,16 @@
         <v>32</v>
       </c>
       <c r="G310" s="1" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="H310" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I310" s="3" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="J310" s="3" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="K310" s="1"/>
       <c r="L310" s="1"/>
@@ -25602,34 +25611,34 @@
     </row>
     <row r="311" spans="1:26" outlineLevel="1">
       <c r="A311" s="1" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="D311" s="5" t="e">
         <v>#NAME?</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F311" s="1" t="s">
         <v>90</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="H311" s="2" t="s">
         <v>117</v>
       </c>
       <c r="I311" s="3" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="J311" s="3" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="K311" s="1" t="n">
         <v>5</v>
@@ -25672,13 +25681,13 @@
     </row>
     <row r="312" spans="1:26" outlineLevel="1">
       <c r="A312" s="1" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="D312" s="5" t="e">
         <v>#NAME?</v>
@@ -25694,10 +25703,10 @@
         <v>27</v>
       </c>
       <c r="I312" s="3" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="J312" s="3" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="K312" s="1"/>
       <c r="L312" s="1"/>
@@ -25732,13 +25741,13 @@
     </row>
     <row r="313" spans="1:26" outlineLevel="1">
       <c r="A313" s="1" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D313" s="5" t="e">
         <v>#NAME?</v>
@@ -25752,7 +25761,7 @@
         <v>127</v>
       </c>
       <c r="I313" s="3" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="J313" s="3"/>
       <c r="K313" s="1"/>
@@ -25792,13 +25801,13 @@
     </row>
     <row r="314" spans="1:26" outlineLevel="1">
       <c r="A314" s="1" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="D314" s="5" t="e">
         <v>#NAME?</v>
@@ -25810,16 +25819,16 @@
         <v>25</v>
       </c>
       <c r="G314" s="1" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="H314" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I314" s="3" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="J314" s="3" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="K314" s="1" t="n">
         <v>4</v>
@@ -25862,13 +25871,13 @@
     </row>
     <row r="315" spans="1:26" outlineLevel="1">
       <c r="A315" s="1" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="D315" s="5" t="e">
         <v>#NAME?</v>
@@ -25884,7 +25893,7 @@
         <v>127</v>
       </c>
       <c r="I315" s="3" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="J315" s="3"/>
       <c r="K315" s="1"/>
@@ -25924,13 +25933,13 @@
     </row>
     <row r="316" spans="1:26" outlineLevel="1">
       <c r="A316" s="1" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="D316" s="5" t="e">
         <v>#NAME?</v>
@@ -25940,13 +25949,13 @@
         <v>90</v>
       </c>
       <c r="G316" s="1" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="H316" s="2" t="s">
         <v>530</v>
       </c>
       <c r="I316" s="3" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="J316" s="3"/>
       <c r="K316" s="1"/>
@@ -25986,7 +25995,7 @@
     </row>
     <row r="317" spans="1:26" outlineLevel="1">
       <c r="A317" s="1" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="B317" s="1" t="str">
         <f>A317</f>
@@ -26039,7 +26048,7 @@
     </row>
     <row r="318" spans="1:26" outlineLevel="1">
       <c r="A318" s="1" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="B318" s="1" t="str">
         <f>A318</f>
@@ -26092,13 +26101,13 @@
     </row>
     <row r="319" spans="1:26" outlineLevel="1">
       <c r="A319" s="1" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="D319" s="5" t="e">
         <v>#NAME?</v>
@@ -26114,10 +26123,10 @@
         <v>132</v>
       </c>
       <c r="I319" s="3" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="J319" s="3" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="K319" s="1"/>
       <c r="L319" s="1"/>
@@ -26156,13 +26165,13 @@
     </row>
     <row r="320" spans="1:26" outlineLevel="1">
       <c r="A320" s="1" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D320" s="5" t="e">
         <v>#NAME?</v>
@@ -26176,10 +26185,10 @@
         <v>155</v>
       </c>
       <c r="I320" s="3" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="J320" s="3" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="K320" s="1"/>
       <c r="L320" s="1"/>
@@ -26218,13 +26227,13 @@
     </row>
     <row r="321" spans="1:26" outlineLevel="1">
       <c r="A321" s="1" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="D321" s="5" t="e">
         <v>#NAME?</v>
@@ -26238,10 +26247,10 @@
         <v>155</v>
       </c>
       <c r="I321" s="3" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="J321" s="3" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="K321" s="1" t="s">
         <v>29</v>
@@ -26284,13 +26293,13 @@
     </row>
     <row r="322" spans="1:26" outlineLevel="1">
       <c r="A322" s="1" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="D322" s="5" t="e">
         <v>#NAME?</v>
@@ -26302,13 +26311,13 @@
         <v>25</v>
       </c>
       <c r="G322" s="1" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="H322" s="2" t="s">
         <v>174</v>
       </c>
       <c r="I322" s="3" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="J322" s="1"/>
       <c r="K322" s="6" t="n">
@@ -26352,13 +26361,13 @@
     </row>
     <row r="323" spans="1:26" outlineLevel="1">
       <c r="A323" s="1" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D323" s="5" t="e">
         <v>#NAME?</v>
@@ -26374,10 +26383,10 @@
         <v>155</v>
       </c>
       <c r="I323" s="3" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="J323" s="3" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="K323" s="1"/>
       <c r="L323" s="1"/>
@@ -26416,13 +26425,13 @@
     </row>
     <row r="324" spans="1:26" outlineLevel="1">
       <c r="A324" s="1" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="D324" s="5" t="e">
         <v>#NAME?</v>
@@ -26434,13 +26443,13 @@
         <v>25</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="H324" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I324" s="3" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="J324" s="1"/>
       <c r="K324" s="6" t="n">
@@ -26484,13 +26493,13 @@
     </row>
     <row r="325" spans="1:26" outlineLevel="1">
       <c r="A325" s="1" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>1181</v>
+        <v>1306</v>
       </c>
       <c r="D325" s="5" t="e">
         <v>#NAME?</v>
@@ -26500,13 +26509,13 @@
         <v>32</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="H325" s="2" t="s">
         <v>174</v>
       </c>
       <c r="I325" s="3" t="s">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="J325" s="3"/>
       <c r="K325" s="1"/>
@@ -26546,13 +26555,13 @@
     </row>
     <row r="326" spans="1:26" outlineLevel="1">
       <c r="A326" s="1" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D326" s="5" t="e">
         <v>#NAME?</v>
@@ -26564,13 +26573,13 @@
         <v>25</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="H326" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I326" s="3" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="J326" s="3"/>
       <c r="K326" s="1" t="n">
@@ -26614,13 +26623,13 @@
     </row>
     <row r="327" spans="1:26" outlineLevel="1">
       <c r="A327" s="1" t="s">
-        <v>1309</v>
+        <v>1312</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D327" s="5" t="e">
         <v>#NAME?</v>
@@ -26632,13 +26641,13 @@
         <v>25</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="H327" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I327" s="3" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="J327" s="3"/>
       <c r="K327" s="1" t="n">
@@ -26682,7 +26691,7 @@
     </row>
     <row r="328" spans="1:26" outlineLevel="1">
       <c r="A328" s="1" t="s">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="B328" s="1" t="str">
         <f>A328</f>
@@ -26735,7 +26744,7 @@
     </row>
     <row r="329" spans="1:26" outlineLevel="1">
       <c r="A329" s="1" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="B329" s="1" t="str">
         <f>A329</f>
@@ -26788,27 +26797,27 @@
     </row>
     <row r="330" spans="1:26">
       <c r="A330" s="1" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>1316</v>
+        <v>1319</v>
       </c>
       <c r="C330" s="4"/>
       <c r="D330" s="5" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="E330" s="1"/>
       <c r="F330" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="H330" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I330" s="3" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="J330" s="1"/>
       <c r="K330" s="1" t="s">
@@ -26831,7 +26840,7 @@
         <v>#NAME?</v>
       </c>
       <c r="T330" s="1" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="U330" s="1" t="e">
         <v>#NAME?</v>
@@ -26852,10 +26861,10 @@
     </row>
     <row r="331" spans="1:26">
       <c r="A331" s="1" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>1321</v>
+        <v>1324</v>
       </c>
       <c r="C331" s="4"/>
       <c r="D331" s="5" t="s">
@@ -26863,16 +26872,16 @@
       </c>
       <c r="E331" s="1"/>
       <c r="F331" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G331" s="1" t="s">
-        <v>1322</v>
+        <v>1325</v>
       </c>
       <c r="H331" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I331" s="3" t="s">
-        <v>1323</v>
+        <v>1326</v>
       </c>
       <c r="J331" s="1"/>
       <c r="K331" s="1" t="s">
@@ -26916,10 +26925,10 @@
     </row>
     <row r="332" spans="1:26">
       <c r="A332" s="1" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>1325</v>
+        <v>1328</v>
       </c>
       <c r="C332" s="4"/>
       <c r="D332" s="5" t="s">
@@ -26927,7 +26936,7 @@
       </c>
       <c r="E332" s="1"/>
       <c r="F332" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G332" s="1" t="s">
         <v>285</v>
@@ -26936,7 +26945,7 @@
         <v>27</v>
       </c>
       <c r="I332" s="3" t="s">
-        <v>1326</v>
+        <v>1329</v>
       </c>
       <c r="J332" s="1"/>
       <c r="K332" s="1" t="s">
@@ -26980,27 +26989,27 @@
     </row>
     <row r="333" spans="1:26">
       <c r="A333" s="1" t="s">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>1328</v>
+        <v>1331</v>
       </c>
       <c r="C333" s="4"/>
       <c r="D333" s="5" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="E333" s="1"/>
       <c r="F333" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G333" s="1" t="s">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="H333" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I333" s="3" t="s">
-        <v>1330</v>
+        <v>1333</v>
       </c>
       <c r="J333" s="1"/>
       <c r="K333" s="1" t="s">
@@ -27023,7 +27032,7 @@
         <v>#NAME?</v>
       </c>
       <c r="T333" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="U333" s="1" t="e">
         <v>#NAME?</v>
@@ -27044,27 +27053,27 @@
     </row>
     <row r="334" spans="1:26">
       <c r="A334" s="1" t="s">
-        <v>1331</v>
+        <v>1334</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>1332</v>
+        <v>1335</v>
       </c>
       <c r="C334" s="4"/>
       <c r="D334" s="5" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="E334" s="1"/>
       <c r="F334" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G334" s="1" t="s">
-        <v>1333</v>
+        <v>1336</v>
       </c>
       <c r="H334" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I334" s="3" t="s">
-        <v>1334</v>
+        <v>1337</v>
       </c>
       <c r="J334" s="1"/>
       <c r="K334" s="1" t="s">
@@ -27087,7 +27096,7 @@
         <v>#NAME?</v>
       </c>
       <c r="T334" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="U334" s="1" t="e">
         <v>#NAME?</v>
@@ -27108,27 +27117,27 @@
     </row>
     <row r="335" spans="1:26">
       <c r="A335" s="1" t="s">
-        <v>1335</v>
+        <v>1338</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>1336</v>
+        <v>1339</v>
       </c>
       <c r="C335" s="4"/>
       <c r="D335" s="5" t="s">
-        <v>1337</v>
+        <v>1340</v>
       </c>
       <c r="E335" s="1"/>
       <c r="F335" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>1338</v>
+        <v>1341</v>
       </c>
       <c r="H335" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I335" s="3" t="s">
-        <v>1339</v>
+        <v>1342</v>
       </c>
       <c r="J335" s="1"/>
       <c r="K335" s="1" t="s">
@@ -27151,7 +27160,7 @@
         <v>#NAME?</v>
       </c>
       <c r="T335" s="1" t="s">
-        <v>1337</v>
+        <v>1340</v>
       </c>
       <c r="U335" s="1" t="e">
         <v>#NAME?</v>
@@ -27172,25 +27181,25 @@
     </row>
     <row r="336" spans="1:26">
       <c r="A336" s="1" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>1341</v>
+        <v>1344</v>
       </c>
       <c r="C336" s="4"/>
       <c r="D336" s="5"/>
       <c r="E336" s="1"/>
       <c r="F336" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G336" s="1" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="H336" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I336" s="3" t="s">
-        <v>1343</v>
+        <v>1346</v>
       </c>
       <c r="J336" s="1"/>
       <c r="K336" s="1" t="s">
@@ -27232,10 +27241,10 @@
     </row>
     <row r="337" spans="1:26">
       <c r="A337" s="1" t="s">
-        <v>1344</v>
+        <v>1347</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>1345</v>
+        <v>1348</v>
       </c>
       <c r="C337" s="4" t="n">
         <v>2</v>
@@ -27250,16 +27259,16 @@
         <v>70</v>
       </c>
       <c r="G337" s="1" t="s">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="H337" s="2" t="s">
         <v>92</v>
       </c>
       <c r="I337" s="3" t="s">
-        <v>1347</v>
+        <v>1350</v>
       </c>
       <c r="J337" s="3" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="K337" s="1" t="n">
         <v>2</v>
@@ -27302,10 +27311,10 @@
     </row>
     <row r="338" spans="1:26">
       <c r="A338" s="1" t="s">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="C338" s="4" t="n">
         <v>8</v>
@@ -27324,7 +27333,7 @@
         <v>27</v>
       </c>
       <c r="I338" s="3" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="J338" s="3"/>
       <c r="K338" s="1"/>
@@ -27364,10 +27373,10 @@
     </row>
     <row r="339" spans="1:26">
       <c r="A339" s="1" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="C339" s="4"/>
       <c r="D339" s="5" t="e">
@@ -27375,7 +27384,7 @@
       </c>
       <c r="E339" s="1"/>
       <c r="F339" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G339" s="1" t="s">
         <v>329</v>
@@ -27384,10 +27393,10 @@
         <v>77</v>
       </c>
       <c r="I339" s="3" t="s">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="J339" s="3" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="K339" s="1"/>
       <c r="L339" s="1"/>
@@ -27426,10 +27435,10 @@
     </row>
     <row r="340" spans="1:26">
       <c r="A340" s="1" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
       <c r="C340" s="4" t="n">
         <v>3</v>
@@ -27439,16 +27448,16 @@
       </c>
       <c r="E340" s="1"/>
       <c r="F340" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G340" s="1" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="H340" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I340" s="3" t="s">
-        <v>1358</v>
+        <v>1361</v>
       </c>
       <c r="J340" s="3"/>
       <c r="K340" s="1"/>
@@ -27488,10 +27497,10 @@
     </row>
     <row r="341" spans="1:26">
       <c r="A341" s="1" t="s">
-        <v>1359</v>
+        <v>1362</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>1360</v>
+        <v>1363</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>399</v>
@@ -27504,13 +27513,13 @@
         <v>25</v>
       </c>
       <c r="G341" s="1" t="s">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="H341" s="4" t="n">
         <v>9</v>
       </c>
       <c r="I341" s="3" t="s">
-        <v>1362</v>
+        <v>1365</v>
       </c>
       <c r="J341" s="1"/>
       <c r="K341" s="1"/>
@@ -27529,7 +27538,7 @@
         <v>#NAME?</v>
       </c>
       <c r="T341" s="1" t="s">
-        <v>1363</v>
+        <v>1366</v>
       </c>
       <c r="U341" s="1" t="e">
         <v>#NAME?</v>
@@ -27550,10 +27559,10 @@
     </row>
     <row r="342" spans="1:26">
       <c r="A342" s="1" t="s">
-        <v>1364</v>
+        <v>1367</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>1365</v>
+        <v>1368</v>
       </c>
       <c r="C342" s="4" t="n">
         <v>5</v>
@@ -27566,13 +27575,13 @@
         <v>25</v>
       </c>
       <c r="G342" s="1" t="s">
-        <v>1366</v>
+        <v>1369</v>
       </c>
       <c r="H342" s="2" t="s">
         <v>77</v>
       </c>
       <c r="I342" s="3" t="s">
-        <v>1367</v>
+        <v>1370</v>
       </c>
       <c r="J342" s="3"/>
       <c r="K342" s="6"/>
@@ -27612,13 +27621,13 @@
     </row>
     <row r="343" spans="1:26">
       <c r="A343" s="1" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>1369</v>
+        <v>1372</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>1370</v>
+        <v>1373</v>
       </c>
       <c r="D343" s="5" t="e">
         <v>#NAME?</v>
@@ -27634,7 +27643,7 @@
         <v>77</v>
       </c>
       <c r="I343" s="3" t="s">
-        <v>1371</v>
+        <v>1374</v>
       </c>
       <c r="J343" s="3"/>
       <c r="K343" s="6"/>
@@ -27674,10 +27683,10 @@
     </row>
     <row r="344" spans="1:26">
       <c r="A344" s="1" t="s">
-        <v>1372</v>
+        <v>1375</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>1373</v>
+        <v>1376</v>
       </c>
       <c r="C344" s="4" t="n">
         <v>4</v>
@@ -27692,13 +27701,13 @@
         <v>25</v>
       </c>
       <c r="G344" s="1" t="s">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="H344" s="2" t="s">
         <v>77</v>
       </c>
       <c r="I344" s="3" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
       <c r="J344" s="3"/>
       <c r="K344" s="6" t="n">
@@ -27742,10 +27751,10 @@
     </row>
     <row r="345" spans="1:26">
       <c r="A345" s="1" t="s">
-        <v>1376</v>
+        <v>1379</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="C345" s="4" t="n">
         <v>3</v>
@@ -27762,7 +27771,7 @@
         <v>77</v>
       </c>
       <c r="I345" s="3" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="J345" s="3"/>
       <c r="K345" s="6"/>
@@ -27802,10 +27811,10 @@
     </row>
     <row r="346" spans="1:26">
       <c r="A346" s="1" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="C346" s="4" t="n">
         <v>3</v>
@@ -27820,13 +27829,13 @@
         <v>25</v>
       </c>
       <c r="G346" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H346" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I346" s="3" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="J346" s="3"/>
       <c r="K346" s="6" t="n">
@@ -27870,10 +27879,10 @@
     </row>
     <row r="347" spans="1:26">
       <c r="A347" s="1" t="s">
-        <v>1382</v>
+        <v>1385</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="C347" s="4" t="n">
         <v>6</v>
@@ -27886,16 +27895,16 @@
         <v>25</v>
       </c>
       <c r="G347" s="1" t="s">
-        <v>1384</v>
+        <v>1387</v>
       </c>
       <c r="H347" s="2" t="s">
-        <v>1385</v>
+        <v>1388</v>
       </c>
       <c r="I347" s="3" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
       <c r="J347" s="3" t="s">
-        <v>1387</v>
+        <v>1390</v>
       </c>
       <c r="K347" s="1" t="s">
         <v>29</v>
@@ -27938,10 +27947,10 @@
     </row>
     <row r="348" spans="1:26">
       <c r="A348" s="1" t="s">
-        <v>1388</v>
+        <v>1391</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>1389</v>
+        <v>1392</v>
       </c>
       <c r="C348" s="4" t="n">
         <v>7</v>
@@ -27962,7 +27971,7 @@
         <v>127</v>
       </c>
       <c r="I348" s="3" t="s">
-        <v>1390</v>
+        <v>1393</v>
       </c>
       <c r="J348" s="3"/>
       <c r="K348" s="6" t="n">
@@ -28006,10 +28015,10 @@
     </row>
     <row r="349" spans="1:26">
       <c r="A349" s="1" t="s">
-        <v>1391</v>
+        <v>1394</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>1392</v>
+        <v>1395</v>
       </c>
       <c r="C349" s="4" t="n">
         <v>3</v>
@@ -28022,13 +28031,13 @@
         <v>25</v>
       </c>
       <c r="G349" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H349" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I349" s="3" t="s">
-        <v>1393</v>
+        <v>1396</v>
       </c>
       <c r="J349" s="3"/>
       <c r="K349" s="1" t="s">
@@ -28072,10 +28081,10 @@
     </row>
     <row r="350" spans="1:26">
       <c r="A350" s="1" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>1395</v>
+        <v>1398</v>
       </c>
       <c r="C350" s="4" t="n">
         <v>4</v>
@@ -28088,13 +28097,13 @@
         <v>25</v>
       </c>
       <c r="G350" s="1" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
       <c r="H350" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I350" s="3" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
       <c r="J350" s="3"/>
       <c r="K350" s="1" t="s">
@@ -28138,10 +28147,10 @@
     </row>
     <row r="351" spans="1:26">
       <c r="A351" s="1" t="s">
-        <v>1398</v>
+        <v>1401</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>1399</v>
+        <v>1402</v>
       </c>
       <c r="C351" s="4" t="n">
         <v>3</v>
@@ -28154,13 +28163,13 @@
         <v>25</v>
       </c>
       <c r="G351" s="1" t="s">
-        <v>1400</v>
+        <v>1403</v>
       </c>
       <c r="H351" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I351" s="3" t="s">
-        <v>1401</v>
+        <v>1404</v>
       </c>
       <c r="J351" s="3"/>
       <c r="K351" s="1"/>
@@ -28200,10 +28209,10 @@
     </row>
     <row r="352" spans="1:26">
       <c r="A352" s="1" t="s">
-        <v>1402</v>
+        <v>1405</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>1403</v>
+        <v>1406</v>
       </c>
       <c r="C352" s="4" t="n">
         <v>5</v>
@@ -28212,19 +28221,19 @@
         <v>#NAME?</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F352" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G352" s="1" t="s">
-        <v>1404</v>
+        <v>1407</v>
       </c>
       <c r="H352" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I352" s="3" t="s">
-        <v>1405</v>
+        <v>1408</v>
       </c>
       <c r="J352" s="3"/>
       <c r="K352" s="1" t="n">
@@ -28268,10 +28277,10 @@
     </row>
     <row r="353" spans="1:26">
       <c r="A353" s="1" t="s">
-        <v>1406</v>
+        <v>1409</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>1407</v>
+        <v>1410</v>
       </c>
       <c r="C353" s="4" t="n">
         <v>4</v>
@@ -28286,13 +28295,13 @@
         <v>25</v>
       </c>
       <c r="G353" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H353" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I353" s="3" t="s">
-        <v>1408</v>
+        <v>1411</v>
       </c>
       <c r="J353" s="3"/>
       <c r="K353" s="1" t="n">
@@ -28336,10 +28345,10 @@
     </row>
     <row r="354" spans="1:26">
       <c r="A354" s="1" t="s">
-        <v>1409</v>
+        <v>1412</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>1410</v>
+        <v>1413</v>
       </c>
       <c r="C354" s="4" t="n">
         <v>2</v>
@@ -28352,13 +28361,13 @@
         <v>25</v>
       </c>
       <c r="G354" s="1" t="s">
-        <v>1411</v>
+        <v>1414</v>
       </c>
       <c r="H354" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I354" s="3" t="s">
-        <v>1412</v>
+        <v>1415</v>
       </c>
       <c r="J354" s="3"/>
       <c r="K354" s="1"/>
@@ -28398,10 +28407,10 @@
     </row>
     <row r="355" spans="1:26">
       <c r="A355" s="1" t="s">
-        <v>1413</v>
+        <v>1416</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>1414</v>
+        <v>1417</v>
       </c>
       <c r="C355" s="4" t="n">
         <v>2</v>
@@ -28414,13 +28423,13 @@
         <v>25</v>
       </c>
       <c r="G355" s="1" t="s">
-        <v>1384</v>
+        <v>1387</v>
       </c>
       <c r="H355" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I355" s="3" t="s">
-        <v>1415</v>
+        <v>1418</v>
       </c>
       <c r="J355" s="3"/>
       <c r="K355" s="1"/>
@@ -28460,10 +28469,10 @@
     </row>
     <row r="356" spans="1:26">
       <c r="A356" s="1" t="s">
-        <v>1416</v>
+        <v>1419</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>1417</v>
+        <v>1420</v>
       </c>
       <c r="C356" s="4"/>
       <c r="D356" s="5" t="e">
@@ -28471,16 +28480,16 @@
       </c>
       <c r="E356" s="1"/>
       <c r="F356" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G356" s="1" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="H356" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I356" s="3" t="s">
-        <v>1418</v>
+        <v>1421</v>
       </c>
       <c r="J356" s="3"/>
       <c r="K356" s="1"/>
@@ -28520,10 +28529,10 @@
     </row>
     <row r="357" spans="1:26">
       <c r="A357" s="1" t="s">
-        <v>1419</v>
+        <v>1422</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>1420</v>
+        <v>1423</v>
       </c>
       <c r="C357" s="4" t="n">
         <v>3</v>
@@ -28540,7 +28549,7 @@
         <v>127</v>
       </c>
       <c r="I357" s="3" t="s">
-        <v>1421</v>
+        <v>1424</v>
       </c>
       <c r="J357" s="3"/>
       <c r="K357" s="1"/>
@@ -28580,10 +28589,10 @@
     </row>
     <row r="358" spans="1:26">
       <c r="A358" s="1" t="s">
-        <v>1422</v>
+        <v>1425</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>1423</v>
+        <v>1426</v>
       </c>
       <c r="C358" s="4" t="n">
         <v>5</v>
@@ -28596,13 +28605,13 @@
         <v>25</v>
       </c>
       <c r="G358" s="1" t="s">
-        <v>1384</v>
+        <v>1387</v>
       </c>
       <c r="H358" s="2" t="s">
         <v>117</v>
       </c>
       <c r="I358" s="3" t="s">
-        <v>1424</v>
+        <v>1427</v>
       </c>
       <c r="J358" s="3"/>
       <c r="K358" s="1"/>
@@ -28642,10 +28651,10 @@
     </row>
     <row r="359" spans="1:26">
       <c r="A359" s="1" t="s">
-        <v>1425</v>
+        <v>1428</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>1426</v>
+        <v>1429</v>
       </c>
       <c r="C359" s="4" t="n">
         <v>4</v>
@@ -28662,7 +28671,7 @@
         <v>117</v>
       </c>
       <c r="I359" s="3" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="J359" s="3"/>
       <c r="K359" s="1"/>
@@ -28702,10 +28711,10 @@
     </row>
     <row r="360" spans="1:26">
       <c r="A360" s="1" t="s">
-        <v>1428</v>
+        <v>1431</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>1429</v>
+        <v>1432</v>
       </c>
       <c r="C360" s="4" t="n">
         <v>1</v>
@@ -28724,7 +28733,7 @@
         <v>117</v>
       </c>
       <c r="I360" s="3" t="s">
-        <v>1430</v>
+        <v>1433</v>
       </c>
       <c r="J360" s="3"/>
       <c r="K360" s="1"/>
@@ -28764,13 +28773,13 @@
     </row>
     <row r="361" spans="1:26">
       <c r="A361" s="1" t="s">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>1432</v>
+        <v>1435</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>1433</v>
+        <v>1436</v>
       </c>
       <c r="D361" s="5" t="e">
         <v>#NAME?</v>
@@ -28786,7 +28795,7 @@
         <v>155</v>
       </c>
       <c r="I361" s="3" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="J361" s="3"/>
       <c r="K361" s="1" t="s">
@@ -28798,7 +28807,7 @@
       <c r="M361" s="1"/>
       <c r="N361" s="1"/>
       <c r="O361" s="11" t="s">
-        <v>1435</v>
+        <v>1438</v>
       </c>
       <c r="P361" s="1"/>
       <c r="Q361" s="6" t="n">
@@ -28832,10 +28841,10 @@
     </row>
     <row r="362" spans="1:26">
       <c r="A362" s="1" t="s">
-        <v>1436</v>
+        <v>1439</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>1437</v>
+        <v>1440</v>
       </c>
       <c r="C362" s="4" t="n">
         <v>0</v>
@@ -28848,13 +28857,13 @@
         <v>32</v>
       </c>
       <c r="G362" s="1" t="s">
-        <v>1438</v>
+        <v>1441</v>
       </c>
       <c r="H362" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I362" s="3" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="J362" s="3"/>
       <c r="K362" s="1"/>
@@ -28894,10 +28903,10 @@
     </row>
     <row r="363" spans="1:26">
       <c r="A363" s="1" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="C363" s="4" t="n">
         <v>2</v>
@@ -28912,16 +28921,16 @@
         <v>25</v>
       </c>
       <c r="G363" s="1" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
       <c r="H363" s="2" t="s">
         <v>174</v>
       </c>
       <c r="I363" s="3" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="J363" s="3" t="s">
-        <v>1444</v>
+        <v>1447</v>
       </c>
       <c r="K363" s="6" t="n">
         <v>2</v>
@@ -28964,10 +28973,10 @@
     </row>
     <row r="364" spans="1:26">
       <c r="A364" s="1" t="s">
-        <v>1445</v>
+        <v>1448</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>1446</v>
+        <v>1449</v>
       </c>
       <c r="C364" s="4" t="n">
         <v>1</v>
@@ -28984,7 +28993,7 @@
         <v>174</v>
       </c>
       <c r="I364" s="3" t="s">
-        <v>1447</v>
+        <v>1450</v>
       </c>
       <c r="J364" s="3"/>
       <c r="K364" s="1" t="s">
@@ -29028,10 +29037,10 @@
     </row>
     <row r="365" spans="1:26">
       <c r="A365" s="1" t="s">
-        <v>1448</v>
+        <v>1451</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>1449</v>
+        <v>1452</v>
       </c>
       <c r="C365" s="4" t="n">
         <v>1</v>
@@ -29046,13 +29055,13 @@
         <v>25</v>
       </c>
       <c r="G365" s="1" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H365" s="2" t="s">
         <v>155</v>
       </c>
       <c r="I365" s="3" t="s">
-        <v>1450</v>
+        <v>1453</v>
       </c>
       <c r="J365" s="1"/>
       <c r="K365" s="6" t="n">
@@ -29096,10 +29105,10 @@
     </row>
     <row r="366" spans="1:26">
       <c r="A366" s="1" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>1452</v>
+        <v>1455</v>
       </c>
       <c r="C366" s="4" t="n">
         <v>4</v>
@@ -29112,13 +29121,13 @@
         <v>25</v>
       </c>
       <c r="G366" s="1" t="s">
-        <v>1453</v>
+        <v>1456</v>
       </c>
       <c r="H366" s="2" t="s">
         <v>174</v>
       </c>
       <c r="I366" s="3" t="s">
-        <v>1454</v>
+        <v>1457</v>
       </c>
       <c r="J366" s="3"/>
       <c r="K366" s="1"/>
@@ -29158,10 +29167,10 @@
     </row>
     <row r="367" spans="1:26">
       <c r="A367" s="1" t="s">
-        <v>1455</v>
+        <v>1458</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="C367" s="4" t="n">
         <v>5</v>
@@ -29176,16 +29185,16 @@
         <v>25</v>
       </c>
       <c r="G367" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H367" s="2" t="s">
         <v>155</v>
       </c>
       <c r="I367" s="3" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J367" s="3" t="s">
-        <v>1457</v>
+        <v>1460</v>
       </c>
       <c r="K367" s="6" t="n">
         <v>4</v>
@@ -29228,10 +29237,10 @@
     </row>
     <row r="368" spans="1:26">
       <c r="A368" s="1" t="s">
-        <v>1458</v>
+        <v>1461</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="C368" s="4"/>
       <c r="D368" s="5" t="e">
@@ -29239,16 +29248,16 @@
       </c>
       <c r="E368" s="1"/>
       <c r="F368" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G368" s="1" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="H368" s="2" t="s">
         <v>182</v>
       </c>
       <c r="I368" s="3" t="s">
-        <v>1460</v>
+        <v>1463</v>
       </c>
       <c r="J368" s="3"/>
       <c r="K368" s="1"/>
@@ -29288,10 +29297,10 @@
     </row>
     <row r="369" spans="1:26">
       <c r="A369" s="1" t="s">
-        <v>1461</v>
+        <v>1464</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>1462</v>
+        <v>1465</v>
       </c>
       <c r="C369" s="4" t="n">
         <v>5</v>
@@ -29308,7 +29317,7 @@
         <v>182</v>
       </c>
       <c r="I369" s="3" t="s">
-        <v>1463</v>
+        <v>1466</v>
       </c>
       <c r="J369" s="3"/>
       <c r="K369" s="1"/>
@@ -29348,10 +29357,10 @@
     </row>
     <row r="370" spans="1:26">
       <c r="A370" s="1" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>1465</v>
+        <v>1468</v>
       </c>
       <c r="C370" s="4" t="n">
         <v>3</v>
@@ -29368,7 +29377,7 @@
         <v>182</v>
       </c>
       <c r="I370" s="3" t="s">
-        <v>1466</v>
+        <v>1469</v>
       </c>
       <c r="J370" s="3"/>
       <c r="K370" s="1"/>
@@ -29408,10 +29417,10 @@
     </row>
     <row r="371" spans="1:26">
       <c r="A371" s="1" t="s">
-        <v>1467</v>
+        <v>1470</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>1468</v>
+        <v>1471</v>
       </c>
       <c r="C371" s="4" t="n">
         <v>1</v>
@@ -29474,10 +29483,10 @@
     </row>
     <row r="372" spans="1:26">
       <c r="A372" s="1" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="C372" s="4" t="n">
         <v>1</v>
@@ -29490,13 +29499,13 @@
         <v>25</v>
       </c>
       <c r="G372" s="1" t="s">
-        <v>1384</v>
+        <v>1387</v>
       </c>
       <c r="H372" s="2" t="s">
         <v>155</v>
       </c>
       <c r="I372" s="3" t="s">
-        <v>1471</v>
+        <v>1474</v>
       </c>
       <c r="J372" s="3"/>
       <c r="K372" s="1"/>
@@ -29536,10 +29545,10 @@
     </row>
     <row r="373" spans="1:26">
       <c r="A373" s="1" t="s">
-        <v>1472</v>
+        <v>1475</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
       <c r="C373" s="4" t="n">
         <v>0</v>
@@ -29552,13 +29561,13 @@
         <v>25</v>
       </c>
       <c r="G373" s="1" t="s">
-        <v>1384</v>
+        <v>1387</v>
       </c>
       <c r="H373" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I373" s="3" t="s">
-        <v>1474</v>
+        <v>1477</v>
       </c>
       <c r="J373" s="3"/>
       <c r="K373" s="1"/>
@@ -29598,10 +29607,10 @@
     </row>
     <row r="374" spans="1:26">
       <c r="A374" s="1" t="s">
-        <v>1475</v>
+        <v>1478</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="C374" s="4" t="n">
         <v>2</v>
@@ -29620,7 +29629,7 @@
         <v>182</v>
       </c>
       <c r="I374" s="3" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="J374" s="3"/>
       <c r="K374" s="1"/>
@@ -29660,10 +29669,10 @@
     </row>
     <row r="375" spans="1:26">
       <c r="A375" s="1" t="s">
-        <v>1478</v>
+        <v>1481</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>1479</v>
+        <v>1482</v>
       </c>
       <c r="C375" s="4" t="n">
         <v>3</v>
@@ -29680,7 +29689,7 @@
         <v>132</v>
       </c>
       <c r="I375" s="3" t="s">
-        <v>1480</v>
+        <v>1483</v>
       </c>
       <c r="J375" s="3"/>
       <c r="K375" s="1"/>
@@ -29720,10 +29729,10 @@
     </row>
     <row r="376" spans="1:26">
       <c r="A376" s="1" t="s">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="C376" s="4" t="n">
         <v>2</v>
@@ -29738,7 +29747,7 @@
         <v>25</v>
       </c>
       <c r="G376" s="1" t="s">
-        <v>1483</v>
+        <v>1486</v>
       </c>
       <c r="H376" s="2" t="s">
         <v>174</v>
@@ -29790,10 +29799,10 @@
     </row>
     <row r="377" spans="1:26">
       <c r="A377" s="1" t="s">
-        <v>1484</v>
+        <v>1487</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="C377" s="4" t="n">
         <v>2</v>
@@ -29806,13 +29815,13 @@
         <v>32</v>
       </c>
       <c r="G377" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
       <c r="H377" s="2" t="s">
         <v>174</v>
       </c>
       <c r="I377" s="3" t="s">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="J377" s="3"/>
       <c r="K377" s="1"/>
@@ -29852,10 +29861,10 @@
     </row>
     <row r="378" spans="1:26">
       <c r="A378" s="1" t="s">
-        <v>1488</v>
+        <v>1491</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>1489</v>
+        <v>1492</v>
       </c>
       <c r="C378" s="4" t="n">
         <v>3</v>
@@ -29868,13 +29877,13 @@
         <v>32</v>
       </c>
       <c r="G378" s="1" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="H378" s="2" t="s">
         <v>132</v>
       </c>
       <c r="I378" s="3" t="s">
-        <v>1490</v>
+        <v>1493</v>
       </c>
       <c r="J378" s="3"/>
       <c r="K378" s="1"/>
@@ -29914,13 +29923,13 @@
     </row>
     <row r="379" spans="1:26">
       <c r="A379" s="1" t="s">
-        <v>1491</v>
+        <v>1494</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>1492</v>
+        <v>1495</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>1493</v>
+        <v>1496</v>
       </c>
       <c r="D379" s="5" t="e">
         <v>#NAME?</v>
@@ -29934,7 +29943,7 @@
         <v>77</v>
       </c>
       <c r="I379" s="3" t="s">
-        <v>1494</v>
+        <v>1497</v>
       </c>
       <c r="J379" s="3"/>
       <c r="K379" s="12" t="s">
@@ -29976,10 +29985,10 @@
     </row>
     <row r="380" spans="1:26">
       <c r="A380" s="1" t="s">
-        <v>1495</v>
+        <v>1498</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>1496</v>
+        <v>1499</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>186</v>
@@ -29998,7 +30007,7 @@
         <v>92</v>
       </c>
       <c r="I380" s="3" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="J380" s="3"/>
       <c r="K380" s="1"/>
@@ -30038,10 +30047,10 @@
     </row>
     <row r="381" spans="1:26">
       <c r="A381" s="1" t="s">
-        <v>1498</v>
+        <v>1501</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>1499</v>
+        <v>1502</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>82</v>
@@ -30058,7 +30067,7 @@
         <v>127</v>
       </c>
       <c r="I381" s="3" t="s">
-        <v>1500</v>
+        <v>1503</v>
       </c>
       <c r="J381" s="3"/>
       <c r="K381" s="1"/>
@@ -30098,29 +30107,29 @@
     </row>
     <row r="382" spans="1:26">
       <c r="A382" s="1" t="s">
-        <v>1501</v>
+        <v>1504</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>1502</v>
+        <v>1505</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>186</v>
       </c>
       <c r="D382" s="5" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="E382" s="1"/>
       <c r="F382" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G382" s="1" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="H382" s="2" t="s">
         <v>174</v>
       </c>
       <c r="I382" s="3" t="s">
-        <v>1503</v>
+        <v>1506</v>
       </c>
       <c r="J382" s="3"/>
       <c r="K382" s="1"/>
@@ -30160,10 +30169,10 @@
     </row>
     <row r="383" spans="1:26">
       <c r="A383" s="1" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>1505</v>
+        <v>1508</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>557</v>
@@ -30178,16 +30187,16 @@
         <v>25</v>
       </c>
       <c r="G383" s="1" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="H383" s="2" t="s">
         <v>155</v>
       </c>
       <c r="I383" s="3" t="s">
-        <v>1507</v>
+        <v>1510</v>
       </c>
       <c r="J383" s="3" t="s">
-        <v>1508</v>
+        <v>1511</v>
       </c>
       <c r="K383" s="1" t="n">
         <v>3</v>
@@ -30230,10 +30239,10 @@
     </row>
     <row r="384" spans="1:26">
       <c r="A384" s="1" t="s">
-        <v>1509</v>
+        <v>1512</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>1510</v>
+        <v>1513</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>524</v>
@@ -30246,16 +30255,16 @@
         <v>32</v>
       </c>
       <c r="G384" s="1" t="s">
-        <v>1438</v>
+        <v>1441</v>
       </c>
       <c r="H384" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I384" s="3" t="s">
-        <v>1511</v>
+        <v>1514</v>
       </c>
       <c r="J384" s="3" t="s">
-        <v>1512</v>
+        <v>1515</v>
       </c>
       <c r="K384" s="1"/>
       <c r="L384" s="1"/>
@@ -30294,10 +30303,10 @@
     </row>
     <row r="385" spans="1:26">
       <c r="A385" s="1" t="s">
-        <v>1513</v>
+        <v>1516</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>1514</v>
+        <v>1517</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>535</v>
@@ -30316,7 +30325,7 @@
         <v>127</v>
       </c>
       <c r="I385" s="3" t="s">
-        <v>1515</v>
+        <v>1518</v>
       </c>
       <c r="J385" s="3"/>
       <c r="K385" s="1"/>
@@ -30356,10 +30365,10 @@
     </row>
     <row r="386" spans="1:26">
       <c r="A386" s="1" t="s">
-        <v>1516</v>
+        <v>1519</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>1517</v>
+        <v>1520</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>557</v>
@@ -30378,7 +30387,7 @@
         <v>92</v>
       </c>
       <c r="I386" s="3" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
       <c r="J386" s="3"/>
       <c r="K386" s="1"/>
@@ -30418,10 +30427,10 @@
     </row>
     <row r="387" spans="1:26">
       <c r="A387" s="1" t="s">
-        <v>1519</v>
+        <v>1522</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>53</v>
@@ -30434,13 +30443,13 @@
         <v>32</v>
       </c>
       <c r="G387" s="1" t="s">
-        <v>1521</v>
+        <v>1524</v>
       </c>
       <c r="H387" s="2" t="s">
         <v>155</v>
       </c>
       <c r="I387" s="3" t="s">
-        <v>1522</v>
+        <v>1525</v>
       </c>
       <c r="J387" s="3"/>
       <c r="K387" s="1"/>
@@ -30480,13 +30489,13 @@
     </row>
     <row r="388" spans="1:26">
       <c r="A388" s="1" t="s">
-        <v>1523</v>
+        <v>1526</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>1524</v>
+        <v>1527</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>1525</v>
+        <v>1528</v>
       </c>
       <c r="D388" s="5" t="e">
         <v>#NAME?</v>
@@ -30502,7 +30511,7 @@
         <v>92</v>
       </c>
       <c r="I388" s="3" t="s">
-        <v>1526</v>
+        <v>1529</v>
       </c>
       <c r="J388" s="3"/>
       <c r="K388" s="1"/>
@@ -30542,13 +30551,13 @@
     </row>
     <row r="389" spans="1:26">
       <c r="A389" s="1" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>1528</v>
+        <v>1531</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="D389" s="5" t="e">
         <v>#NAME?</v>
@@ -30564,7 +30573,7 @@
         <v>92</v>
       </c>
       <c r="I389" s="3" t="s">
-        <v>1529</v>
+        <v>1532</v>
       </c>
       <c r="J389" s="3"/>
       <c r="K389" s="1"/>
@@ -47802,7 +47811,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1715568702" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1716151689" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -47811,15 +47820,15 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1715568702" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1715568702" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1716151689" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1716151689" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715568702" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1716151689" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -48845,7 +48854,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1715568702" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1716151689" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -48854,14 +48863,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1715568702" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1715568702" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1716151689" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1716151689" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715568702" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1716151689" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
